--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCowan\Projects\ce_expansion\data\bimetallic_results\icosahedron\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6CBDA4-31CB-429B-A149-A42071A70446}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>n_atoms</t>
   </si>
@@ -29,6 +23,12 @@
   </si>
   <si>
     <t>composition_Cu</t>
+  </si>
+  <si>
+    <t>n_Au</t>
+  </si>
+  <si>
+    <t>n_Cu</t>
   </si>
   <si>
     <t>CE</t>
@@ -40,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E318"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,3714 +414,5028 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.7799170796806889</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>-2.779917079680689</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C3">
-        <v>7.6923076923076927E-2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3">
-        <v>-2.9538777715877989</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>-0.19192098800034249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-2.953877771587799</v>
+      </c>
+      <c r="G3">
+        <v>-0.1919209880003425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C4">
-        <v>0.15384615384615391</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D4">
-        <v>-2.9396505259286658</v>
+        <v>11</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>-2.939650525928666</v>
+      </c>
+      <c r="G4">
         <v>-0.1956540384344421</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C5">
-        <v>0.23076923076923081</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D5">
-        <v>-2.9254232802695319</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>-0.19938708886854159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>-2.925423280269532</v>
+      </c>
+      <c r="G5">
+        <v>-0.1993870888685416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C6">
-        <v>0.30769230769230771</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>-2.911196034610398</v>
       </c>
-      <c r="E6">
-        <v>-0.20312013930263981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>-0.2031201393026398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C7">
-        <v>0.38461538461538458</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
-        <v>-2.8890782025109449</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-0.19896260329641999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-2.889078202510945</v>
+      </c>
+      <c r="G7">
+        <v>-0.19896260329642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C8">
-        <v>0.46153846153846162</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>-2.8590697839711772</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-0.18691448084988499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>-2.859069783971177</v>
+      </c>
+      <c r="G8">
+        <v>-0.186914480849885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C9">
-        <v>0.53846153846153844</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>-2.8290613654314081</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-0.17486635840334849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>-2.829061365431408</v>
+      </c>
+      <c r="G9">
+        <v>-0.1748663584033485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C10">
-        <v>0.61538461538461542</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>-2.791162360451322</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>-0.1549276495164951</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C11">
-        <v>0.69230769230769229</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D11">
-        <v>-2.7532633554712338</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>-0.13498894062964051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>-2.753263355471234</v>
+      </c>
+      <c r="G11">
+        <v>-0.1349889406296405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C12">
-        <v>0.76923076923076927</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>-2.70747376405083</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>-0.1071596453024691</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C13">
-        <v>0.84615384615384615</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D13">
-        <v>-2.6537935861901079</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>-7.1439763534979717E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>-2.653793586190108</v>
+      </c>
+      <c r="G13">
+        <v>-0.07143976353497972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C14">
-        <v>0.92307692307692313</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D14">
-        <v>-2.6001134083293849</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>-3.5719881767490247E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>-2.600113408329385</v>
+      </c>
+      <c r="G14">
+        <v>-0.03571988176749025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-2.5464332304686619</v>
+        <v>0</v>
       </c>
       <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>-2.546433230468662</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-3.185172386107054</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-3.185172386107054</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>55</v>
       </c>
       <c r="B17">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C17">
-        <v>1.8181818181818181E-2</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="D17">
-        <v>-3.1993411423537301</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>-1.9032775161274881E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-3.19934114235373</v>
+      </c>
+      <c r="G17">
+        <v>-0.01903277516127488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>55</v>
       </c>
       <c r="B18">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C18">
-        <v>3.6363636363636362E-2</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="D18">
-        <v>-3.2135098986004049</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>-3.8065550322549317E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>-3.213509898600405</v>
+      </c>
+      <c r="G18">
+        <v>-0.03806555032254932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C19">
-        <v>5.4545454545454543E-2</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D19">
-        <v>-3.2276786548470811</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>-5.7098325483823757E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>-3.227678654847081</v>
+      </c>
+      <c r="G19">
+        <v>-0.05709832548382376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>55</v>
       </c>
       <c r="B20">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C20">
-        <v>7.2727272727272724E-2</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="D20">
-        <v>-3.2405286232149679</v>
+        <v>51</v>
       </c>
       <c r="E20">
-        <v>-7.4812312766311173E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>-3.240528623214968</v>
+      </c>
+      <c r="G20">
+        <v>-0.07481231276631117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C21">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D21">
-        <v>-3.2520598037040682</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>-9.1207512170009775E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>-3.252059803704068</v>
+      </c>
+      <c r="G21">
+        <v>-0.09120751217000977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>55</v>
       </c>
       <c r="B22">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C22">
         <v>0.1090909090909091</v>
       </c>
       <c r="D22">
-        <v>-3.2635909841931681</v>
+        <v>49</v>
       </c>
       <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>-3.263590984193168</v>
+      </c>
+      <c r="G22">
         <v>-0.1076027115737084</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C23">
-        <v>0.12727272727272729</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
         <v>-3.27380337680348</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>-0.1226791230986191</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C24">
-        <v>0.14545454545454539</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="D24">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
         <v>-3.284015769413791</v>
       </c>
-      <c r="E24">
-        <v>-0.13775553462353021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>-0.1377555346235302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C25">
-        <v>0.16363636363636361</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="D25">
-        <v>-3.2929093741453141</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>-0.15151315826965209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-3.292909374145314</v>
+      </c>
+      <c r="G25">
+        <v>-0.1515131582696521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C26">
         <v>0.1818181818181818</v>
       </c>
       <c r="D26">
-        <v>-3.3004841909980498</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>-0.16395199403698729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-3.30048419099805</v>
+      </c>
+      <c r="G26">
+        <v>-0.1639519940369873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>-3.3080590078507859</v>
+        <v>44</v>
       </c>
       <c r="E27">
-        <v>-0.17639082980432219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>-3.308059007850786</v>
+      </c>
+      <c r="G27">
+        <v>-0.1763908298043222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C28">
         <v>0.2181818181818182</v>
       </c>
       <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
         <v>-3.307748313597179</v>
       </c>
-      <c r="E28">
-        <v>-0.18094415446531359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>-0.1809441544653136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>55</v>
       </c>
       <c r="B29">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C29">
-        <v>0.23636363636363639</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
         <v>-3.313856147165021</v>
       </c>
-      <c r="E29">
-        <v>-0.19191600694775571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>-0.1919160069477557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>55</v>
       </c>
       <c r="B30">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C30">
-        <v>0.25454545454545452</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="D30">
-        <v>-3.3120784696265222</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>-0.19500234832385521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>-3.312078469626522</v>
+      </c>
+      <c r="G30">
+        <v>-0.1950023483238552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>55</v>
       </c>
       <c r="B31">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C31">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D31">
-        <v>-3.3103007920880221</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>-0.19808868969995391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>-3.310300792088022</v>
+      </c>
+      <c r="G31">
+        <v>-0.1980886896999539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>55</v>
       </c>
       <c r="B32">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C32">
-        <v>0.29090909090909089</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
         <v>-3.308523114549522</v>
       </c>
-      <c r="E32">
-        <v>-0.20117503107605339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>-0.2011750310760534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C33">
-        <v>0.30909090909090908</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
         <v>-3.306745437011021</v>
       </c>
-      <c r="E33">
-        <v>-0.20426137245215201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>-0.204261372452152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C34">
-        <v>0.32727272727272733</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="D34">
-        <v>-3.3033525807815209</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>-0.20573253513725159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>-3.304967759472521</v>
+      </c>
+      <c r="G34">
+        <v>-0.2073477138282507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>55</v>
       </c>
       <c r="B35">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C35">
-        <v>0.34545454545454551</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="D35">
-        <v>-3.3031900819340199</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>-0.21043405520434891</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>-3.30319008193402</v>
+      </c>
+      <c r="G35">
+        <v>-0.2104340552043489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>55</v>
       </c>
       <c r="B36">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C36">
-        <v>0.36363636363636359</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
         <v>-3.301412404395518</v>
       </c>
-      <c r="E36">
-        <v>-0.21352039658044661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>-0.2135203965804466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>55</v>
       </c>
       <c r="B37">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C37">
-        <v>0.38181818181818178</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="D37">
-        <v>-3.2980195481660188</v>
+        <v>34</v>
       </c>
       <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>-3.298019548166019</v>
+      </c>
+      <c r="G37">
         <v>-0.2149915592655465</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>55</v>
       </c>
       <c r="B38">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C38">
         <v>0.4</v>
       </c>
       <c r="D38">
-        <v>-3.2930115132455211</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>-0.21484754325964711</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>-3.293011513245521</v>
+      </c>
+      <c r="G38">
+        <v>-0.2148475432596471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>55</v>
       </c>
       <c r="B39">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C39">
-        <v>0.41818181818181821</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
         <v>-3.289618657016022</v>
       </c>
-      <c r="E39">
-        <v>-0.21631870594474761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>-0.2163187059447476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C40">
-        <v>0.43636363636363629</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="D40">
-        <v>-3.2878409794775201</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <v>-0.21940504732084459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>-3.28784097947752</v>
+      </c>
+      <c r="G40">
+        <v>-0.2194050473208446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>55</v>
       </c>
       <c r="B41">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C41">
-        <v>0.45454545454545447</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D41">
-        <v>-3.2812177658660242</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>-0.21764585262394781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>-3.281217765866024</v>
+      </c>
+      <c r="G41">
+        <v>-0.2176458526239478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C42">
-        <v>0.47272727272727272</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="D42">
-        <v>-3.2778249096365228</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>-0.21911701530904559</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>-3.277824909636523</v>
+      </c>
+      <c r="G42">
+        <v>-0.2191170153090456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C43">
-        <v>0.49090909090909091</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="D43">
-        <v>-3.2728168747160238</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>-0.21897299930314601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>-3.272816874716024</v>
+      </c>
+      <c r="G43">
+        <v>-0.218972999303146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>55</v>
       </c>
       <c r="B44">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C44">
-        <v>0.50909090909090904</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="D44">
-        <v>-3.2678088397955238</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>-0.21882898329724521</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>-3.267808839795524</v>
+      </c>
+      <c r="G44">
+        <v>-0.2188289832972452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>55</v>
       </c>
       <c r="B45">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C45">
-        <v>0.52727272727272723</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D45">
-        <v>-3.2611856261840289</v>
+        <v>26</v>
       </c>
       <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>-3.261185626184029</v>
+      </c>
+      <c r="G45">
         <v>-0.2170697886003492</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>55</v>
       </c>
       <c r="B46">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C46">
-        <v>0.54545454545454541</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D46">
-        <v>-3.2561775912635298</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>-0.21692577259444909</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>-3.25617759126353</v>
+      </c>
+      <c r="G46">
+        <v>-0.2169257725944491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C47">
         <v>0.5636363636363636</v>
       </c>
       <c r="D47">
-        <v>-3.2511695563430298</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>-0.21678175658854809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>-3.25116955634303</v>
+      </c>
+      <c r="G47">
+        <v>-0.2167817565885481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>55</v>
       </c>
       <c r="B48">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C48">
-        <v>0.58181818181818179</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="F48">
         <v>-3.244546342731534</v>
       </c>
-      <c r="E48">
-        <v>-0.21502256189165131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>-0.2150225618916513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C49">
         <v>0.6</v>
       </c>
       <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
         <v>-3.237923129120035</v>
       </c>
-      <c r="E49">
-        <v>-0.21326336719475211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>-0.2132633671947521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C50">
-        <v>0.61818181818181817</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D50">
-        <v>-3.2296847368175401</v>
+        <v>21</v>
       </c>
       <c r="E50">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>-3.22968473681754</v>
+      </c>
+      <c r="G50">
         <v>-0.2098889938068553</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C51">
-        <v>0.63636363636363635</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D51">
-        <v>-3.2214463445150439</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>-0.20651462041895899</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>-3.223061523206043</v>
+      </c>
+      <c r="G51">
+        <v>-0.2081297991099575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C52">
-        <v>0.65454545454545454</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>36</v>
+      </c>
+      <c r="F52">
         <v>-3.214823130903548</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>-0.2047554257220621</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C53">
-        <v>0.67272727272727273</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+      <c r="F53">
         <v>-3.20658473860105</v>
       </c>
-      <c r="E53">
-        <v>-0.20138105233416301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>-0.201381052334163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C54">
-        <v>0.69090909090909092</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D54">
-        <v>-3.1983463462985529</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>-0.19800667894626539</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>-3.198346346298553</v>
+      </c>
+      <c r="G54">
+        <v>-0.1980066789462654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C55">
-        <v>0.70909090909090911</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D55">
-        <v>-3.1901079539960562</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>-0.19463230555836711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>-3.190107953996056</v>
+      </c>
+      <c r="G55">
+        <v>-0.1946323055583671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C56">
-        <v>0.72727272727272729</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D56">
-        <v>-3.1818695616935591</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>-0.19125793217046971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>-3.181869561693559</v>
+      </c>
+      <c r="G56">
+        <v>-0.1912579321704697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C57">
-        <v>0.74545454545454548</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="F57">
         <v>-3.173631169391061</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>-0.1878835587825706</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C58">
-        <v>0.76363636363636367</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
         <v>-3.165392777088563</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>-0.1845091853946722</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C59">
-        <v>0.78181818181818186</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
         <v>-3.151661867997654</v>
       </c>
-      <c r="E59">
-        <v>-0.17564229521836211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>-0.1756422952183621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C60">
         <v>0.8</v>
       </c>
       <c r="D60">
-        <v>-3.1321609911481931</v>
+        <v>11</v>
       </c>
       <c r="E60">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>-3.132160991148193</v>
+      </c>
+      <c r="G60">
         <v>-0.1610054372834995</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>55</v>
       </c>
       <c r="B61">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C61">
-        <v>0.81818181818181823</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>45</v>
+      </c>
+      <c r="F61">
         <v>-3.11266011429873</v>
       </c>
-      <c r="E61">
-        <v>-0.14636857934863659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>-0.1463685793486366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>55</v>
       </c>
       <c r="B62">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C62">
-        <v>0.83636363636363631</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="D62">
-        <v>-3.0931592374492678</v>
+        <v>9</v>
       </c>
       <c r="E62">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>-3.093159237449268</v>
+      </c>
+      <c r="G62">
         <v>-0.1317317214137729</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C63">
         <v>0.8545454545454545</v>
       </c>
       <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>47</v>
+      </c>
+      <c r="F63">
         <v>-3.073658360599806</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>-0.1170948634789107</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>55</v>
       </c>
       <c r="B64">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C64">
-        <v>0.87272727272727268</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="D64">
-        <v>-3.0541574837503438</v>
+        <v>7</v>
       </c>
       <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>-3.054157483750344</v>
+      </c>
+      <c r="G64">
         <v>-0.1024580055440469</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>55</v>
       </c>
       <c r="B65">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C65">
-        <v>0.89090909090909087</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="D65">
-        <v>-3.0346566069008811</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>-8.7821147609183081E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>-3.034656606900881</v>
+      </c>
+      <c r="G65">
+        <v>-0.08782114760918308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>55</v>
       </c>
       <c r="B66">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C66">
-        <v>0.90909090909090906</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
         <v>-3.015155730051418</v>
       </c>
-      <c r="E66">
-        <v>-7.3184289674319669E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>-0.07318428967431967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>55</v>
       </c>
       <c r="B67">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C67">
-        <v>0.92727272727272725</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="D67">
-        <v>-2.9956548532019549</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>-5.8547431739455813E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F67">
+        <v>-2.995654853201955</v>
+      </c>
+      <c r="G67">
+        <v>-0.05854743173945581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>55</v>
       </c>
       <c r="B68">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C68">
-        <v>0.94545454545454544</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="D68">
-        <v>-2.9761539763524918</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>-4.3910573804591978E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F68">
+        <v>-2.976153976352492</v>
+      </c>
+      <c r="G68">
+        <v>-0.04391057380459198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>55</v>
       </c>
       <c r="B69">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C69">
-        <v>0.96363636363636362</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>53</v>
+      </c>
+      <c r="F69">
         <v>-2.95665309950303</v>
       </c>
-      <c r="E69">
-        <v>-2.9273715869728569E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>-0.02927371586972857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C70">
-        <v>0.98181818181818181</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>54</v>
+      </c>
+      <c r="F70">
         <v>-2.937152222653566</v>
       </c>
-      <c r="E70">
-        <v>-1.463685793486384E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>-0.01463685793486384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>55</v>
       </c>
       <c r="B71">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>-2.9176513458041029</v>
+        <v>0</v>
       </c>
       <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>-2.917651345804103</v>
+      </c>
+      <c r="G71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>147</v>
       </c>
       <c r="B72">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>-3.3640896340428772</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>-3.364089634042877</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>147</v>
       </c>
       <c r="B73">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C73">
-        <v>6.8027210884353739E-3</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="D73">
-        <v>-3.3693908693732659</v>
+        <v>146</v>
       </c>
       <c r="E73">
-        <v>-7.2233320020438363E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-3.369390869373266</v>
+      </c>
+      <c r="G73">
+        <v>-0.007223332002043836</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>147</v>
       </c>
       <c r="B74">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C74">
-        <v>1.360544217687075E-2</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="D74">
-        <v>-3.3746921047036551</v>
+        <v>145</v>
       </c>
       <c r="E74">
-        <v>-1.444666400408812E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>-3.374692104703655</v>
+      </c>
+      <c r="G74">
+        <v>-0.01444666400408812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>147</v>
       </c>
       <c r="B75">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C75">
-        <v>2.0408163265306121E-2</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D75">
-        <v>-3.3799933400340438</v>
+        <v>144</v>
       </c>
       <c r="E75">
-        <v>-2.1669996006132401E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>-3.379993340034044</v>
+      </c>
+      <c r="G75">
+        <v>-0.0216699960061324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>147</v>
       </c>
       <c r="B76">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C76">
-        <v>2.7210884353741499E-2</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="D76">
-        <v>-3.3852945753644321</v>
+        <v>143</v>
       </c>
       <c r="E76">
-        <v>-2.8893328008174901E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>-3.385294575364432</v>
+      </c>
+      <c r="G76">
+        <v>-0.0288933280081749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>147</v>
       </c>
       <c r="B77">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C77">
-        <v>3.4013605442176867E-2</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="D77">
-        <v>-3.3860190414745621</v>
+        <v>142</v>
       </c>
       <c r="E77">
-        <v>-3.1539890789959557E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>-3.388307426084691</v>
+      </c>
+      <c r="G77">
+        <v>-0.03382827540008915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>147</v>
       </c>
       <c r="B78">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C78">
-        <v>4.0816326530612242E-2</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D78">
+        <v>141</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
         <v>-3.39132027680495</v>
       </c>
-      <c r="E78">
-        <v>-3.8763222792002512E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>-0.03876322279200251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>147</v>
       </c>
       <c r="B79">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C79">
-        <v>4.7619047619047623E-2</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D79">
-        <v>-3.3920447429150791</v>
+        <v>140</v>
       </c>
       <c r="E79">
-        <v>-4.1409785573787161E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>-3.394333127525209</v>
+      </c>
+      <c r="G79">
+        <v>-0.0436981701839172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>147</v>
       </c>
       <c r="B80">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C80">
-        <v>5.4421768707482991E-2</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="D80">
-        <v>-3.3991409388193161</v>
+        <v>139</v>
       </c>
       <c r="E80">
-        <v>-5.0428078149678417E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>-3.399140938819316</v>
+      </c>
+      <c r="G80">
+        <v>-0.05042807814967842</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>147</v>
       </c>
       <c r="B81">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C81">
-        <v>6.1224489795918373E-2</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="D81">
-        <v>-3.4021537895395748</v>
+        <v>138</v>
       </c>
       <c r="E81">
-        <v>-5.536302554159267E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>-3.402153789539575</v>
+      </c>
+      <c r="G81">
+        <v>-0.05536302554159267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>147</v>
       </c>
       <c r="B82">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C82">
-        <v>6.8027210884353748E-2</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="D82">
+        <v>137</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
         <v>-3.404673216223554</v>
       </c>
-      <c r="E82">
-        <v>-5.980454889722564E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>-0.05980454889722564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>147</v>
       </c>
       <c r="B83">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C83">
-        <v>7.4829931972789115E-2</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="D83">
-        <v>-3.405456889692942</v>
+        <v>136</v>
       </c>
       <c r="E83">
-        <v>-6.2510319038269202E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>-3.408714563878951</v>
+      </c>
+      <c r="G83">
+        <v>-0.06576799322427807</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>147</v>
       </c>
       <c r="B84">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C84">
-        <v>8.1632653061224483E-2</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="D84">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
         <v>-3.409218645555228</v>
       </c>
-      <c r="E84">
-        <v>-6.8194171572210305E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>-0.0681941715722103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>147</v>
       </c>
       <c r="B85">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C85">
-        <v>8.8435374149659865E-2</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="D85">
-        <v>-3.4165352258933179</v>
+        <v>134</v>
       </c>
       <c r="E85">
-        <v>-7.7432848581954872E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>-3.418603226069594</v>
+      </c>
+      <c r="G85">
+        <v>-0.07950084875823116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>147</v>
       </c>
       <c r="B86">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C86">
-        <v>9.5238095238095233E-2</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="D86">
-        <v>-3.4082638521496409</v>
+        <v>133</v>
       </c>
       <c r="E86">
-        <v>-7.1083571509932497E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>-3.408263852149641</v>
+      </c>
+      <c r="G86">
+        <v>-0.0710835715099325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>147</v>
       </c>
       <c r="B87">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C87">
         <v>0.1020408163265306</v>
       </c>
       <c r="D87">
-        <v>-3.4214129021866788</v>
+        <v>132</v>
       </c>
       <c r="E87">
-        <v>-8.615471821862597E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>-3.421412902186679</v>
+      </c>
+      <c r="G87">
+        <v>-0.08615471821862597</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>147</v>
       </c>
       <c r="B88">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C88">
         <v>0.108843537414966</v>
       </c>
       <c r="D88">
-        <v>-3.4179978894563732</v>
+        <v>131</v>
       </c>
       <c r="E88">
-        <v>-8.4661802159974542E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>-3.417997889456373</v>
+      </c>
+      <c r="G88">
+        <v>-0.08466180215997454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>147</v>
       </c>
       <c r="B89">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C89">
-        <v>0.11564625850340141</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="D89">
-        <v>-3.413537229971991</v>
+        <v>130</v>
       </c>
       <c r="E89">
-        <v>-8.2123239347247967E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>-3.416531753475406</v>
+      </c>
+      <c r="G89">
+        <v>-0.08511776285066297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>147</v>
       </c>
       <c r="B90">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C90">
         <v>0.1224489795918367</v>
       </c>
       <c r="D90">
-        <v>-3.4108531328965359</v>
+        <v>129</v>
       </c>
       <c r="E90">
-        <v>-8.1361238943447489E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>-3.417903155012227</v>
+      </c>
+      <c r="G90">
+        <v>-0.08841126105913855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>147</v>
       </c>
       <c r="B91">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C91">
-        <v>0.12925170068027211</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="D91">
-        <v>-3.4291846658157801</v>
+        <v>128</v>
       </c>
       <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>-3.42918466581578</v>
+      </c>
+      <c r="G91">
         <v>-0.1016148685343463</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>147</v>
       </c>
       <c r="B92">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C92">
         <v>0.1360544217687075</v>
       </c>
       <c r="D92">
-        <v>-3.4165691650925751</v>
+        <v>127</v>
       </c>
       <c r="E92">
-        <v>-9.0921464482796477E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>-3.420593302917294</v>
+      </c>
+      <c r="G92">
+        <v>-0.09494560230751503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>147</v>
       </c>
       <c r="B93">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C93">
-        <v>0.14285714285714279</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D93">
-        <v>-3.423112729601272</v>
+        <v>126</v>
       </c>
       <c r="E93">
-        <v>-9.9387125663148446E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>-3.423546946278295</v>
+      </c>
+      <c r="G93">
+        <v>-0.09982134234017082</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>147</v>
       </c>
       <c r="B94">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C94">
         <v>0.1496598639455782</v>
       </c>
       <c r="D94">
-        <v>-3.423929554224828</v>
+        <v>125</v>
       </c>
       <c r="E94">
-        <v>-0.1021260469583596</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>-3.436466427777403</v>
+      </c>
+      <c r="G94">
+        <v>-0.1146629205109337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>147</v>
       </c>
       <c r="B95">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C95">
-        <v>0.15646258503401361</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="D95">
-        <v>-3.4328906466502458</v>
+        <v>124</v>
       </c>
       <c r="E95">
-        <v>-0.11300923605543201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>-3.433540651887076</v>
+      </c>
+      <c r="G95">
+        <v>-0.1136592412922615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>147</v>
       </c>
       <c r="B96">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C96">
-        <v>0.16326530612244899</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="D96">
-        <v>-3.4250470715076249</v>
+        <v>123</v>
       </c>
       <c r="E96">
-        <v>-0.1070877575844658</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>-3.431738790456539</v>
+      </c>
+      <c r="G96">
+        <v>-0.1137794765333795</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>147</v>
       </c>
       <c r="B97">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C97">
-        <v>0.17006802721088429</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="D97">
-        <v>-3.4353000853760358</v>
+        <v>122</v>
       </c>
       <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>-3.435300085376036</v>
+      </c>
+      <c r="G97">
         <v>-0.1192628681245322</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>147</v>
       </c>
       <c r="B98">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C98">
         <v>0.1768707482993197</v>
       </c>
       <c r="D98">
-        <v>-3.4420651517047518</v>
+        <v>121</v>
       </c>
       <c r="E98">
-        <v>-0.12795003112490241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>-3.442065151704752</v>
+      </c>
+      <c r="G98">
+        <v>-0.1279500311249024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>147</v>
       </c>
       <c r="B99">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C99">
-        <v>0.18367346938775511</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="D99">
-        <v>-3.4324266159882808</v>
+        <v>120</v>
       </c>
       <c r="E99">
-        <v>-0.12023359208008649</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>-3.43330231024143</v>
+      </c>
+      <c r="G99">
+        <v>-0.1211092863332355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>147</v>
       </c>
       <c r="B100">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C100">
-        <v>0.19047619047619049</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D100">
-        <v>-3.4385359638199562</v>
+        <v>119</v>
       </c>
       <c r="E100">
-        <v>-0.12826503658341659</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>-3.438535963819956</v>
+      </c>
+      <c r="G100">
+        <v>-0.1282650365834166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>147</v>
       </c>
       <c r="B101">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C101">
-        <v>0.19727891156462579</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="D101">
+        <v>118</v>
+      </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
         <v>-3.43902248699955</v>
       </c>
-      <c r="E101">
-        <v>-0.13067365643466561</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>-0.1306736564346656</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>147</v>
       </c>
       <c r="B102">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C102">
         <v>0.2040816326530612</v>
       </c>
       <c r="D102">
-        <v>-3.4338636543367409</v>
+        <v>117</v>
       </c>
       <c r="E102">
-        <v>-0.12743692044351199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>-3.433863654336741</v>
+      </c>
+      <c r="G102">
+        <v>-0.127436920443512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>147</v>
       </c>
       <c r="B103">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C103">
-        <v>0.21088435374149661</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="D103">
-        <v>-3.4333672089653842</v>
+        <v>116</v>
       </c>
       <c r="E103">
-        <v>-0.12886257174380941</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>-3.433367208965384</v>
+      </c>
+      <c r="G103">
+        <v>-0.1288625717438094</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>147</v>
       </c>
       <c r="B104">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C104">
-        <v>0.21768707482993199</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="D104">
-        <v>-3.4426586028347632</v>
+        <v>115</v>
       </c>
       <c r="E104">
-        <v>-0.14007606228484271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>-3.442658602834763</v>
+      </c>
+      <c r="G104">
+        <v>-0.1400760622848427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>147</v>
       </c>
       <c r="B105">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C105">
-        <v>0.22448979591836729</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="D105">
-        <v>-3.4366878472939599</v>
+        <v>114</v>
       </c>
       <c r="E105">
-        <v>-0.136027403415695</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>-3.443754339387577</v>
+      </c>
+      <c r="G105">
+        <v>-0.1430938955093124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>147</v>
       </c>
       <c r="B106">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C106">
         <v>0.2312925170068027</v>
       </c>
       <c r="D106">
-        <v>-3.4369487172080491</v>
+        <v>113</v>
       </c>
       <c r="E106">
-        <v>-0.13821037000143879</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F106">
+        <v>-3.436948717208049</v>
+      </c>
+      <c r="G106">
+        <v>-0.1382103700014388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>147</v>
       </c>
       <c r="B107">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C107">
-        <v>0.23809523809523811</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D107">
-        <v>-3.4454999571475988</v>
+        <v>112</v>
       </c>
       <c r="E107">
-        <v>-0.14868370661264449</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>-3.445499957147599</v>
+      </c>
+      <c r="G107">
+        <v>-0.1486837066126445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>147</v>
       </c>
       <c r="B108">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C108">
-        <v>0.24489795918367349</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="D108">
-        <v>-3.4466025062782939</v>
+        <v>111</v>
       </c>
       <c r="E108">
-        <v>-0.15170835241499431</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>-3.446602506278294</v>
+      </c>
+      <c r="G108">
+        <v>-0.1517083524149943</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>147</v>
       </c>
       <c r="B109">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C109">
-        <v>0.25170068027210879</v>
+        <v>0.2517006802721088</v>
       </c>
       <c r="D109">
-        <v>-3.444931997974777</v>
+        <v>110</v>
       </c>
       <c r="E109">
-        <v>-0.1519599407831311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F109">
+        <v>-3.447084842261586</v>
+      </c>
+      <c r="G109">
+        <v>-0.1541127850699406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>147</v>
       </c>
       <c r="B110">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C110">
-        <v>0.25850340136054423</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="D110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>38</v>
+      </c>
+      <c r="F110">
         <v>-3.45162073133943</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>-0.1605707708194406</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>147</v>
       </c>
       <c r="B111">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C111">
-        <v>0.26530612244897961</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="D111">
-        <v>-3.4424591785487242</v>
+        <v>108</v>
       </c>
       <c r="E111">
-        <v>-0.15333131470038849</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>-3.442459178548724</v>
+      </c>
+      <c r="G111">
+        <v>-0.1533313147003885</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>147</v>
       </c>
       <c r="B112">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C112">
-        <v>0.27210884353741499</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="D112">
-        <v>-3.4490409095394532</v>
+        <v>107</v>
       </c>
       <c r="E112">
-        <v>-0.16183514236277219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>-3.449040909539453</v>
+      </c>
+      <c r="G112">
+        <v>-0.1618351423627722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>147</v>
       </c>
       <c r="B113">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C113">
-        <v>0.27891156462585032</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="D113">
-        <v>-3.438270769464872</v>
+        <v>106</v>
       </c>
       <c r="E113">
-        <v>-0.1529870989598465</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>-3.443057215590149</v>
+      </c>
+      <c r="G113">
+        <v>-0.157773545085123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>147</v>
       </c>
       <c r="B114">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C114">
         <v>0.2857142857142857</v>
       </c>
       <c r="D114">
+        <v>105</v>
+      </c>
+      <c r="E114">
+        <v>42</v>
+      </c>
+      <c r="F114">
         <v>-3.445861538649706</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>-0.1624999648163343</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>147</v>
       </c>
       <c r="B115">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C115">
-        <v>0.29251700680272108</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="D115">
-        <v>-3.4436762935088008</v>
+        <v>104</v>
       </c>
       <c r="E115">
-        <v>-0.16223681634708509</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>-3.446471040563712</v>
+      </c>
+      <c r="G115">
+        <v>-0.1650315634019965</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>147</v>
       </c>
       <c r="B116">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C116">
-        <v>0.29931972789115652</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="D116">
-        <v>-3.4464172220127969</v>
+        <v>103</v>
       </c>
       <c r="E116">
-        <v>-0.16689984152273579</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F116">
+        <v>-3.447016771102565</v>
+      </c>
+      <c r="G116">
+        <v>-0.1674993906125044</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>147</v>
       </c>
       <c r="B117">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C117">
-        <v>0.30612244897959179</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="D117">
-        <v>-3.4432874824776629</v>
+        <v>102</v>
       </c>
       <c r="E117">
-        <v>-0.16569219865925661</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>-3.445061402174284</v>
+      </c>
+      <c r="G117">
+        <v>-0.1674661183558781</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>147</v>
       </c>
       <c r="B118">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C118">
-        <v>0.31292517006802723</v>
+        <v>0.3129251700680272</v>
       </c>
       <c r="D118">
-        <v>-3.4421746700864251</v>
+        <v>101</v>
       </c>
       <c r="E118">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>-3.442174670086425</v>
+      </c>
+      <c r="G118">
         <v>-0.1665014829396734</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>147</v>
       </c>
       <c r="B119">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C119">
-        <v>0.31972789115646261</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="D119">
-        <v>-3.4408528295336418</v>
+        <v>100</v>
       </c>
       <c r="E119">
-        <v>-0.16710173905854561</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F119">
+        <v>-3.440852829533642</v>
+      </c>
+      <c r="G119">
+        <v>-0.1671017390585456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>147</v>
       </c>
       <c r="B120">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C120">
-        <v>0.32653061224489788</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="D120">
-        <v>-3.4412161020549452</v>
+        <v>99</v>
       </c>
       <c r="E120">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <v>-3.441216102054945</v>
+      </c>
+      <c r="G120">
         <v>-0.1693871082515033</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>147</v>
       </c>
       <c r="B121">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C121">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D121">
-        <v>-3.437141868125583</v>
+        <v>98</v>
       </c>
       <c r="E121">
-        <v>-0.16723497099379611</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F121">
+        <v>-3.437741417215352</v>
+      </c>
+      <c r="G121">
+        <v>-0.1678345200835656</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>147</v>
       </c>
       <c r="B122">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C122">
         <v>0.3401360544217687</v>
       </c>
       <c r="D122">
+        <v>97</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
         <v>-3.437228153913884</v>
       </c>
-      <c r="E122">
-        <v>-0.16924335345375191</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>-0.1692433534537519</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>147</v>
       </c>
       <c r="B123">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C123">
-        <v>0.34693877551020408</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="D123">
-        <v>-3.4321628847156571</v>
+        <v>96</v>
       </c>
       <c r="E123">
-        <v>-0.1661001809271796</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>-3.438374310862943</v>
+      </c>
+      <c r="G123">
+        <v>-0.1723116070744655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>147</v>
       </c>
       <c r="B124">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C124">
-        <v>0.35374149659863952</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="D124">
-        <v>-3.4379671726149619</v>
+        <v>95</v>
       </c>
       <c r="E124">
-        <v>-0.17382656549813991</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>-3.443119604921927</v>
+      </c>
+      <c r="G124">
+        <v>-0.1789789978051042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>147</v>
       </c>
       <c r="B125">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C125">
-        <v>0.36054421768707479</v>
+        <v>0.3605442176870748</v>
       </c>
       <c r="D125">
-        <v>-3.4342378839900589</v>
+        <v>94</v>
       </c>
       <c r="E125">
+        <v>53</v>
+      </c>
+      <c r="F125">
+        <v>-3.434237883990059</v>
+      </c>
+      <c r="G125">
         <v>-0.1720193735448925</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>147</v>
       </c>
       <c r="B126">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C126">
-        <v>0.36734693877551022</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="D126">
-        <v>-3.4372255616197132</v>
+        <v>93</v>
       </c>
       <c r="E126">
-        <v>-0.17692914784620101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>-3.437225561619713</v>
+      </c>
+      <c r="G126">
+        <v>-0.176929147846201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>147</v>
       </c>
       <c r="B127">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C127">
-        <v>0.37414965986394561</v>
+        <v>0.3741496598639456</v>
       </c>
       <c r="D127">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
         <v>-3.435330222388203</v>
       </c>
-      <c r="E127">
-        <v>-0.17695590528634589</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>-0.1769559052863459</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>147</v>
       </c>
       <c r="B128">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C128">
-        <v>0.38095238095238088</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D128">
-        <v>-3.4328009092632761</v>
+        <v>91</v>
       </c>
       <c r="E128">
-        <v>-0.17634868883307411</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F128">
+        <v>-3.432800909263276</v>
+      </c>
+      <c r="G128">
+        <v>-0.1763486888330741</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>147</v>
       </c>
       <c r="B129">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C129">
-        <v>0.38775510204081631</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="D129">
+        <v>90</v>
+      </c>
+      <c r="E129">
+        <v>57</v>
+      </c>
+      <c r="F129">
         <v>-3.429675356924446</v>
       </c>
-      <c r="E129">
-        <v>-0.17514523316589831</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>-0.1751452331658983</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>147</v>
       </c>
       <c r="B130">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C130">
-        <v>0.39455782312925169</v>
+        <v>0.3945578231292517</v>
       </c>
       <c r="D130">
-        <v>-3.4280649333006239</v>
+        <v>89</v>
       </c>
       <c r="E130">
-        <v>-0.1754569062137312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <v>-3.43473896360506</v>
+      </c>
+      <c r="G130">
+        <v>-0.1821309365181678</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>147</v>
       </c>
       <c r="B131">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C131">
-        <v>0.40136054421768708</v>
+        <v>0.4013605442176871</v>
       </c>
       <c r="D131">
+        <v>88</v>
+      </c>
+      <c r="E131">
+        <v>59</v>
+      </c>
+      <c r="F131">
         <v>-3.427092225248602</v>
       </c>
-      <c r="E131">
+      <c r="G131">
         <v>-0.1764062948333649</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>147</v>
       </c>
       <c r="B132">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C132">
-        <v>0.40816326530612251</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="D132">
-        <v>-3.4250945026419881</v>
+        <v>87</v>
       </c>
       <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>-3.425094502641988</v>
+      </c>
+      <c r="G132">
         <v>-0.1763306688984059</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>147</v>
       </c>
       <c r="B133">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C133">
-        <v>0.41496598639455778</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="D133">
-        <v>-3.421437359784846</v>
+        <v>86</v>
       </c>
       <c r="E133">
-        <v>-0.17459562271291801</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>-3.425392975998432</v>
+      </c>
+      <c r="G133">
+        <v>-0.1785512389265043</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>147</v>
       </c>
       <c r="B134">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C134">
-        <v>0.42176870748299322</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="D134">
-        <v>-3.4237309972614729</v>
+        <v>85</v>
       </c>
       <c r="E134">
-        <v>-0.17881135686120059</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F134">
+        <v>-3.42448506711127</v>
+      </c>
+      <c r="G134">
+        <v>-0.179565426710997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C135">
-        <v>0.42857142857142849</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D135">
-        <v>-3.4229128099694792</v>
+        <v>84</v>
       </c>
       <c r="E135">
-        <v>-0.1799152662408614</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <v>-3.424783540467714</v>
+      </c>
+      <c r="G135">
+        <v>-0.1817859967390969</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>147</v>
       </c>
       <c r="B136">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C136">
-        <v>0.43537414965986387</v>
+        <v>0.4353741496598639</v>
       </c>
       <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136">
+        <v>64</v>
+      </c>
+      <c r="F136">
         <v>-3.419646125501727</v>
       </c>
-      <c r="E136">
-        <v>-0.17857067844476451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>-0.1785706784447645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>147</v>
       </c>
       <c r="B137">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C137">
-        <v>0.44217687074829931</v>
+        <v>0.4421768707482993</v>
       </c>
       <c r="D137">
-        <v>-3.4179193475999101</v>
+        <v>82</v>
       </c>
       <c r="E137">
-        <v>-0.17876599721460179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>-3.41791934759991</v>
+      </c>
+      <c r="G137">
+        <v>-0.1787659972146018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>147</v>
       </c>
       <c r="B138">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C138">
-        <v>0.44897959183673469</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="D138">
-        <v>-3.416176561479455</v>
+        <v>81</v>
       </c>
       <c r="E138">
-        <v>-0.17894530776580159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F138">
+        <v>-3.417165959472774</v>
+      </c>
+      <c r="G138">
+        <v>-0.1799347057591214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>147</v>
       </c>
       <c r="B139">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C139">
-        <v>0.45578231292517007</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="D139">
-        <v>-3.4141285257955638</v>
+        <v>80</v>
       </c>
       <c r="E139">
-        <v>-0.17881936875356569</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F139">
+        <v>-3.414128525795564</v>
+      </c>
+      <c r="G139">
+        <v>-0.1788193687535657</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>147</v>
       </c>
       <c r="B140">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C140">
-        <v>0.46258503401360551</v>
+        <v>0.4625850340136055</v>
       </c>
       <c r="D140">
-        <v>-3.4118310439061932</v>
+        <v>79</v>
       </c>
       <c r="E140">
-        <v>-0.17844398353584959</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F140">
+        <v>-3.413313865935794</v>
+      </c>
+      <c r="G140">
+        <v>-0.179926805565451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>147</v>
       </c>
       <c r="B141">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C141">
-        <v>0.46938775510204078</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="D141">
+        <v>78</v>
+      </c>
+      <c r="E141">
+        <v>69</v>
+      </c>
+      <c r="F141">
         <v>-3.411775588079732</v>
       </c>
-      <c r="E141">
-        <v>-0.18031062438104331</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>-0.1803106243810433</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>147</v>
       </c>
       <c r="B142">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C142">
-        <v>0.47619047619047622</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D142">
+        <v>77</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
         <v>-3.409145679324511</v>
       </c>
-      <c r="E142">
-        <v>-0.17960281229747729</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>-0.1796028122974773</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>147</v>
       </c>
       <c r="B143">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C143">
-        <v>0.48299319727891149</v>
+        <v>0.4829931972789115</v>
       </c>
       <c r="D143">
-        <v>-3.4062640742922241</v>
+        <v>76</v>
       </c>
       <c r="E143">
-        <v>-0.17864330393684491</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F143">
+        <v>-3.406264074292224</v>
+      </c>
+      <c r="G143">
+        <v>-0.1786433039368449</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>147</v>
       </c>
       <c r="B144">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C144">
-        <v>0.48979591836734693</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="D144">
-        <v>-3.403490813860754</v>
+        <v>75</v>
       </c>
       <c r="E144">
-        <v>-0.17779214017702971</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F144">
+        <v>-3.4069126200087</v>
+      </c>
+      <c r="G144">
+        <v>-0.1812139463249758</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>147</v>
       </c>
       <c r="B145">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C145">
-        <v>0.49659863945578231</v>
+        <v>0.4965986394557823</v>
       </c>
       <c r="D145">
-        <v>-3.4035010617336439</v>
+        <v>74</v>
       </c>
       <c r="E145">
-        <v>-0.17972448472157551</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>-3.404031014976412</v>
+      </c>
+      <c r="G145">
+        <v>-0.1802544379643432</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C146">
-        <v>0.50340136054421769</v>
+        <v>0.5034013605442177</v>
       </c>
       <c r="D146">
-        <v>-3.4029496319501451</v>
+        <v>73</v>
       </c>
       <c r="E146">
-        <v>-0.18109515160973061</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>-3.40306052647172</v>
+      </c>
+      <c r="G146">
+        <v>-0.1812060461313054</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C147">
-        <v>0.51020408163265307</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="D147">
-        <v>-3.3989099595782948</v>
+        <v>72</v>
       </c>
       <c r="E147">
-        <v>-0.1789775759095362</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>-3.399648968196664</v>
+      </c>
+      <c r="G147">
+        <v>-0.1797165845279052</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C148">
-        <v>0.51700680272108845</v>
+        <v>0.5170068027210885</v>
       </c>
       <c r="D148">
-        <v>-3.396348304443185</v>
+        <v>71</v>
       </c>
       <c r="E148">
-        <v>-0.17833801744608049</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F148">
+        <v>-3.398678479691973</v>
+      </c>
+      <c r="G148">
+        <v>-0.1806681926948686</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C149">
-        <v>0.52380952380952384</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D149">
-        <v>-3.3951322313564041</v>
+        <v>70</v>
       </c>
       <c r="E149">
-        <v>-0.17904404103095481</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>-3.395132231356404</v>
+      </c>
+      <c r="G149">
+        <v>-0.1790440410309548</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>147</v>
       </c>
       <c r="B150">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C150">
-        <v>0.53061224489795922</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="D150">
-        <v>-3.3923249916392062</v>
+        <v>69</v>
       </c>
       <c r="E150">
+        <v>78</v>
+      </c>
+      <c r="F150">
+        <v>-3.392324991639206</v>
+      </c>
+      <c r="G150">
         <v>-0.1781588979854114</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>147</v>
       </c>
       <c r="B151">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C151">
         <v>0.5374149659863946</v>
       </c>
       <c r="D151">
-        <v>-3.3883091148062938</v>
+        <v>68</v>
       </c>
       <c r="E151">
-        <v>-0.17606511782415479</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F151">
+        <v>-3.388309114806294</v>
+      </c>
+      <c r="G151">
+        <v>-0.1760651178241548</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>147</v>
       </c>
       <c r="B152">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C152">
-        <v>0.54421768707482998</v>
+        <v>0.54421768707483</v>
       </c>
       <c r="D152">
-        <v>-3.3856127696106708</v>
+        <v>67</v>
       </c>
       <c r="E152">
-        <v>-0.1752908693001862</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F152">
+        <v>-3.386240883707464</v>
+      </c>
+      <c r="G152">
+        <v>-0.1759189833969799</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>147</v>
       </c>
       <c r="B153">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C153">
-        <v>0.55102040816326525</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="D153">
+        <v>66</v>
+      </c>
+      <c r="E153">
+        <v>81</v>
+      </c>
+      <c r="F153">
         <v>-3.381214363263052</v>
       </c>
-      <c r="E153">
-        <v>-0.17281455962422279</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>-0.1728145596242228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>147</v>
       </c>
       <c r="B154">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C154">
-        <v>0.55782312925170063</v>
+        <v>0.5578231292517006</v>
       </c>
       <c r="D154">
-        <v>-3.3812307228309231</v>
+        <v>65</v>
       </c>
       <c r="E154">
-        <v>-0.17475301586374781</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>-3.381230722830923</v>
+      </c>
+      <c r="G154">
+        <v>-0.1747530158637478</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>147</v>
       </c>
       <c r="B155">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C155">
-        <v>0.56462585034013602</v>
+        <v>0.564625850340136</v>
       </c>
       <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>83</v>
+      </c>
+      <c r="F155">
         <v>-3.377214845998012</v>
       </c>
-      <c r="E155">
+      <c r="G155">
         <v>-0.1726592357024925</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>147</v>
       </c>
       <c r="B156">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C156">
         <v>0.5714285714285714</v>
       </c>
       <c r="D156">
-        <v>-3.3730404835656498</v>
+        <v>63</v>
       </c>
       <c r="E156">
-        <v>-0.1704069699417847</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>-3.373175173626163</v>
+      </c>
+      <c r="G156">
+        <v>-0.1705416600022984</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>147</v>
       </c>
       <c r="B157">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C157">
-        <v>0.57823129251700678</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="D157">
+        <v>62</v>
+      </c>
+      <c r="E157">
+        <v>85</v>
+      </c>
+      <c r="F157">
         <v>-3.37047882843054</v>
       </c>
-      <c r="E157">
-        <v>-0.16976741147832941</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>-0.1697674114783294</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>147</v>
       </c>
       <c r="B158">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C158">
-        <v>0.58503401360544216</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158">
+        <v>86</v>
+      </c>
+      <c r="F158">
         <v>-3.368165012749623</v>
       </c>
-      <c r="E158">
+      <c r="G158">
         <v>-0.1693756924690675</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>147</v>
       </c>
       <c r="B159">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C159">
-        <v>0.59183673469387754</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D159">
-        <v>-3.3629404988009979</v>
+        <v>60</v>
       </c>
       <c r="E159">
-        <v>-0.1660732751920975</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F159">
+        <v>-3.365516258631873</v>
+      </c>
+      <c r="G159">
+        <v>-0.1686490350229728</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>147</v>
       </c>
       <c r="B160">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C160">
-        <v>0.59863945578231292</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="D160">
-        <v>-3.3618353202357931</v>
+        <v>59</v>
       </c>
       <c r="E160">
-        <v>-0.16689019329854779</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F160">
+        <v>-3.361835320235793</v>
+      </c>
+      <c r="G160">
+        <v>-0.1668901932985478</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>147</v>
       </c>
       <c r="B161">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C161">
-        <v>0.60544217687074831</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="D161">
-        <v>-3.3603714076948208</v>
+        <v>58</v>
       </c>
       <c r="E161">
-        <v>-0.16734837742923081</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>-3.360371407694821</v>
+      </c>
+      <c r="G161">
+        <v>-0.1673483774292308</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>147</v>
       </c>
       <c r="B162">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C162">
-        <v>0.61224489795918369</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="D162">
-        <v>-3.354518779649402</v>
+        <v>57</v>
       </c>
       <c r="E162">
-        <v>-0.16341784605546611</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>-3.355012203685684</v>
+      </c>
+      <c r="G162">
+        <v>-0.1639112700917482</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>147</v>
       </c>
       <c r="B163">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C163">
-        <v>0.61904761904761907</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="D163">
-        <v>-3.3522920629511228</v>
+        <v>56</v>
       </c>
       <c r="E163">
+        <v>91</v>
+      </c>
+      <c r="F163">
+        <v>-3.352292062951123</v>
+      </c>
+      <c r="G163">
         <v>-0.1631132260288424</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>147</v>
       </c>
       <c r="B164">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C164">
-        <v>0.62585034013605445</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="D164">
-        <v>-3.3487934056934301</v>
+        <v>55</v>
       </c>
       <c r="E164">
-        <v>-0.16153666544280429</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F164">
+        <v>-3.34879340569343</v>
+      </c>
+      <c r="G164">
+        <v>-0.1615366654428043</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>147</v>
       </c>
       <c r="B165">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C165">
-        <v>0.63265306122448983</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="D165">
-        <v>-3.3459861659762309</v>
+        <v>54</v>
       </c>
       <c r="E165">
-        <v>-0.16065152239725999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F165">
+        <v>-3.345986165976231</v>
+      </c>
+      <c r="G165">
+        <v>-0.16065152239726</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>147</v>
       </c>
       <c r="B166">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C166">
-        <v>0.63945578231292521</v>
+        <v>0.6394557823129252</v>
       </c>
       <c r="D166">
-        <v>-3.3420811836648951</v>
+        <v>53</v>
       </c>
       <c r="E166">
-        <v>-0.15866863675757939</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>-3.342081183664895</v>
+      </c>
+      <c r="G166">
+        <v>-0.1586686367575794</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>147</v>
       </c>
       <c r="B167">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C167">
         <v>0.6462585034013606</v>
       </c>
       <c r="D167">
-        <v>-3.3380653068319819</v>
+        <v>52</v>
       </c>
       <c r="E167">
-        <v>-0.15657485659632139</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F167">
+        <v>-3.338065306831982</v>
+      </c>
+      <c r="G167">
+        <v>-0.1565748565963214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>147</v>
       </c>
       <c r="B168">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C168">
-        <v>0.65306122448979587</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="D168">
-        <v>-3.334677544095864</v>
+        <v>51</v>
       </c>
       <c r="E168">
-        <v>-0.15510919053185801</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>-3.336332014169985</v>
+      </c>
+      <c r="G168">
+        <v>-0.1567636606059788</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>147</v>
       </c>
       <c r="B169">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C169">
-        <v>0.65986394557823125</v>
+        <v>0.6598639455782312</v>
       </c>
       <c r="D169">
-        <v>-3.3299859620882848</v>
+        <v>50</v>
       </c>
       <c r="E169">
+        <v>97</v>
+      </c>
+      <c r="F169">
+        <v>-3.329985962088285</v>
+      </c>
+      <c r="G169">
         <v>-0.1523397051959334</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>147</v>
       </c>
       <c r="B170">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C170">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D170">
-        <v>-3.3302479062382431</v>
+        <v>49</v>
       </c>
       <c r="E170">
-        <v>-0.15452374601754659</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F170">
+        <v>-3.330247906238243</v>
+      </c>
+      <c r="G170">
+        <v>-0.1545237460175466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>147</v>
       </c>
       <c r="B171">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C171">
-        <v>0.67346938775510201</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="D171">
-        <v>-3.3262320294053311</v>
+        <v>48</v>
       </c>
       <c r="E171">
-        <v>-0.15242996585628951</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F171">
+        <v>-3.326232029405331</v>
+      </c>
+      <c r="G171">
+        <v>-0.1524299658562895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>147</v>
       </c>
       <c r="B172">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C172">
-        <v>0.68027210884353739</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="D172">
-        <v>-3.3203794013599128</v>
+        <v>47</v>
       </c>
       <c r="E172">
-        <v>-0.14849943448252659</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>-3.320379401359913</v>
+      </c>
+      <c r="G172">
+        <v>-0.1484994344825266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>147</v>
       </c>
       <c r="B173">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C173">
-        <v>0.68707482993197277</v>
+        <v>0.6870748299319728</v>
       </c>
       <c r="D173">
+        <v>46</v>
+      </c>
+      <c r="E173">
+        <v>101</v>
+      </c>
+      <c r="F173">
         <v>-3.319396874276527</v>
       </c>
-      <c r="E173">
-        <v>-0.14943900407079491</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>-0.1494390040707949</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>147</v>
       </c>
       <c r="B174">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C174">
-        <v>0.69387755102040816</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D174">
+        <v>45</v>
+      </c>
+      <c r="E174">
+        <v>102</v>
+      </c>
+      <c r="F174">
         <v>-3.313469185827163</v>
       </c>
-      <c r="E174">
-        <v>-0.14543341229308629</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>-0.1454334122930863</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>147</v>
       </c>
       <c r="B175">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C175">
-        <v>0.70068027210884354</v>
+        <v>0.7006802721088435</v>
       </c>
       <c r="D175">
-        <v>-3.3106619461099651</v>
+        <v>44</v>
       </c>
       <c r="E175">
+        <v>103</v>
+      </c>
+      <c r="F175">
+        <v>-3.310661946109965</v>
+      </c>
+      <c r="G175">
         <v>-0.1445482692475433</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>147</v>
       </c>
       <c r="B176">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C176">
-        <v>0.70748299319727892</v>
+        <v>0.7074829931972789</v>
       </c>
       <c r="D176">
-        <v>-3.3061050541628978</v>
+        <v>43</v>
       </c>
       <c r="E176">
-        <v>-0.14191347397213119</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F176">
+        <v>-3.306105054162898</v>
+      </c>
+      <c r="G176">
+        <v>-0.1419134739721312</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>147</v>
       </c>
       <c r="B177">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C177">
         <v>0.7142857142857143</v>
       </c>
       <c r="D177">
-        <v>-3.3016671399105162</v>
+        <v>42</v>
       </c>
       <c r="E177">
-        <v>-0.139397656391404</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F177">
+        <v>-3.303937685502736</v>
+      </c>
+      <c r="G177">
+        <v>-0.1416682019836236</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>147</v>
       </c>
       <c r="B178">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C178">
-        <v>0.72108843537414968</v>
+        <v>0.7210884353741497</v>
       </c>
       <c r="D178">
-        <v>-3.2992698990340932</v>
+        <v>41</v>
       </c>
       <c r="E178">
+        <v>106</v>
+      </c>
+      <c r="F178">
+        <v>-3.299269899034093</v>
+      </c>
+      <c r="G178">
         <v>-0.1389225121866362</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>147</v>
       </c>
       <c r="B179">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C179">
-        <v>0.72789115646258506</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="D179">
-        <v>-3.295783280355093</v>
+        <v>40</v>
       </c>
       <c r="E179">
-        <v>-0.13735799017929101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F179">
+        <v>-3.2976200315676</v>
+      </c>
+      <c r="G179">
+        <v>-0.1391947413917978</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>147</v>
       </c>
       <c r="B180">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C180">
-        <v>0.73469387755102045</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="D180">
+        <v>39</v>
+      </c>
+      <c r="E180">
+        <v>108</v>
+      </c>
+      <c r="F180">
         <v>-3.290645865389108</v>
       </c>
-      <c r="E180">
-        <v>-0.13414267188496021</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>-0.1341426718849602</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>147</v>
       </c>
       <c r="B181">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C181">
-        <v>0.74149659863945583</v>
+        <v>0.7414965986394558</v>
       </c>
       <c r="D181">
-        <v>-3.287171003670351</v>
+        <v>38</v>
       </c>
       <c r="E181">
-        <v>-0.13258990683785851</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F181">
+        <v>-3.287949520193483</v>
+      </c>
+      <c r="G181">
+        <v>-0.1333684233609908</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>147</v>
       </c>
       <c r="B182">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C182">
-        <v>0.74829931972789121</v>
+        <v>0.7482993197278912</v>
       </c>
       <c r="D182">
-        <v>-3.2813183756249318</v>
+        <v>37</v>
       </c>
       <c r="E182">
-        <v>-0.12865937546409459</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>-3.281453065685444</v>
+      </c>
+      <c r="G182">
+        <v>-0.128794065524606</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>147</v>
       </c>
       <c r="B183">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C183">
-        <v>0.75510204081632648</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D183">
-        <v>-3.2768328702946752</v>
+        <v>36</v>
       </c>
       <c r="E183">
+        <v>111</v>
+      </c>
+      <c r="F183">
+        <v>-3.276832870294675</v>
+      </c>
+      <c r="G183">
         <v>-0.1260959668054924</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>147</v>
       </c>
       <c r="B184">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C184">
-        <v>0.76190476190476186</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184">
+        <v>112</v>
+      </c>
+      <c r="F184">
         <v>-3.273484615463321</v>
       </c>
-      <c r="E184">
-        <v>-0.12466980864579361</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>-0.1246698086457936</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>147</v>
       </c>
       <c r="B185">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C185">
-        <v>0.76870748299319724</v>
+        <v>0.7687074829931972</v>
       </c>
       <c r="D185">
-        <v>-3.270033549283502</v>
+        <v>34</v>
       </c>
       <c r="E185">
-        <v>-0.1231408391376293</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>-3.270614072302421</v>
+      </c>
+      <c r="G185">
+        <v>-0.1237213621565479</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>147</v>
       </c>
       <c r="B186">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C186">
-        <v>0.77551020408163263</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D186">
-        <v>-3.2642442246817849</v>
+        <v>33</v>
       </c>
       <c r="E186">
-        <v>-0.1192736112075671</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F186">
+        <v>-3.265882982390079</v>
+      </c>
+      <c r="G186">
+        <v>-0.1209123689158608</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>147</v>
       </c>
       <c r="B187">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C187">
-        <v>0.78231292517006801</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="D187">
-        <v>-3.2619248851823519</v>
+        <v>32</v>
       </c>
       <c r="E187">
+        <v>115</v>
+      </c>
+      <c r="F187">
+        <v>-3.261924885182352</v>
+      </c>
+      <c r="G187">
         <v>-0.1188763683797889</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>147</v>
       </c>
       <c r="B188">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C188">
-        <v>0.78911564625850339</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="D188">
-        <v>-3.2572469101663981</v>
+        <v>31</v>
       </c>
       <c r="E188">
-        <v>-0.11612049003549001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F188">
+        <v>-3.257246910166398</v>
+      </c>
+      <c r="G188">
+        <v>-0.11612049003549</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>147</v>
       </c>
       <c r="B189">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C189">
-        <v>0.79591836734693877</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D189">
-        <v>-3.2519986006788359</v>
+        <v>30</v>
       </c>
       <c r="E189">
-        <v>-0.112794277219583</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F189">
+        <v>-3.253231033333486</v>
+      </c>
+      <c r="G189">
+        <v>-0.1140267098742328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>147</v>
       </c>
       <c r="B190">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C190">
-        <v>0.80272108843537415</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="D190">
-        <v>-3.246304458232868</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>-0.1090222314452699</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F190">
+        <v>-3.248610837942717</v>
+      </c>
+      <c r="G190">
+        <v>-0.1113286111551183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>147</v>
       </c>
       <c r="B191">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C191">
-        <v>0.80952380952380953</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D191">
-        <v>-3.2445949611098071</v>
+        <v>28</v>
       </c>
       <c r="E191">
+        <v>119</v>
+      </c>
+      <c r="F191">
+        <v>-3.244594961109807</v>
+      </c>
+      <c r="G191">
         <v>-0.1092348309938634</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>147</v>
       </c>
       <c r="B192">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C192">
-        <v>0.81632653061224492</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="D192">
-        <v>-3.2394575461438202</v>
+        <v>27</v>
       </c>
       <c r="E192">
+        <v>120</v>
+      </c>
+      <c r="F192">
+        <v>-3.23945754614382</v>
+      </c>
+      <c r="G192">
         <v>-0.1060195126995318</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>147</v>
       </c>
       <c r="B193">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C193">
         <v>0.8231292517006803</v>
       </c>
       <c r="D193">
-        <v>-3.2348373507530508</v>
+        <v>26</v>
       </c>
       <c r="E193">
-        <v>-0.10332141398041771</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F193">
+        <v>-3.234837350753051</v>
+      </c>
+      <c r="G193">
+        <v>-0.1033214139804177</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>147</v>
       </c>
       <c r="B194">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C194">
-        <v>0.82993197278911568</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="D194">
-        <v>-3.2301300563796458</v>
+        <v>25</v>
       </c>
       <c r="E194">
+        <v>122</v>
+      </c>
+      <c r="F194">
+        <v>-3.230130056379646</v>
+      </c>
+      <c r="G194">
         <v>-0.100536216278667</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>147</v>
       </c>
       <c r="B195">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C195">
-        <v>0.83673469387755106</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>123</v>
+      </c>
+      <c r="F195">
         <v>-3.226037269111409</v>
       </c>
-      <c r="E195">
-        <v>-9.8365525682085564E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>-0.09836552568208556</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>147</v>
       </c>
       <c r="B196">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C196">
-        <v>0.84353741496598644</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="D196">
-        <v>-3.2214701886170292</v>
+        <v>23</v>
       </c>
       <c r="E196">
-        <v>-9.5720541859360075E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="F196">
+        <v>-3.221470188617029</v>
+      </c>
+      <c r="G196">
+        <v>-0.09572054185936008</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>147</v>
       </c>
       <c r="B197">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C197">
-        <v>0.85034013605442171</v>
+        <v>0.8503401360544217</v>
       </c>
       <c r="D197">
-        <v>-3.2163565691899798</v>
+        <v>22</v>
       </c>
       <c r="E197">
-        <v>-9.2529019103965604E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F197">
+        <v>-3.21635656918998</v>
+      </c>
+      <c r="G197">
+        <v>-0.0925290191039656</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>147</v>
       </c>
       <c r="B198">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C198">
         <v>0.8571428571428571</v>
       </c>
       <c r="D198">
-        <v>-3.2122297978354939</v>
+        <v>21</v>
       </c>
       <c r="E198">
-        <v>-9.0324344421135405E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="F198">
+        <v>-3.212253593374431</v>
+      </c>
+      <c r="G198">
+        <v>-0.09034813996007157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>147</v>
       </c>
       <c r="B199">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C199">
-        <v>0.86394557823129248</v>
+        <v>0.8639455782312925</v>
       </c>
       <c r="D199">
-        <v>-3.2071399739473812</v>
+        <v>20</v>
       </c>
       <c r="E199">
-        <v>-8.7156617204677045E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F199">
+        <v>-3.207139973947381</v>
+      </c>
+      <c r="G199">
+        <v>-0.08715661720467704</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>147</v>
       </c>
       <c r="B200">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C200">
-        <v>0.87074829931972786</v>
+        <v>0.8707482993197279</v>
       </c>
       <c r="D200">
-        <v>-3.202495983017676</v>
+        <v>19</v>
       </c>
       <c r="E200">
-        <v>-8.4434722946627183E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>-3.202519778556613</v>
+      </c>
+      <c r="G200">
+        <v>-0.08445851848556379</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>147</v>
       </c>
       <c r="B201">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C201">
-        <v>0.87755102040816324</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="D201">
-        <v>-3.1983692116631892</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>-8.2230048263794764E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="F201">
+        <v>-3.198393007202127</v>
+      </c>
+      <c r="G201">
+        <v>-0.08225384380273226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>147</v>
       </c>
       <c r="B202">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C202">
-        <v>0.88435374149659862</v>
+        <v>0.8843537414965986</v>
       </c>
       <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>130</v>
+      </c>
+      <c r="F202">
         <v>-3.193749016272422</v>
       </c>
-      <c r="E202">
-        <v>-7.9531949544681957E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>-0.07953194954468196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>147</v>
       </c>
       <c r="B203">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C203">
         <v>0.891156462585034</v>
       </c>
       <c r="D203">
-        <v>-3.1890757059852661</v>
+        <v>16</v>
       </c>
       <c r="E203">
-        <v>-7.6780735929180888E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>-3.189075705985266</v>
+      </c>
+      <c r="G203">
+        <v>-0.07678073592918089</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>147</v>
       </c>
       <c r="B204">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C204">
-        <v>0.89795918367346939</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D204">
-        <v>-3.1839914059156671</v>
+        <v>15</v>
       </c>
       <c r="E204">
-        <v>-7.3618532531237568E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F204">
+        <v>-3.184015201454605</v>
+      </c>
+      <c r="G204">
+        <v>-0.07364232807017507</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>147</v>
       </c>
       <c r="B205">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C205">
-        <v>0.90476190476190477</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>133</v>
+      </c>
+      <c r="F205">
         <v>-3.179371210524899</v>
       </c>
-      <c r="E205">
-        <v>-7.0920433812124817E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>-0.07092043381212482</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>147</v>
       </c>
       <c r="B206">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C206">
-        <v>0.91156462585034015</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="D206">
-        <v>-3.1742337955589131</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>-6.7705115517793235E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F206">
+        <v>-3.174233795558913</v>
+      </c>
+      <c r="G206">
+        <v>-0.06770511551779324</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>147</v>
       </c>
       <c r="B207">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C207">
-        <v>0.91836734693877553</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="D207">
-        <v>-3.1690963805929262</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>-6.4489797223461209E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F207">
+        <v>-3.169096380592926</v>
+      </c>
+      <c r="G207">
+        <v>-0.06448979722346121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>147</v>
       </c>
       <c r="B208">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C208">
-        <v>0.92517006802721091</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="D208">
-        <v>-3.1618001341526498</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>-5.9115647454839659E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="F208">
+        <v>-3.16180013415265</v>
+      </c>
+      <c r="G208">
+        <v>-0.05911564745483966</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>147</v>
       </c>
       <c r="B209">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C209">
-        <v>0.93197278911564629</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>137</v>
+      </c>
+      <c r="F209">
         <v>-3.154503887712373</v>
       </c>
-      <c r="E209">
-        <v>-5.3741497686218533E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>-0.05374149768621853</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>147</v>
       </c>
       <c r="B210">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C210">
-        <v>0.93877551020408168</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D210">
-        <v>-3.1472076412720971</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>-4.8367347917596532E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F210">
+        <v>-3.147207641272097</v>
+      </c>
+      <c r="G210">
+        <v>-0.04836734791759653</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>147</v>
       </c>
       <c r="B211">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C211">
-        <v>0.94557823129251706</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="D211">
-        <v>-3.1399113948318198</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>-4.2993198148974537E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="F211">
+        <v>-3.13991139483182</v>
+      </c>
+      <c r="G211">
+        <v>-0.04299319814897454</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>147</v>
       </c>
       <c r="B212">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C212">
-        <v>0.95238095238095233</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>140</v>
+      </c>
+      <c r="F212">
         <v>-3.132615148391543</v>
       </c>
-      <c r="E212">
-        <v>-3.7619048380352627E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>-0.03761904838035263</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>147</v>
       </c>
       <c r="B213">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C213">
-        <v>0.95918367346938771</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="D213">
-        <v>-3.1253189019512662</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>-3.2244898611730632E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F213">
+        <v>-3.125318901951266</v>
+      </c>
+      <c r="G213">
+        <v>-0.03224489861173063</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>147</v>
       </c>
       <c r="B214">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C214">
-        <v>0.96598639455782309</v>
+        <v>0.9659863945578231</v>
       </c>
       <c r="D214">
-        <v>-3.1180226555109889</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>-2.6870748843108638E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="F214">
+        <v>-3.118022655510989</v>
+      </c>
+      <c r="G214">
+        <v>-0.02687074884310864</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>147</v>
       </c>
       <c r="B215">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C215">
-        <v>0.97278911564625847</v>
+        <v>0.9727891156462585</v>
       </c>
       <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>143</v>
+      </c>
+      <c r="F215">
         <v>-3.110726409070713</v>
       </c>
-      <c r="E215">
-        <v>-2.1496599074486641E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>-0.02149659907448664</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>147</v>
       </c>
       <c r="B216">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C216">
-        <v>0.97959183673469385</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D216">
-        <v>-3.1034301626304361</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>-1.6122449305865091E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>-3.103430162630436</v>
+      </c>
+      <c r="G216">
+        <v>-0.01612244930586509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>147</v>
       </c>
       <c r="B217">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C217">
-        <v>0.98639455782312924</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="D217">
-        <v>-3.0961339161901589</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>-1.0748299537243541E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="F217">
+        <v>-3.096133916190159</v>
+      </c>
+      <c r="G217">
+        <v>-0.01074829953724354</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>147</v>
       </c>
       <c r="B218">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C218">
-        <v>0.99319727891156462</v>
+        <v>0.9931972789115646</v>
       </c>
       <c r="D218">
-        <v>-3.0888376697498829</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>-5.3741497686219941E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F218">
+        <v>-3.088837669749883</v>
+      </c>
+      <c r="G218">
+        <v>-0.005374149768621994</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>147</v>
       </c>
       <c r="B219">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>-3.0815414233096061</v>
+        <v>0</v>
       </c>
       <c r="E219">
+        <v>147</v>
+      </c>
+      <c r="F219">
+        <v>-3.081541423309606</v>
+      </c>
+      <c r="G219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>309</v>
       </c>
@@ -4178,13 +5446,19 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>-3.4639126438222969</v>
+        <v>309</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>-3.463912643822297</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>309</v>
       </c>
@@ -4192,16 +5466,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C221">
-        <v>0.1</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="D221">
-        <v>-3.498202663530448</v>
+        <v>279</v>
       </c>
       <c r="E221">
-        <v>-6.3383249262564778E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>-3.499824220905712</v>
+      </c>
+      <c r="G221">
+        <v>-0.06415743101973925</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>309</v>
       </c>
@@ -4209,16 +5489,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C222">
-        <v>0.2</v>
+        <v>0.1974110032362459</v>
       </c>
       <c r="D222">
-        <v>-3.5154910956181831</v>
+        <v>248</v>
       </c>
       <c r="E222">
-        <v>-0.1097649109047136</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F222">
+        <v>-3.515491095618183</v>
+      </c>
+      <c r="G222">
+        <v>-0.1090116881330792</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>309</v>
       </c>
@@ -4226,16 +5512,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C223">
-        <v>0.3</v>
+        <v>0.2977346278317152</v>
       </c>
       <c r="D223">
-        <v>-3.5223386973580491</v>
+        <v>217</v>
       </c>
       <c r="E223">
-        <v>-0.14570574219899329</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>-3.522338697358049</v>
+      </c>
+      <c r="G223">
+        <v>-0.1450466722738128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>309</v>
       </c>
@@ -4243,16 +5535,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C224">
-        <v>0.4</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="D224">
-        <v>-3.4878503519176949</v>
+        <v>186</v>
       </c>
       <c r="E224">
-        <v>-0.14031062631305341</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F224">
+        <v>-3.499171568123653</v>
+      </c>
+      <c r="G224">
+        <v>-0.1510669254402854</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>309</v>
       </c>
@@ -4260,16 +5558,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C225">
-        <v>0.5</v>
+        <v>0.4983818770226537</v>
       </c>
       <c r="D225">
-        <v>-3.464089519940079</v>
+        <v>155</v>
       </c>
       <c r="E225">
-        <v>-0.14564302388985181</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="F225">
+        <v>-3.464793727059819</v>
+      </c>
+      <c r="G225">
+        <v>-0.1458764667773202</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>309</v>
       </c>
@@ -4277,16 +5581,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C226">
-        <v>0.60000000000000009</v>
+        <v>0.598705501618123</v>
       </c>
       <c r="D226">
-        <v>-3.4343305633157479</v>
+        <v>124</v>
       </c>
       <c r="E226">
-        <v>-0.14497729681993479</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="F226">
+        <v>-3.434330563315748</v>
+      </c>
+      <c r="G226">
+        <v>-0.1446006854341173</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>309</v>
       </c>
@@ -4294,16 +5604,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C227">
-        <v>0.70000000000000007</v>
+        <v>0.6990291262135923</v>
       </c>
       <c r="D227">
-        <v>-3.3902015979422329</v>
+        <v>93</v>
       </c>
       <c r="E227">
-        <v>-0.12994156100083359</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>-3.390201597942233</v>
+      </c>
+      <c r="G227">
+        <v>-0.1296591024614706</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>309</v>
       </c>
@@ -4311,16 +5627,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C228">
-        <v>0.8</v>
+        <v>0.7993527508090615</v>
       </c>
       <c r="D228">
-        <v>-3.3347094627888652</v>
+        <v>62</v>
       </c>
       <c r="E228">
-        <v>-0.1035426554018793</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F228">
+        <v>-3.334709462788865</v>
+      </c>
+      <c r="G228">
+        <v>-0.1033543497089705</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>309</v>
       </c>
@@ -4328,16 +5650,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C229">
-        <v>0.9</v>
+        <v>0.8996763754045307</v>
       </c>
       <c r="D229">
-        <v>-3.2649539549855029</v>
+        <v>31</v>
       </c>
       <c r="E229">
-        <v>-6.2880377152931766E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F229">
+        <v>-3.265947505651923</v>
+      </c>
+      <c r="G229">
+        <v>-0.06377977497289722</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>309</v>
       </c>
@@ -4348,574 +5676,778 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>-3.1729803482781569</v>
+        <v>0</v>
       </c>
       <c r="E230">
+        <v>309</v>
+      </c>
+      <c r="F230">
+        <v>-3.172980348278157</v>
+      </c>
+      <c r="G230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>561</v>
       </c>
       <c r="B231">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>-3.5273938920609988</v>
+        <v>561</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>-3.527393892060999</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>561</v>
       </c>
       <c r="B232">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C232">
-        <v>0.1</v>
+        <v>0.09982174688057041</v>
       </c>
       <c r="D232">
-        <v>-3.5559246141308019</v>
+        <v>505</v>
       </c>
       <c r="E232">
-        <v>-5.8157127462434843E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F232">
+        <v>-3.555924614130802</v>
+      </c>
+      <c r="G232">
+        <v>-0.0581043174706477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>561</v>
       </c>
       <c r="B233">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C233">
-        <v>0.2</v>
+        <v>0.1996434937611408</v>
       </c>
       <c r="D233">
-        <v>-3.5687253338067748</v>
+        <v>449</v>
       </c>
       <c r="E233">
-        <v>-0.1005842525310392</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F233">
+        <v>-3.568725333806775</v>
+      </c>
+      <c r="G233">
+        <v>-0.1004786325474658</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>561</v>
       </c>
       <c r="B234">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C234">
-        <v>0.3</v>
+        <v>0.2994652406417112</v>
       </c>
       <c r="D234">
-        <v>-3.5580133130649259</v>
+        <v>393</v>
       </c>
       <c r="E234">
-        <v>-0.11949863718182251</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F234">
+        <v>-3.567408547453444</v>
+      </c>
+      <c r="G234">
+        <v>-0.1287354415949791</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>561</v>
       </c>
       <c r="B235">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C235">
-        <v>0.4</v>
+        <v>0.3992869875222816</v>
       </c>
       <c r="D235">
-        <v>-3.5442061711405728</v>
+        <v>337</v>
       </c>
       <c r="E235">
-        <v>-0.1353179006501013</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F235">
+        <v>-3.544206171140573</v>
+      </c>
+      <c r="G235">
+        <v>-0.1351066606829523</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>561</v>
       </c>
       <c r="B236">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C236">
-        <v>0.5</v>
+        <v>0.499108734402852</v>
       </c>
       <c r="D236">
-        <v>-3.5074636051845531</v>
+        <v>281</v>
       </c>
       <c r="E236">
-        <v>-0.1282017400867124</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F236">
+        <v>-3.510419640706294</v>
+      </c>
+      <c r="G236">
+        <v>-0.1308937256495168</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>561</v>
       </c>
       <c r="B237">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C237">
-        <v>0.60000000000000009</v>
+        <v>0.5989304812834224</v>
       </c>
       <c r="D237">
-        <v>-3.470453387636264</v>
+        <v>225</v>
       </c>
       <c r="E237">
-        <v>-0.12081792793105529</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F237">
+        <v>-3.471395487703832</v>
+      </c>
+      <c r="G237">
+        <v>-0.1214431680478998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>561</v>
       </c>
       <c r="B238">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C238">
-        <v>0.70000000000000007</v>
+        <v>0.6987522281639929</v>
       </c>
       <c r="D238">
+        <v>169</v>
+      </c>
+      <c r="E238">
+        <v>392</v>
+      </c>
+      <c r="F238">
         <v>-3.436612113031714</v>
       </c>
-      <c r="E238">
-        <v>-0.11660305871913711</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>-0.1162333887766265</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>561</v>
       </c>
       <c r="B239">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C239">
-        <v>0.8</v>
+        <v>0.7985739750445633</v>
       </c>
       <c r="D239">
+        <v>113</v>
+      </c>
+      <c r="E239">
+        <v>448</v>
+      </c>
+      <c r="F239">
         <v>-3.384322190740336</v>
       </c>
-      <c r="E239">
-        <v>-9.3939541820390771E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>-0.0935170618860931</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>561</v>
       </c>
       <c r="B240">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C240">
-        <v>0.9</v>
+        <v>0.8983957219251337</v>
       </c>
       <c r="D240">
+        <v>57</v>
+      </c>
+      <c r="E240">
+        <v>504</v>
+      </c>
+      <c r="F240">
         <v>-3.319380670567706</v>
       </c>
-      <c r="E240">
-        <v>-5.8624427040392953E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>-0.05814913711430819</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>561</v>
       </c>
       <c r="B241">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>-3.2311298381346818</v>
+        <v>0</v>
       </c>
       <c r="E241">
+        <v>561</v>
+      </c>
+      <c r="F241">
+        <v>-3.231129838134682</v>
+      </c>
+      <c r="G241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>923</v>
       </c>
       <c r="B242">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>-3.571265520823145</v>
+        <v>923</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>-3.571265520823145</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>923</v>
       </c>
       <c r="B243">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C243">
-        <v>0.1</v>
+        <v>0.09967497291440953</v>
       </c>
       <c r="D243">
-        <v>-3.592605444930987</v>
+        <v>831</v>
       </c>
       <c r="E243">
-        <v>-5.133480512262345E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F243">
+        <v>-3.592873961421494</v>
+      </c>
+      <c r="G243">
+        <v>-0.05150583012554177</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>923</v>
       </c>
       <c r="B244">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C244">
-        <v>0.2</v>
+        <v>0.1993499458288191</v>
       </c>
       <c r="D244">
+        <v>739</v>
+      </c>
+      <c r="E244">
+        <v>184</v>
+      </c>
+      <c r="F244">
         <v>-3.599325883335057</v>
       </c>
-      <c r="E244">
-        <v>-8.8050124541475761E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>-0.08785514156629892</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>923</v>
       </c>
       <c r="B245">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C245">
-        <v>0.3</v>
+        <v>0.2990249187432286</v>
       </c>
       <c r="D245">
+        <v>647</v>
+      </c>
+      <c r="E245">
+        <v>276</v>
+      </c>
+      <c r="F245">
         <v>-3.597893822611467</v>
       </c>
-      <c r="E245">
-        <v>-0.1166129448326685</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>-0.1163204703699021</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>923</v>
       </c>
       <c r="B246">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C246">
-        <v>0.4</v>
+        <v>0.399783315276273</v>
       </c>
       <c r="D246">
-        <v>-3.5751774016689408</v>
+        <v>554</v>
       </c>
       <c r="E246">
-        <v>-0.1238914049049238</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>-3.576582489987673</v>
+      </c>
+      <c r="G246">
+        <v>-0.125231498898597</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>923</v>
       </c>
       <c r="B247">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C247">
-        <v>0.5</v>
+        <v>0.4994582881906826</v>
       </c>
       <c r="D247">
-        <v>-3.5450172863519418</v>
+        <v>462</v>
       </c>
       <c r="E247">
-        <v>-0.12372617060270751</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="F247">
+        <v>-3.546578317778267</v>
+      </c>
+      <c r="G247">
+        <v>-0.1251247162163853</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>923</v>
       </c>
       <c r="B248">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C248">
-        <v>0.60000000000000009</v>
+        <v>0.5991332611050921</v>
       </c>
       <c r="D248">
-        <v>-3.5060747797530789</v>
+        <v>370</v>
       </c>
       <c r="E248">
-        <v>-0.1147785450186263</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="F248">
+        <v>-3.510485666620935</v>
+      </c>
+      <c r="G248">
+        <v>-0.1189294545862463</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>923</v>
       </c>
       <c r="B249">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C249">
-        <v>0.70000000000000007</v>
+        <v>0.6998916576381365</v>
       </c>
       <c r="D249">
-        <v>-3.4640208342012482</v>
+        <v>277</v>
       </c>
       <c r="E249">
-        <v>-0.1027194804815772</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="F249">
+        <v>-3.464020834201248</v>
+      </c>
+      <c r="G249">
+        <v>-0.1026869833190476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>923</v>
       </c>
       <c r="B250">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C250">
-        <v>0.8</v>
+        <v>0.7995666305525461</v>
       </c>
       <c r="D250">
-        <v>-3.416633142190443</v>
+        <v>185</v>
       </c>
       <c r="E250">
-        <v>-8.5326669485554563E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="F250">
+        <v>-3.416902298379785</v>
+      </c>
+      <c r="G250">
+        <v>-0.08546583702477806</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>923</v>
       </c>
       <c r="B251">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C251">
-        <v>0.9</v>
+        <v>0.8992416034669556</v>
       </c>
       <c r="D251">
-        <v>-3.3546108056602622</v>
+        <v>93</v>
       </c>
       <c r="E251">
-        <v>-5.3299213970155468E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="F251">
+        <v>-3.354610805660262</v>
+      </c>
+      <c r="G251">
+        <v>-0.05307173383244884</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>923</v>
       </c>
       <c r="B252">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>923</v>
+      </c>
+      <c r="F252">
         <v>-3.271316710675324</v>
       </c>
-      <c r="E252">
+      <c r="G252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>1415</v>
       </c>
       <c r="B253">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253">
-        <v>-3.6033776068987371</v>
+        <v>1415</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>-3.603377606898737</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>1415</v>
       </c>
       <c r="B254">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C254">
-        <v>0.1</v>
+        <v>0.09964664310954063</v>
       </c>
       <c r="D254">
-        <v>-3.6233398470910392</v>
+        <v>1274</v>
       </c>
       <c r="E254">
-        <v>-5.0226829016656538E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F254">
+        <v>-3.623339847091039</v>
+      </c>
+      <c r="G254">
+        <v>-0.05011988700667658</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>1415</v>
       </c>
       <c r="B255">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C255">
         <v>0.2</v>
       </c>
       <c r="D255">
-        <v>-3.6297485860271612</v>
+        <v>1132</v>
       </c>
       <c r="E255">
-        <v>-8.6900156777133919E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F255">
+        <v>-3.629748586027161</v>
+      </c>
+      <c r="G255">
+        <v>-0.08690015677713392</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>1415</v>
       </c>
       <c r="B256">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C256">
-        <v>0.3</v>
+        <v>0.2996466431095406</v>
       </c>
       <c r="D256">
-        <v>-3.6242924713991891</v>
+        <v>991</v>
       </c>
       <c r="E256">
-        <v>-0.1117086309735167</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="F256">
+        <v>-3.624292471399189</v>
+      </c>
+      <c r="G256">
+        <v>-0.1116016889635363</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>1415</v>
       </c>
       <c r="B257">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C257">
         <v>0.4</v>
       </c>
       <c r="D257">
-        <v>-3.6032573713973788</v>
+        <v>849</v>
       </c>
       <c r="E257">
+        <v>566</v>
+      </c>
+      <c r="F257">
+        <v>-3.603257371397379</v>
+      </c>
+      <c r="G257">
         <v>-0.1209381197960622</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>1415</v>
       </c>
       <c r="B258">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C258">
-        <v>0.5</v>
+        <v>0.4996466431095407</v>
       </c>
       <c r="D258">
-        <v>-3.5717601190274508</v>
+        <v>708</v>
       </c>
       <c r="E258">
-        <v>-0.1197054562504887</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+      <c r="F258">
+        <v>-3.571760119027451</v>
+      </c>
+      <c r="G258">
+        <v>-0.1195985142405087</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>1415</v>
       </c>
       <c r="B259">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C259">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D259">
-        <v>-3.5321836947487721</v>
+        <v>566</v>
       </c>
       <c r="E259">
+        <v>849</v>
+      </c>
+      <c r="F259">
+        <v>-3.532183694748772</v>
+      </c>
+      <c r="G259">
         <v>-0.1103936207961647</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>1415</v>
       </c>
       <c r="B260">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C260">
-        <v>0.70000000000000007</v>
+        <v>0.6996466431095406</v>
       </c>
       <c r="D260">
-        <v>-3.4912760143176009</v>
+        <v>425</v>
       </c>
       <c r="E260">
-        <v>-9.9750529189349013E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+      <c r="F260">
+        <v>-3.491276014317601</v>
+      </c>
+      <c r="G260">
+        <v>-0.09964358717936905</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>1415</v>
       </c>
       <c r="B261">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C261">
         <v>0.8</v>
       </c>
       <c r="D261">
-        <v>-3.4402972534210932</v>
+        <v>283</v>
       </c>
       <c r="E261">
-        <v>-7.903635711719581E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+      <c r="F261">
+        <v>-3.440297253421093</v>
+      </c>
+      <c r="G261">
+        <v>-0.07903635711719581</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>1415</v>
       </c>
       <c r="B262">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C262">
-        <v>0.9</v>
+        <v>0.8996466431095407</v>
       </c>
       <c r="D262">
-        <v>-3.3813756175542609</v>
+        <v>142</v>
       </c>
       <c r="E262">
-        <v>-5.0379310074718797E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+      <c r="F262">
+        <v>-3.381521538734544</v>
+      </c>
+      <c r="G262">
+        <v>-0.05041828924502179</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>1415</v>
       </c>
       <c r="B263">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>-3.3007317186551872</v>
+        <v>0</v>
       </c>
       <c r="E263">
+        <v>1415</v>
+      </c>
+      <c r="F263">
+        <v>-3.300731718655187</v>
+      </c>
+      <c r="G263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>2057</v>
       </c>
@@ -4926,13 +6458,19 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>-3.6278909516636619</v>
+        <v>2057</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>-3.627890951663662</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>2057</v>
       </c>
@@ -4940,16 +6478,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C265">
-        <v>0.1</v>
+        <v>0.09965969859017987</v>
       </c>
       <c r="D265">
-        <v>-3.6464859804563141</v>
+        <v>1852</v>
       </c>
       <c r="E265">
-        <v>-4.9065503977250291E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F265">
+        <v>-3.646485980456314</v>
+      </c>
+      <c r="G265">
+        <v>-0.0489618125206186</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>2057</v>
       </c>
@@ -4957,16 +6501,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C266">
-        <v>0.2</v>
+        <v>0.1998055420515314</v>
       </c>
       <c r="D266">
+        <v>1646</v>
+      </c>
+      <c r="E266">
+        <v>411</v>
+      </c>
+      <c r="F266">
         <v>-3.651365485577184</v>
       </c>
-      <c r="E266">
-        <v>-8.4415484282719611E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>-0.08435623202178721</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>2057</v>
       </c>
@@ -4974,16 +6524,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C267">
-        <v>0.3</v>
+        <v>0.2999513855128829</v>
       </c>
       <c r="D267">
-        <v>-3.6420456577833491</v>
+        <v>1440</v>
       </c>
       <c r="E267">
-        <v>-0.1055661316734846</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="F267">
+        <v>-3.642045657783349</v>
+      </c>
+      <c r="G267">
+        <v>-0.1055513186082511</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>2057</v>
       </c>
@@ -4991,16 +6547,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C268">
-        <v>0.4</v>
+        <v>0.3996110841030627</v>
       </c>
       <c r="D268">
-        <v>-3.621797673192245</v>
+        <v>1235</v>
       </c>
       <c r="E268">
-        <v>-0.1157886222669791</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="F268">
+        <v>-3.623266363214887</v>
+      </c>
+      <c r="G268">
+        <v>-0.117138807767756</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>2057</v>
       </c>
@@ -5008,16 +6570,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C269">
-        <v>0.5</v>
+        <v>0.4997569275644142</v>
       </c>
       <c r="D269">
-        <v>-3.5930288798944559</v>
+        <v>1029</v>
       </c>
       <c r="E269">
-        <v>-0.1174903041537898</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+      <c r="F269">
+        <v>-3.593028879894456</v>
+      </c>
+      <c r="G269">
+        <v>-0.1174162388276241</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>2057</v>
       </c>
@@ -5025,16 +6593,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C270">
-        <v>0.60000000000000009</v>
+        <v>0.5999027710257657</v>
       </c>
       <c r="D270">
-        <v>-3.5557763098871429</v>
+        <v>823</v>
       </c>
       <c r="E270">
-        <v>-0.1107082093310761</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+      <c r="F270">
+        <v>-3.555776309887143</v>
+      </c>
+      <c r="G270">
+        <v>-0.1106785832006099</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>2057</v>
       </c>
@@ -5042,16 +6616,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C271">
-        <v>0.70000000000000007</v>
+        <v>0.6995624696159456</v>
       </c>
       <c r="D271">
-        <v>-3.5105012637817068</v>
+        <v>618</v>
       </c>
       <c r="E271">
-        <v>-9.5903638410239633E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1439</v>
+      </c>
+      <c r="F271">
+        <v>-3.510501263781707</v>
+      </c>
+      <c r="G271">
+        <v>-0.09577032082314152</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>2057</v>
       </c>
@@ -5059,16 +6639,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C272">
-        <v>0.8</v>
+        <v>0.7997083130772971</v>
       </c>
       <c r="D272">
+        <v>412</v>
+      </c>
+      <c r="E272">
+        <v>1645</v>
+      </c>
+      <c r="F272">
         <v>-3.459647953730375</v>
       </c>
-      <c r="E272">
-        <v>-7.5520803543506876E-2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>-0.07543192515210806</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>2057</v>
       </c>
@@ -5076,16 +6662,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C273">
-        <v>0.9</v>
+        <v>0.8998541565386485</v>
       </c>
       <c r="D273">
-        <v>-3.4011904805694209</v>
+        <v>206</v>
       </c>
       <c r="E273">
-        <v>-4.7533805567151699E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1851</v>
+      </c>
+      <c r="F273">
+        <v>-3.401190480569421</v>
+      </c>
+      <c r="G273">
+        <v>-0.04748936637145251</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>2057</v>
       </c>
@@ -5096,13 +6688,19 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>-3.3231861998176702</v>
+        <v>0</v>
       </c>
       <c r="E274">
+        <v>2057</v>
+      </c>
+      <c r="F274">
+        <v>-3.32318619981767</v>
+      </c>
+      <c r="G274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>2869</v>
       </c>
@@ -5113,13 +6711,19 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>-3.6472133834615761</v>
+        <v>2869</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>-3.647213383461576</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>2869</v>
       </c>
@@ -5127,16 +6731,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C276">
-        <v>0.1</v>
+        <v>0.09968630184733357</v>
       </c>
       <c r="D276">
-        <v>-3.6635291632193141</v>
+        <v>2583</v>
       </c>
       <c r="E276">
-        <v>-4.6948543083434213E-2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F276">
+        <v>-3.663529163219314</v>
+      </c>
+      <c r="G276">
+        <v>-0.04685244867077065</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>2869</v>
       </c>
@@ -5144,16 +6754,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C277">
-        <v>0.2</v>
+        <v>0.1997211571976298</v>
       </c>
       <c r="D277">
-        <v>-3.6666637475955</v>
+        <v>2296</v>
       </c>
       <c r="E277">
-        <v>-8.0715890785314492E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="F277">
+        <v>-3.667472153211906</v>
+      </c>
+      <c r="G277">
+        <v>-0.08143887914602077</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>2869</v>
       </c>
@@ -5161,16 +6777,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C278">
-        <v>0.3</v>
+        <v>0.2997560125479261</v>
       </c>
       <c r="D278">
-        <v>-3.6585592624376679</v>
+        <v>2009</v>
       </c>
       <c r="E278">
-        <v>-0.1032441689531796</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="F278">
+        <v>-3.659676924542429</v>
+      </c>
+      <c r="G278">
+        <v>-0.1042870909592017</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>2869</v>
       </c>
@@ -5178,16 +6800,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C279">
-        <v>0.4</v>
+        <v>0.3997908678982224</v>
       </c>
       <c r="D279">
-        <v>-3.6413772584553179</v>
+        <v>1722</v>
       </c>
       <c r="E279">
-        <v>-0.11669492829652529</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+      <c r="F279">
+        <v>-3.641377258455318</v>
+      </c>
+      <c r="G279">
+        <v>-0.1166308653547494</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>2869</v>
       </c>
@@ -5195,16 +6823,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C280">
-        <v>0.5</v>
+        <v>0.4998257232485186</v>
       </c>
       <c r="D280">
-        <v>-3.6084018253515771</v>
+        <v>1435</v>
       </c>
       <c r="E280">
-        <v>-0.1143522585184793</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1434</v>
+      </c>
+      <c r="F280">
+        <v>-3.609758568614396</v>
+      </c>
+      <c r="G280">
+        <v>-0.115655615996485</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>2869</v>
       </c>
@@ -5212,16 +6846,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C281">
-        <v>0.60000000000000009</v>
+        <v>0.5998605785988149</v>
       </c>
       <c r="D281">
+        <v>1148</v>
+      </c>
+      <c r="E281">
+        <v>1721</v>
+      </c>
+      <c r="F281">
         <v>-3.572005083913143</v>
       </c>
-      <c r="E281">
-        <v>-0.10858828040574051</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>-0.10854557177789</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>2869</v>
       </c>
@@ -5229,16 +6869,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C282">
-        <v>0.70000000000000007</v>
+        <v>0.6998954339491111</v>
       </c>
       <c r="D282">
-        <v>-3.5265170022691148</v>
+        <v>861</v>
       </c>
       <c r="E282">
-        <v>-9.3732962087408556E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+      <c r="F282">
+        <v>-3.527001453109143</v>
+      </c>
+      <c r="G282">
+        <v>-0.09418538145654898</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>2869</v>
       </c>
@@ -5246,16 +6892,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C283">
-        <v>0.8</v>
+        <v>0.7999302892994075</v>
       </c>
       <c r="D283">
-        <v>-3.4742371851106069</v>
+        <v>574</v>
       </c>
       <c r="E283">
-        <v>-7.208590825459571E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+      <c r="F283">
+        <v>-3.474237185110607</v>
+      </c>
+      <c r="G283">
+        <v>-0.07206455394067046</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>2869</v>
       </c>
@@ -5263,16 +6915,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C284">
-        <v>0.9</v>
+        <v>0.8999651446497037</v>
       </c>
       <c r="D284">
-        <v>-3.4172352435516071</v>
+        <v>287</v>
       </c>
       <c r="E284">
-        <v>-4.5716730021291618E-2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2582</v>
+      </c>
+      <c r="F284">
+        <v>-3.417235243551607</v>
+      </c>
+      <c r="G284">
+        <v>-0.04570605286432927</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>2869</v>
       </c>
@@ -5283,570 +6941,774 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>-3.3408857502046199</v>
+        <v>0</v>
       </c>
       <c r="E285">
+        <v>2869</v>
+      </c>
+      <c r="F285">
+        <v>-3.34088575020462</v>
+      </c>
+      <c r="G285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>3871</v>
       </c>
       <c r="B286">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C286">
         <v>0</v>
       </c>
       <c r="D286">
-        <v>-3.6628338523632391</v>
+        <v>3871</v>
       </c>
       <c r="E286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>-3.662833852363239</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>3871</v>
       </c>
       <c r="B287">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C287">
-        <v>0.1</v>
+        <v>0.09997416688194265</v>
       </c>
       <c r="D287">
+        <v>3484</v>
+      </c>
+      <c r="E287">
+        <v>387</v>
+      </c>
+      <c r="F287">
         <v>-3.678638320821626</v>
       </c>
-      <c r="E287">
-        <v>-4.6568427323402162E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>-0.04656048003358926</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>3871</v>
       </c>
       <c r="B288">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C288">
-        <v>0.2</v>
+        <v>0.1999483337638853</v>
       </c>
       <c r="D288">
-        <v>-3.6794678158438279</v>
+        <v>3097</v>
       </c>
       <c r="E288">
-        <v>-7.8161881210619732E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="F288">
+        <v>-3.679467815843828</v>
+      </c>
+      <c r="G288">
+        <v>-0.07814598663099437</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>3871</v>
       </c>
       <c r="B289">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C289">
-        <v>0.3</v>
+        <v>0.2999225006458279</v>
       </c>
       <c r="D289">
-        <v>-3.6736733391402079</v>
+        <v>2710</v>
       </c>
       <c r="E289">
-        <v>-0.10313136337201539</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+      <c r="F289">
+        <v>-3.673673339140208</v>
+      </c>
+      <c r="G289">
+        <v>-0.1031075215025772</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>3871</v>
       </c>
       <c r="B290">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C290">
-        <v>0.4</v>
+        <v>0.3998966675277706</v>
       </c>
       <c r="D290">
-        <v>-3.6526780254207369</v>
+        <v>2323</v>
       </c>
       <c r="E290">
-        <v>-0.1129000085175598</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+      <c r="F290">
+        <v>-3.652678025420737</v>
+      </c>
+      <c r="G290">
+        <v>-0.112868219358309</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>3871</v>
       </c>
       <c r="B291">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C291">
-        <v>0.5</v>
+        <v>0.4998708344097132</v>
       </c>
       <c r="D291">
-        <v>-3.6213997124445352</v>
+        <v>1936</v>
       </c>
       <c r="E291">
-        <v>-0.1123856544063733</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1935</v>
+      </c>
+      <c r="F291">
+        <v>-3.621828697565883</v>
+      </c>
+      <c r="G291">
+        <v>-0.1127749030786571</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>3871</v>
       </c>
       <c r="B292">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C292">
-        <v>0.60000000000000009</v>
+        <v>0.5998450012916559</v>
       </c>
       <c r="D292">
-        <v>-3.5845193300996132</v>
+        <v>1549</v>
       </c>
       <c r="E292">
-        <v>-0.1062692309264668</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2322</v>
+      </c>
+      <c r="F292">
+        <v>-3.584676656099191</v>
+      </c>
+      <c r="G292">
+        <v>-0.1063788731871684</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>3871</v>
       </c>
       <c r="B293">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C293">
-        <v>0.70000000000000007</v>
+        <v>0.6998191681735986</v>
       </c>
       <c r="D293">
+        <v>1162</v>
+      </c>
+      <c r="E293">
+        <v>2709</v>
+      </c>
+      <c r="F293">
         <v>-3.540816859662804</v>
       </c>
-      <c r="E293">
-        <v>-9.3330719354673297E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <v>-0.0932750883259843</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>3871</v>
       </c>
       <c r="B294">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C294">
-        <v>0.8</v>
+        <v>0.7997933350555412</v>
       </c>
       <c r="D294">
-        <v>-3.4882588382386119</v>
+        <v>775</v>
       </c>
       <c r="E294">
-        <v>-7.1536656795495923E-2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3096</v>
+      </c>
+      <c r="F294">
+        <v>-3.488258838238612</v>
+      </c>
+      <c r="G294">
+        <v>-0.07147307847699425</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>3871</v>
       </c>
       <c r="B295">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C295">
-        <v>0.9</v>
+        <v>0.8997675019374839</v>
       </c>
       <c r="D295">
-        <v>-3.4303825414725191</v>
+        <v>388</v>
       </c>
       <c r="E295">
-        <v>-4.442431889441828E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3483</v>
+      </c>
+      <c r="F295">
+        <v>-3.430382541472519</v>
+      </c>
+      <c r="G295">
+        <v>-0.04435279328610381</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>3871</v>
       </c>
       <c r="B296">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>-3.3551942637130852</v>
+        <v>0</v>
       </c>
       <c r="E296">
+        <v>3871</v>
+      </c>
+      <c r="F296">
+        <v>-3.355194263713085</v>
+      </c>
+      <c r="G296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>5083</v>
       </c>
       <c r="B297">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
       <c r="D297">
-        <v>-3.6757221372441449</v>
+        <v>5083</v>
       </c>
       <c r="E297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>-3.675722137244145</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>5083</v>
       </c>
       <c r="B298">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C298">
-        <v>0.1</v>
+        <v>0.09994097973637615</v>
       </c>
       <c r="D298">
-        <v>-3.6888884345942921</v>
+        <v>4575</v>
       </c>
       <c r="E298">
-        <v>-4.4038504277117418E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="F298">
+        <v>-3.689887925691553</v>
+      </c>
+      <c r="G298">
+        <v>-0.04501977451646422</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>5083</v>
       </c>
       <c r="B299">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C299">
-        <v>0.2</v>
+        <v>0.1998819594727523</v>
       </c>
       <c r="D299">
-        <v>-3.6927416642975639</v>
+        <v>4067</v>
       </c>
       <c r="E299">
-        <v>-7.8763940907360386E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+      <c r="F299">
+        <v>-3.692741664297564</v>
+      </c>
+      <c r="G299">
+        <v>-0.07872749919153099</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>5083</v>
       </c>
       <c r="B300">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C300">
-        <v>0.3</v>
+        <v>0.2998229392091284</v>
       </c>
       <c r="D300">
+        <v>3559</v>
+      </c>
+      <c r="E300">
+        <v>1524</v>
+      </c>
+      <c r="F300">
         <v>-3.683957707623259</v>
       </c>
-      <c r="E300">
-        <v>-0.10085219116002581</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>-0.1007975285862814</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>5083</v>
       </c>
       <c r="B301">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C301">
-        <v>0.4</v>
+        <v>0.3999606531575841</v>
       </c>
       <c r="D301">
-        <v>-3.6625438463755908</v>
+        <v>3050</v>
       </c>
       <c r="E301">
-        <v>-0.11031053683932911</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="F301">
+        <v>-3.664552863647986</v>
+      </c>
+      <c r="G301">
+        <v>-0.1123074068731142</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>5083</v>
       </c>
       <c r="B302">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C302">
-        <v>0.5</v>
+        <v>0.4999016328939603</v>
       </c>
       <c r="D302">
-        <v>-3.6347880056178279</v>
+        <v>2542</v>
       </c>
       <c r="E302">
-        <v>-0.1134269030085364</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2541</v>
+      </c>
+      <c r="F302">
+        <v>-3.635952102504016</v>
+      </c>
+      <c r="G302">
+        <v>-0.1145606317981995</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>5083</v>
       </c>
       <c r="B303">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C303">
-        <v>0.60000000000000009</v>
+        <v>0.5998426126303364</v>
       </c>
       <c r="D303">
-        <v>-3.5961650712079511</v>
+        <v>2034</v>
       </c>
       <c r="E303">
-        <v>-0.1056761755256299</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3049</v>
+      </c>
+      <c r="F303">
+        <v>-3.596165071207951</v>
+      </c>
+      <c r="G303">
+        <v>-0.1056275865711904</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>5083</v>
       </c>
       <c r="B304">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C304">
-        <v>0.70000000000000007</v>
+        <v>0.6999803265787921</v>
       </c>
       <c r="D304">
-        <v>-3.552040610354446</v>
+        <v>1525</v>
       </c>
       <c r="E304">
-        <v>-9.2423921599096071E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3558</v>
+      </c>
+      <c r="F304">
+        <v>-3.552164175821921</v>
+      </c>
+      <c r="G304">
+        <v>-0.09254141344726619</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>5083</v>
       </c>
       <c r="B305">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C305">
-        <v>0.8</v>
+        <v>0.7999213063151682</v>
       </c>
       <c r="D305">
-        <v>-3.4997254943222229</v>
+        <v>1017</v>
       </c>
       <c r="E305">
-        <v>-7.098101249384392E-2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4066</v>
+      </c>
+      <c r="F305">
+        <v>-3.499725494322223</v>
+      </c>
+      <c r="G305">
+        <v>-0.07095671801662418</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>5083</v>
       </c>
       <c r="B306">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C306">
-        <v>0.9</v>
+        <v>0.8998622860515444</v>
       </c>
       <c r="D306">
-        <v>-3.4406426165933239</v>
+        <v>509</v>
       </c>
       <c r="E306">
-        <v>-4.2770341691915847E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4574</v>
+      </c>
+      <c r="F306">
+        <v>-3.440642616593324</v>
+      </c>
+      <c r="G306">
+        <v>-0.04272782635678091</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>5083</v>
       </c>
       <c r="B307">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>-3.3670000679744381</v>
+        <v>0</v>
       </c>
       <c r="E307">
+        <v>5083</v>
+      </c>
+      <c r="F307">
+        <v>-3.367000067974438</v>
+      </c>
+      <c r="G307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>6525</v>
       </c>
       <c r="B308">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>-3.6865367878154411</v>
+        <v>6525</v>
       </c>
       <c r="E308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>-3.686536787815441</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>6525</v>
       </c>
       <c r="B309">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C309">
-        <v>0.1</v>
+        <v>0.09992337164750958</v>
       </c>
       <c r="D309">
+        <v>5873</v>
+      </c>
+      <c r="E309">
+        <v>652</v>
+      </c>
+      <c r="F309">
         <v>-3.699766221860584</v>
       </c>
-      <c r="E309">
-        <v>-4.4192472682930813E-2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <v>-0.04416874621654188</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>6525</v>
       </c>
       <c r="B310">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C310">
         <v>0.2</v>
       </c>
       <c r="D310">
-        <v>-3.7017634426303969</v>
+        <v>5220</v>
       </c>
       <c r="E310">
-        <v>-7.7152732090530751E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+      <c r="F310">
+        <v>-3.701763442630397</v>
+      </c>
+      <c r="G310">
+        <v>-0.07715273209053075</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>6525</v>
       </c>
       <c r="B311">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C311">
-        <v>0.3</v>
+        <v>0.2999233716475096</v>
       </c>
       <c r="D311">
+        <v>4568</v>
+      </c>
+      <c r="E311">
+        <v>1957</v>
+      </c>
+      <c r="F311">
         <v>-3.692211311258232</v>
       </c>
-      <c r="E311">
-        <v>-9.8563639356153754E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <v>-0.09853991288976438</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>6525</v>
       </c>
       <c r="B312">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C312">
         <v>0.4</v>
       </c>
       <c r="D312">
-        <v>-3.6722899312097321</v>
+        <v>3915</v>
       </c>
       <c r="E312">
-        <v>-0.10960529794544049</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2610</v>
+      </c>
+      <c r="F312">
+        <v>-3.673372356425869</v>
+      </c>
+      <c r="G312">
+        <v>-0.1106877231615777</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>6525</v>
       </c>
       <c r="B313">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C313">
-        <v>0.5</v>
+        <v>0.4999233716475096</v>
       </c>
       <c r="D313">
+        <v>3263</v>
+      </c>
+      <c r="E313">
+        <v>3262</v>
+      </c>
+      <c r="F313">
         <v>-3.642790130878649</v>
       </c>
-      <c r="E313">
-        <v>-0.1110685362521449</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <v>-0.1110448097857557</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>6525</v>
       </c>
       <c r="B314">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C314">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D314">
-        <v>-3.6059019044635048</v>
+        <v>2610</v>
       </c>
       <c r="E314">
-        <v>-0.1051433484747881</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3915</v>
+      </c>
+      <c r="F314">
+        <v>-3.60593479226728</v>
+      </c>
+      <c r="G314">
+        <v>-0.1051762362785627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>6525</v>
       </c>
       <c r="B315">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C315">
-        <v>0.70000000000000007</v>
+        <v>0.6999233716475096</v>
       </c>
       <c r="D315">
-        <v>-3.5618741176063362</v>
+        <v>1958</v>
       </c>
       <c r="E315">
-        <v>-9.2078600255406151E-2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4567</v>
+      </c>
+      <c r="F315">
+        <v>-3.561874117606336</v>
+      </c>
+      <c r="G315">
+        <v>-0.09205487378901722</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>6525</v>
       </c>
       <c r="B316">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C316">
         <v>0.8</v>
       </c>
       <c r="D316">
+        <v>1305</v>
+      </c>
+      <c r="E316">
+        <v>5220</v>
+      </c>
+      <c r="F316">
         <v>-3.509447427939822</v>
       </c>
-      <c r="E316">
-        <v>-7.0614949226678547E-2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <v>-0.07061494922667855</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>6525</v>
       </c>
       <c r="B317">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C317">
-        <v>0.9</v>
+        <v>0.8999233716475096</v>
       </c>
       <c r="D317">
-        <v>-3.4495092951925761</v>
+        <v>653</v>
       </c>
       <c r="E317">
-        <v>-4.163985511722057E-2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5872</v>
+      </c>
+      <c r="F317">
+        <v>-3.449832468190515</v>
+      </c>
+      <c r="G317">
+        <v>-0.04193930164877058</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>6525</v>
       </c>
       <c r="B318">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>6525</v>
+      </c>
+      <c r="F318">
         <v>-3.376906401437568</v>
       </c>
-      <c r="E318">
+      <c r="G318">
         <v>0</v>
       </c>
     </row>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.261185626184029</v>
+        <v>-3.262800804875027</v>
       </c>
       <c r="G45">
         <v>-0.2170697886003492</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.237923129120035</v>
+        <v>-3.239538307811035</v>
       </c>
       <c r="G49">
         <v>-0.2132633671947521</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.22968473681754</v>
+        <v>-3.23129991550854</v>
       </c>
       <c r="G50">
         <v>-0.2098889938068553</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.39132027680495</v>
+        <v>-3.39360866141508</v>
       </c>
       <c r="G78">
         <v>-0.03876322279200251</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.394333127525209</v>
+        <v>-3.398909896745468</v>
       </c>
       <c r="G79">
         <v>-0.0436981701839172</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.399140938819316</v>
+        <v>-3.401429323429445</v>
       </c>
       <c r="G80">
         <v>-0.05042807814967842</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.402153789539575</v>
+        <v>-3.403455326077144</v>
       </c>
       <c r="G81">
         <v>-0.05536302554159267</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.408714563878951</v>
+        <v>-3.4100336589132</v>
       </c>
       <c r="G83">
         <v>-0.06576799322427807</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.408263852149641</v>
+        <v>-3.411755282069884</v>
       </c>
       <c r="G86">
         <v>-0.0710835715099325</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.416531753475406</v>
+        <v>-3.421993401052893</v>
       </c>
       <c r="G89">
         <v>-0.08511776285066297</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.417903155012227</v>
+        <v>-3.421284548499222</v>
       </c>
       <c r="G90">
         <v>-0.08841126105913855</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.420593302917294</v>
+        <v>-3.42517412149063</v>
       </c>
       <c r="G92">
         <v>-0.09494560230751503</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.423546946278295</v>
+        <v>-3.4386391113294</v>
       </c>
       <c r="G93">
         <v>-0.09982134234017082</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.431738790456539</v>
+        <v>-3.433333290087599</v>
       </c>
       <c r="G96">
         <v>-0.1137794765333795</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.435300085376036</v>
+        <v>-3.440804495309599</v>
       </c>
       <c r="G97">
         <v>-0.1192628681245322</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.43330231024143</v>
+        <v>-3.446651461178841</v>
       </c>
       <c r="G99">
         <v>-0.1211092863332355</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.438535963819956</v>
+        <v>-3.442245413179671</v>
       </c>
       <c r="G100">
         <v>-0.1282650365834166</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.43902248699955</v>
+        <v>-3.446292065417536</v>
       </c>
       <c r="G101">
         <v>-0.1306736564346656</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.433863654336741</v>
+        <v>-3.448313880868929</v>
       </c>
       <c r="G102">
         <v>-0.127436920443512</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.433367208965384</v>
+        <v>-3.446333283867117</v>
       </c>
       <c r="G103">
         <v>-0.1288625717438094</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.442658602834763</v>
+        <v>-3.448359286514814</v>
       </c>
       <c r="G104">
         <v>-0.1400760622848427</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.436948717208049</v>
+        <v>-3.446791540860929</v>
       </c>
       <c r="G106">
         <v>-0.1382103700014388</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.445499957147599</v>
+        <v>-3.44956226145435</v>
       </c>
       <c r="G107">
         <v>-0.1486837066126445</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.442459178548724</v>
+        <v>-3.447261601034488</v>
       </c>
       <c r="G111">
         <v>-0.1533313147003885</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.449040909539453</v>
+        <v>-3.44960229214719</v>
       </c>
       <c r="G112">
         <v>-0.1618351423627722</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.443057215590149</v>
+        <v>-3.445911170004319</v>
       </c>
       <c r="G113">
         <v>-0.157773545085123</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.445861538649706</v>
+        <v>-3.448469640490765</v>
       </c>
       <c r="G114">
         <v>-0.1624999648163343</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.445061402174284</v>
+        <v>-3.449337298658476</v>
       </c>
       <c r="G117">
         <v>-0.1674661183558781</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.440852829533642</v>
+        <v>-3.443325014231787</v>
       </c>
       <c r="G119">
         <v>-0.1671017390585456</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.437741417215352</v>
+        <v>-3.442582883503585</v>
       </c>
       <c r="G121">
         <v>-0.1678345200835656</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.437228153913884</v>
+        <v>-3.445703613918206</v>
       </c>
       <c r="G122">
         <v>-0.1692433534537519</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.438374310862943</v>
+        <v>-3.440493175864024</v>
       </c>
       <c r="G123">
         <v>-0.1723116070744655</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.434237883990059</v>
+        <v>-3.437488765919659</v>
       </c>
       <c r="G125">
         <v>-0.1720193735448925</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.437225561619713</v>
+        <v>-3.437251612030756</v>
       </c>
       <c r="G126">
         <v>-0.176929147846201</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.432800909263276</v>
+        <v>-3.43420903560436</v>
       </c>
       <c r="G128">
         <v>-0.1763486888330741</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.425094502641988</v>
+        <v>-3.429050118855575</v>
       </c>
       <c r="G132">
         <v>-0.1763306688984059</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.425392975998432</v>
+        <v>-3.429013581083415</v>
       </c>
       <c r="G133">
         <v>-0.1785512389265043</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.424783540467714</v>
+        <v>-3.425242985218267</v>
       </c>
       <c r="G135">
         <v>-0.1817859967390969</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.419646125501727</v>
+        <v>-3.420915087362864</v>
       </c>
       <c r="G136">
         <v>-0.1785706784447645</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.41791934759991</v>
+        <v>-3.421350505651926</v>
       </c>
       <c r="G137">
         <v>-0.1787659972146018</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.414128525795564</v>
+        <v>-3.416121105652993</v>
       </c>
       <c r="G139">
         <v>-0.1788193687535657</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.411775588079732</v>
+        <v>-3.416258607615328</v>
       </c>
       <c r="G141">
         <v>-0.1803106243810433</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.409145679324511</v>
+        <v>-3.411791947647602</v>
       </c>
       <c r="G142">
         <v>-0.1796028122974773</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.406264074292224</v>
+        <v>-3.410992678409908</v>
       </c>
       <c r="G143">
         <v>-0.1786433039368449</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.404031014976412</v>
+        <v>-3.405337812946151</v>
       </c>
       <c r="G145">
         <v>-0.1802544379643432</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.40306052647172</v>
+        <v>-3.404581184609923</v>
       </c>
       <c r="G146">
         <v>-0.1812060461313054</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.399648968196664</v>
+        <v>-3.401485719409171</v>
       </c>
       <c r="G147">
         <v>-0.1797165845279052</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.398678479691973</v>
+        <v>-3.399417488310341</v>
       </c>
       <c r="G148">
         <v>-0.1806681926948686</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.388309114806294</v>
+        <v>-3.390256760540376</v>
       </c>
       <c r="G151">
         <v>-0.1760651178241548</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.386240883707464</v>
+        <v>-3.388053839381034</v>
       </c>
       <c r="G152">
         <v>-0.1759189833969799</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.381214363263052</v>
+        <v>-3.383433643990266</v>
       </c>
       <c r="G153">
         <v>-0.1728145596242228</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.373175173626163</v>
+        <v>-3.37377949218402</v>
       </c>
       <c r="G156">
         <v>-0.1705416600022984</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.37047882843054</v>
+        <v>-3.370861357945245</v>
       </c>
       <c r="G157">
         <v>-0.1697674114783294</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.34879340569343</v>
+        <v>-3.350606361366999</v>
       </c>
       <c r="G164">
         <v>-0.1615366654428043</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.345986165976231</v>
+        <v>-3.346231750558319</v>
       </c>
       <c r="G165">
         <v>-0.16065152239726</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.336332014169985</v>
+        <v>-3.336601394291009</v>
       </c>
       <c r="G168">
         <v>-0.1567636606059788</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.329985962088285</v>
+        <v>-3.33425174449246</v>
       </c>
       <c r="G169">
         <v>-0.1523397051959334</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.320379401359913</v>
+        <v>-3.322844266669213</v>
       </c>
       <c r="G172">
         <v>-0.1484994344825266</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.281453065685444</v>
+        <v>-3.28321843028114</v>
       </c>
       <c r="G182">
         <v>-0.128794065524606</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.276832870294675</v>
+        <v>-3.277437188852533</v>
       </c>
       <c r="G183">
         <v>-0.1260959668054924</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.273484615463321</v>
+        <v>-3.274519054613758</v>
       </c>
       <c r="G184">
         <v>-0.1246698086457936</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.248610837942717</v>
+        <v>-3.248697936925355</v>
       </c>
       <c r="G190">
         <v>-0.1113286111551183</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.230130056379646</v>
+        <v>-3.230710579398565</v>
       </c>
       <c r="G194">
         <v>-0.100536216278667</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.226037269111409</v>
+        <v>-3.226114179546735</v>
       </c>
       <c r="G195">
         <v>-0.09836552568208556</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.221470188617029</v>
+        <v>-3.221493984155966</v>
       </c>
       <c r="G196">
         <v>-0.09572054185936008</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.21635656918998</v>
+        <v>-3.216873788765199</v>
       </c>
       <c r="G197">
         <v>-0.0925290191039656</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.207139973947381</v>
+        <v>-3.207609602444724</v>
       </c>
       <c r="G199">
         <v>-0.08715661720467704</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.202519778556613</v>
+        <v>-3.203013202592895</v>
       </c>
       <c r="G200">
         <v>-0.08445851848556379</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.193749016272422</v>
+        <v>-3.193772811811359</v>
       </c>
       <c r="G202">
         <v>-0.07953194954468196</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.189075705985266</v>
+        <v>-3.189128820881654</v>
       </c>
       <c r="G203">
         <v>-0.07678073592918089</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.184015201454605</v>
+        <v>-3.184508625490885</v>
       </c>
       <c r="G204">
         <v>-0.07364232807017507</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.464793727059819</v>
+        <v>-3.465569655614683</v>
       </c>
       <c r="G225">
         <v>-0.1458764667773202</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.434330563315748</v>
+        <v>-3.434933308135127</v>
       </c>
       <c r="G226">
         <v>-0.1446006854341173</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.390201597942233</v>
+        <v>-3.390483410874457</v>
       </c>
       <c r="G227">
         <v>-0.1296591024614706</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.568725333806775</v>
+        <v>-3.570234799344144</v>
       </c>
       <c r="G233">
         <v>-0.1004786325474658</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.471395487703832</v>
+        <v>-3.473109938417339</v>
       </c>
       <c r="G237">
         <v>-0.1214431680478998</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.384322190740336</v>
+        <v>-3.386051919815041</v>
       </c>
       <c r="G239">
         <v>-0.0935170618860931</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.592873961421494</v>
+        <v>-3.595839157584085</v>
       </c>
       <c r="G243">
         <v>-0.05150583012554177</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.599325883335057</v>
+        <v>-3.601083171043167</v>
       </c>
       <c r="G244">
         <v>-0.08785514156629892</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.597893822611467</v>
+        <v>-3.599160473189462</v>
       </c>
       <c r="G245">
         <v>-0.1163204703699021</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.546578317778267</v>
+        <v>-3.550942667354255</v>
       </c>
       <c r="G247">
         <v>-0.1251247162163853</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.416902298379785</v>
+        <v>-3.417308347874488</v>
       </c>
       <c r="G250">
         <v>-0.08546583702477806</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.354610805660262</v>
+        <v>-3.355054991348207</v>
       </c>
       <c r="G251">
         <v>-0.05307173383244884</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.629748586027161</v>
+        <v>-3.630586439925739</v>
       </c>
       <c r="G255">
         <v>-0.08690015677713392</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.532183694748772</v>
+        <v>-3.533175348395516</v>
       </c>
       <c r="G259">
         <v>-0.1103936207961647</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.440297253421093</v>
+        <v>-3.440989717890946</v>
       </c>
       <c r="G261">
         <v>-0.07903635711719581</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.651365485577184</v>
+        <v>-3.651773435033773</v>
       </c>
       <c r="G266">
         <v>-0.08435623202178721</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.667472153211906</v>
+        <v>-3.668393137173358</v>
       </c>
       <c r="G277">
         <v>-0.08143887914602077</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.527001453109143</v>
+        <v>-3.527279621294157</v>
       </c>
       <c r="G282">
         <v>-0.09418538145654898</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.679467815843828</v>
+        <v>-3.680310591891261</v>
       </c>
       <c r="G288">
         <v>-0.07814598663099437</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.652678025420737</v>
+        <v>-3.653176462016868</v>
       </c>
       <c r="G290">
         <v>-0.112868219358309</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.621828697565883</v>
+        <v>-3.62290588210971</v>
       </c>
       <c r="G291">
         <v>-0.1127749030786571</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.584676656099191</v>
+        <v>-3.584876138763544</v>
       </c>
       <c r="G292">
         <v>-0.1063788731871684</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.540816859662804</v>
+        <v>-3.541690990810394</v>
       </c>
       <c r="G293">
         <v>-0.0932750883259843</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.689887925691553</v>
+        <v>-3.690094130927622</v>
       </c>
       <c r="G298">
         <v>-0.04501977451646422</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.664552863647986</v>
+        <v>-3.664699951961719</v>
       </c>
       <c r="G301">
         <v>-0.1123074068731142</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.596165071207951</v>
+        <v>-3.596214305779806</v>
       </c>
       <c r="G303">
         <v>-0.1056275865711904</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692211311258232</v>
+        <v>-3.692289371841832</v>
       </c>
       <c r="G311">
         <v>-0.09853991288976438</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.673372356425869</v>
+        <v>-3.674014870632455</v>
       </c>
       <c r="G312">
         <v>-0.1106877231615777</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.561874117606336</v>
+        <v>-3.561984617464099</v>
       </c>
       <c r="G315">
         <v>-0.09205487378901722</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.289618657016022</v>
+        <v>-3.29123383570702</v>
       </c>
       <c r="G39">
         <v>-0.2163187059447476</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.281217765866024</v>
+        <v>-3.282832944557022</v>
       </c>
       <c r="G41">
         <v>-0.2176458526239478</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.4100336589132</v>
+        <v>-3.411002948489081</v>
       </c>
       <c r="G83">
         <v>-0.06576799322427807</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.409218645555228</v>
+        <v>-3.414782262848049</v>
       </c>
       <c r="G84">
         <v>-0.0681941715722103</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.411755282069884</v>
+        <v>-3.414869337677982</v>
       </c>
       <c r="G86">
         <v>-0.0710835715099325</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.421284548499222</v>
+        <v>-3.423032555628025</v>
       </c>
       <c r="G90">
         <v>-0.08841126105913855</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.42918466581578</v>
+        <v>-3.430329212475054</v>
       </c>
       <c r="G91">
         <v>-0.1016148685343463</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.448359286514814</v>
+        <v>-3.448873751428323</v>
       </c>
       <c r="G104">
         <v>-0.1400760622848427</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.44956226145435</v>
+        <v>-3.450327607706895</v>
       </c>
       <c r="G107">
         <v>-0.1486837066126445</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.447084842261586</v>
+        <v>-3.450547597478567</v>
       </c>
       <c r="G109">
         <v>-0.1541127850699406</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.447261601034488</v>
+        <v>-3.448389053947112</v>
       </c>
       <c r="G111">
         <v>-0.1533313147003885</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.445911170004319</v>
+        <v>-3.450076754238721</v>
       </c>
       <c r="G113">
         <v>-0.157773545085123</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.442174670086425</v>
+        <v>-3.444859104891547</v>
       </c>
       <c r="G118">
         <v>-0.1665014829396734</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.445703613918206</v>
+        <v>-3.446834753526288</v>
       </c>
       <c r="G122">
         <v>-0.1692433534537519</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.429675356924446</v>
+        <v>-3.431300797889245</v>
       </c>
       <c r="G129">
         <v>-0.1751452331658983</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.427092225248602</v>
+        <v>-3.429245069535412</v>
       </c>
       <c r="G131">
         <v>-0.1764062948333649</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.416121105652993</v>
+        <v>-3.416475034835898</v>
       </c>
       <c r="G139">
         <v>-0.1788193687535657</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.392324991639206</v>
+        <v>-3.392459681699719</v>
       </c>
       <c r="G150">
         <v>-0.1781588979854114</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.352292062951123</v>
+        <v>-3.352809282526341</v>
       </c>
       <c r="G163">
         <v>-0.1631132260288424</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.346231750558319</v>
+        <v>-3.346571931195213</v>
       </c>
       <c r="G165">
         <v>-0.16065152239726</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.313469185827163</v>
+        <v>-3.316021150119102</v>
       </c>
       <c r="G174">
         <v>-0.1454334122930863</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.306105054162898</v>
+        <v>-3.306756963798629</v>
       </c>
       <c r="G176">
         <v>-0.1419134739721312</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.277437188852533</v>
+        <v>-3.277906817349876</v>
       </c>
       <c r="G183">
         <v>-0.1260959668054924</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.274519054613758</v>
+        <v>-3.27523426769319</v>
       </c>
       <c r="G184">
         <v>-0.1246698086457936</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.265882982390079</v>
+        <v>-3.266487300947934</v>
       </c>
       <c r="G186">
         <v>-0.1209123689158608</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.257246910166398</v>
+        <v>-3.257334009149035</v>
       </c>
       <c r="G188">
         <v>-0.11612049003549</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.234837350753051</v>
+        <v>-3.234861146291989</v>
       </c>
       <c r="G193">
         <v>-0.1033214139804177</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.499824220905712</v>
+        <v>-3.501730846013208</v>
       </c>
       <c r="G221">
         <v>-0.06415743101973925</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.544206171140573</v>
+        <v>-3.547010960203928</v>
       </c>
       <c r="G235">
         <v>-0.1351066606829523</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.436612113031714</v>
+        <v>-3.437297633228867</v>
       </c>
       <c r="G238">
         <v>-0.1162333887766265</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.601083171043167</v>
+        <v>-3.603502025386729</v>
       </c>
       <c r="G244">
         <v>-0.08785514156629892</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.576582489987673</v>
+        <v>-3.577292778050233</v>
       </c>
       <c r="G246">
         <v>-0.125231498898597</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.624292471399189</v>
+        <v>-3.626117775422681</v>
       </c>
       <c r="G256">
         <v>-0.1116016889635363</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.603257371397379</v>
+        <v>-3.603564970342984</v>
       </c>
       <c r="G257">
         <v>-0.1209381197960622</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.533175348395516</v>
+        <v>-3.533451534051208</v>
       </c>
       <c r="G259">
         <v>-0.1103936207961647</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.381521538734544</v>
+        <v>-3.381580888813393</v>
       </c>
       <c r="G262">
         <v>-0.05041828924502179</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.642045657783349</v>
+        <v>-3.642106457300591</v>
       </c>
       <c r="G267">
         <v>-0.1055513186082511</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.474237185110607</v>
+        <v>-3.474621222084076</v>
       </c>
       <c r="G283">
         <v>-0.07206455394067046</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.680310591891261</v>
+        <v>-3.680768491934873</v>
       </c>
       <c r="G288">
         <v>-0.07814598663099437</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.488258838238612</v>
+        <v>-3.488290037208613</v>
       </c>
       <c r="G294">
         <v>-0.07147307847699425</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.552164175821921</v>
+        <v>-3.552332732962067</v>
       </c>
       <c r="G304">
         <v>-0.09254141344726619</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.499725494322223</v>
+        <v>-3.499994320411566</v>
       </c>
       <c r="G305">
         <v>-0.07095671801662418</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692289371841832</v>
+        <v>-3.692938866881547</v>
       </c>
       <c r="G311">
         <v>-0.09853991288976438</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.674014870632455</v>
+        <v>-3.674284383541718</v>
       </c>
       <c r="G312">
         <v>-0.1106877231615777</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.642790130878649</v>
+        <v>-3.645232644366574</v>
       </c>
       <c r="G313">
         <v>-0.1110448097857557</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.307748313597179</v>
+        <v>-3.315633824703522</v>
       </c>
       <c r="G28">
         <v>-0.1809441544653136</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.298019548166019</v>
+        <v>-3.299634726857018</v>
       </c>
       <c r="G37">
         <v>-0.2149915592655465</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.293011513245521</v>
+        <v>-3.294626691936519</v>
       </c>
       <c r="G38">
         <v>-0.2148475432596471</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.25617759126353</v>
+        <v>-3.257792769954528</v>
       </c>
       <c r="G46">
         <v>-0.2169257725944491</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.388307426084691</v>
+        <v>-3.39059581069482</v>
       </c>
       <c r="G77">
         <v>-0.03382827540008915</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.401429323429445</v>
+        <v>-3.401922747465727</v>
       </c>
       <c r="G80">
         <v>-0.05042807814967842</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.404673216223554</v>
+        <v>-3.407455024869964</v>
       </c>
       <c r="G82">
         <v>-0.05980454889722564</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.411002948489081</v>
+        <v>-3.415044644810482</v>
       </c>
       <c r="G83">
         <v>-0.06576799322427807</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.414869337677982</v>
+        <v>-3.416545883533312</v>
       </c>
       <c r="G86">
         <v>-0.0710835715099325</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.417997889456373</v>
+        <v>-3.423932328870657</v>
       </c>
       <c r="G88">
         <v>-0.08466180215997454</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.423032555628025</v>
+        <v>-3.4237553435615</v>
       </c>
       <c r="G90">
         <v>-0.08841126105913855</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.42517412149063</v>
+        <v>-3.434383931430833</v>
       </c>
       <c r="G92">
         <v>-0.09494560230751503</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.433540651887076</v>
+        <v>-3.437798545446028</v>
       </c>
       <c r="G95">
         <v>-0.1136592412922615</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.433333290087599</v>
+        <v>-3.440539473950023</v>
       </c>
       <c r="G96">
         <v>-0.1137794765333795</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.442065151704752</v>
+        <v>-3.446420419104993</v>
       </c>
       <c r="G98">
         <v>-0.1279500311249024</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.446333283867117</v>
+        <v>-3.44889359069351</v>
       </c>
       <c r="G103">
         <v>-0.1288625717438094</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.450327607706895</v>
+        <v>-3.452744307492054</v>
       </c>
       <c r="G107">
         <v>-0.1486837066126445</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.44960229214719</v>
+        <v>-3.451236107504594</v>
       </c>
       <c r="G112">
         <v>-0.1618351423627722</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.450076754238721</v>
+        <v>-3.451284226810865</v>
       </c>
       <c r="G113">
         <v>-0.157773545085123</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.446471040563712</v>
+        <v>-3.448521946993337</v>
       </c>
       <c r="G115">
         <v>-0.1650315634019965</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.443325014231787</v>
+        <v>-3.448416897109027</v>
       </c>
       <c r="G119">
         <v>-0.1671017390585456</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.441216102054945</v>
+        <v>-3.448635878094811</v>
       </c>
       <c r="G120">
         <v>-0.1693871082515033</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.442582883503585</v>
+        <v>-3.448228739846831</v>
       </c>
       <c r="G121">
         <v>-0.1678345200835656</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.43420903560436</v>
+        <v>-3.439084481178322</v>
       </c>
       <c r="G128">
         <v>-0.1763486888330741</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.42448506711127</v>
+        <v>-3.430559548325937</v>
       </c>
       <c r="G134">
         <v>-0.179565426710997</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.420915087362864</v>
+        <v>-3.425501072545351</v>
       </c>
       <c r="G136">
         <v>-0.1785706784447645</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.417165959472774</v>
+        <v>-3.418543265934728</v>
       </c>
       <c r="G138">
         <v>-0.1799347057591214</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.416475034835898</v>
+        <v>-3.417237766301431</v>
       </c>
       <c r="G139">
         <v>-0.1788193687535657</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.413313865935794</v>
+        <v>-3.413629959010097</v>
       </c>
       <c r="G140">
         <v>-0.179926805565451</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.4069126200087</v>
+        <v>-3.407099847494337</v>
       </c>
       <c r="G144">
         <v>-0.1812139463249758</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.405337812946151</v>
+        <v>-3.407386169455016</v>
       </c>
       <c r="G145">
         <v>-0.1802544379643432</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.401485719409171</v>
+        <v>-3.401620409469683</v>
       </c>
       <c r="G147">
         <v>-0.1797165845279052</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.392459681699719</v>
+        <v>-3.392747907183271</v>
       </c>
       <c r="G150">
         <v>-0.1781588979854114</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.388053839381034</v>
+        <v>-3.388188529441546</v>
       </c>
       <c r="G152">
         <v>-0.1759189833969799</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.37377949218402</v>
+        <v>-3.375146614899182</v>
       </c>
       <c r="G156">
         <v>-0.1705416600022984</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.365516258631873</v>
+        <v>-3.365627153153449</v>
       </c>
       <c r="G159">
         <v>-0.1686490350229728</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.361835320235793</v>
+        <v>-3.362574328854163</v>
       </c>
       <c r="G160">
         <v>-0.1668901932985478</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.355012203685684</v>
+        <v>-3.356355530861908</v>
       </c>
       <c r="G162">
         <v>-0.1639112700917482</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.352809282526341</v>
+        <v>-3.353189557168942</v>
       </c>
       <c r="G163">
         <v>-0.1631132260288424</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.342081183664895</v>
+        <v>-3.343178926259033</v>
       </c>
       <c r="G166">
         <v>-0.1586686367575794</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.338065306831982</v>
+        <v>-3.338668352829721</v>
       </c>
       <c r="G167">
         <v>-0.1565748565963214</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.310661946109965</v>
+        <v>-3.31077284063154</v>
       </c>
       <c r="G175">
         <v>-0.1445482692475433</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.299269899034093</v>
+        <v>-3.301031589842655</v>
       </c>
       <c r="G178">
         <v>-0.1389225121866362</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.290645865389108</v>
+        <v>-3.290756759910682</v>
       </c>
       <c r="G180">
         <v>-0.1341426718849602</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.28321843028114</v>
+        <v>-3.283706330498906</v>
       </c>
       <c r="G182">
         <v>-0.128794065524606</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.277906817349876</v>
+        <v>-3.279801348187569</v>
       </c>
       <c r="G183">
         <v>-0.1260959668054924</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.27523426769319</v>
+        <v>-3.27569185761184</v>
       </c>
       <c r="G184">
         <v>-0.1246698086457936</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.266487300947934</v>
+        <v>-3.266514770274004</v>
       </c>
       <c r="G186">
         <v>-0.1209123689158608</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.261924885182352</v>
+        <v>-3.262534727558724</v>
       </c>
       <c r="G187">
         <v>-0.1188763683797889</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.253231033333486</v>
+        <v>-3.253318132316124</v>
       </c>
       <c r="G189">
         <v>-0.1140267098742328</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.23945754614382</v>
+        <v>-3.239950970180101</v>
       </c>
       <c r="G192">
         <v>-0.1060195126995318</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.234861146291989</v>
+        <v>-3.235330774789333</v>
       </c>
       <c r="G193">
         <v>-0.1033214139804177</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.207609602444724</v>
+        <v>-3.207633397983662</v>
       </c>
       <c r="G199">
         <v>-0.08715661720467704</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.465569655614683</v>
+        <v>-3.466689550857282</v>
       </c>
       <c r="G225">
         <v>-0.1458764667773202</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.434933308135127</v>
+        <v>-3.436158025600783</v>
       </c>
       <c r="G226">
         <v>-0.1446006854341173</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.390483410874457</v>
+        <v>-3.392145240998148</v>
       </c>
       <c r="G227">
         <v>-0.1296591024614706</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.603502025386729</v>
+        <v>-3.605193757262108</v>
       </c>
       <c r="G244">
         <v>-0.08785514156629892</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.577292778050233</v>
+        <v>-3.579636299992243</v>
       </c>
       <c r="G246">
         <v>-0.125231498898597</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.417308347874488</v>
+        <v>-3.418080543350204</v>
       </c>
       <c r="G250">
         <v>-0.08546583702477806</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.355054991348207</v>
+        <v>-3.355526297778042</v>
       </c>
       <c r="G251">
         <v>-0.05307173383244884</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.623339847091039</v>
+        <v>-3.623795445878173</v>
       </c>
       <c r="G254">
         <v>-0.05011988700667658</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.603564970342984</v>
+        <v>-3.603685535156147</v>
       </c>
       <c r="G257">
         <v>-0.1209381197960622</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.571760119027451</v>
+        <v>-3.572510953863295</v>
       </c>
       <c r="G258">
         <v>-0.1195985142405087</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.533451534051208</v>
+        <v>-3.534118238529421</v>
       </c>
       <c r="G259">
         <v>-0.1103936207961647</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.651773435033773</v>
+        <v>-3.652131850056011</v>
       </c>
       <c r="G266">
         <v>-0.08435623202178721</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.642106457300591</v>
+        <v>-3.642259646037509</v>
       </c>
       <c r="G267">
         <v>-0.1055513186082511</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.593028879894456</v>
+        <v>-3.594083534230745</v>
       </c>
       <c r="G269">
         <v>-0.1174162388276241</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401190480569421</v>
+        <v>-3.401225799708256</v>
       </c>
       <c r="G273">
         <v>-0.04748936637145251</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.659676924542429</v>
+        <v>-3.660284142475105</v>
       </c>
       <c r="G278">
         <v>-0.1042870909592017</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.609758568614396</v>
+        <v>-3.6107194180731</v>
       </c>
       <c r="G280">
         <v>-0.115655615996485</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.474621222084076</v>
+        <v>-3.475337995401925</v>
       </c>
       <c r="G283">
         <v>-0.07206455394067046</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.680768491934873</v>
+        <v>-3.681852804017198</v>
       </c>
       <c r="G288">
         <v>-0.07814598663099437</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.62290588210971</v>
+        <v>-3.623624863563881</v>
       </c>
       <c r="G291">
         <v>-0.1127749030786571</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.584876138763544</v>
+        <v>-3.585404907274219</v>
       </c>
       <c r="G292">
         <v>-0.1063788731871684</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.488290037208613</v>
+        <v>-3.489218323467699</v>
       </c>
       <c r="G294">
         <v>-0.07147307847699425</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.552332732962067</v>
+        <v>-3.552571945493221</v>
       </c>
       <c r="G304">
         <v>-0.09254141344726619</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.440642616593324</v>
+        <v>-3.441003993149673</v>
       </c>
       <c r="G306">
         <v>-0.04272782635678091</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.60593479226728</v>
+        <v>-3.606235431121595</v>
       </c>
       <c r="G314">
         <v>-0.1051762362785627</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.561984617464099</v>
+        <v>-3.562094213585553</v>
       </c>
       <c r="G315">
         <v>-0.09205487378901722</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.953877771587799</v>
+        <v>-3.038013687923995</v>
       </c>
       <c r="G3">
         <v>-0.1919209880003425</v>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.939650525928666</v>
+        <v>-3.059442210431008</v>
       </c>
       <c r="G4">
         <v>-0.1956540384344421</v>
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.925423280269532</v>
+        <v>-3.088749905822219</v>
       </c>
       <c r="G5">
         <v>-0.1993870888685416</v>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.911196034610398</v>
+        <v>-3.125936774097629</v>
       </c>
       <c r="G6">
         <v>-0.2031201393026398</v>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-2.889078202510945</v>
+        <v>-3.16312364237304</v>
       </c>
       <c r="G7">
         <v>-0.19896260329642</v>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.859069783971177</v>
+        <v>-3.200310510648451</v>
       </c>
       <c r="G8">
         <v>-0.186914480849885</v>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.829061365431408</v>
+        <v>-3.245376551808061</v>
       </c>
       <c r="G9">
         <v>-0.1748663584033485</v>
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.791162360451322</v>
+        <v>-3.282563420083472</v>
       </c>
       <c r="G10">
         <v>-0.1549276495164951</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.753263355471234</v>
+        <v>-3.327629461243082</v>
       </c>
       <c r="G11">
         <v>-0.1349889406296405</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.70747376405083</v>
+        <v>-3.372695502402692</v>
       </c>
       <c r="G12">
         <v>-0.1071596453024691</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.653793586190108</v>
+        <v>-3.417761543562302</v>
       </c>
       <c r="G13">
         <v>-0.07143976353497972</v>
@@ -714,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.600113408329385</v>
+        <v>-3.47070675760611</v>
       </c>
       <c r="G14">
         <v>-0.03571988176749025</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.546433230468662</v>
+        <v>-3.531531144534118</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-3.19934114235373</v>
+        <v>-3.208394712382085</v>
       </c>
       <c r="G17">
         <v>-0.01903277516127488</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-3.213509898600405</v>
+        <v>-3.231617038657127</v>
       </c>
       <c r="G18">
         <v>-0.03806555032254932</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-3.227678654847081</v>
+        <v>-3.254839364932169</v>
       </c>
       <c r="G19">
         <v>-0.05709832548382376</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.240528623214968</v>
+        <v>-3.277530788824468</v>
       </c>
       <c r="G20">
         <v>-0.07481231276631117</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.252059803704068</v>
+        <v>-3.299691310334026</v>
       </c>
       <c r="G21">
         <v>-0.09120751217000977</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.263590984193168</v>
+        <v>-3.321851831843583</v>
       </c>
       <c r="G22">
         <v>-0.1076027115737084</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.27380337680348</v>
+        <v>-3.343481450970399</v>
       </c>
       <c r="G23">
         <v>-0.1226791230986191</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.284015769413791</v>
+        <v>-3.365111070097214</v>
       </c>
       <c r="G24">
         <v>-0.1377555346235302</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.292909374145314</v>
+        <v>-3.386209786841287</v>
       </c>
       <c r="G25">
         <v>-0.1515131582696521</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.30048419099805</v>
+        <v>-3.406777601202619</v>
       </c>
       <c r="G26">
         <v>-0.1639519940369873</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.308059007850786</v>
+        <v>-3.41439728870969</v>
       </c>
       <c r="G27">
         <v>-0.1763908298043222</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.315633824703522</v>
+        <v>-3.43496510307102</v>
       </c>
       <c r="G28">
         <v>-0.1809441544653136</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.313856147165021</v>
+        <v>-3.455384152210672</v>
       </c>
       <c r="G29">
         <v>-0.1919160069477557</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.312078469626522</v>
+        <v>-3.463088446435451</v>
       </c>
       <c r="G30">
         <v>-0.1950023483238552</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.310300792088022</v>
+        <v>-3.470559368720843</v>
       </c>
       <c r="G31">
         <v>-0.1980886896999539</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.308523114549522</v>
+        <v>-3.478730406824392</v>
       </c>
       <c r="G32">
         <v>-0.2011750310760534</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.306745437011021</v>
+        <v>-3.486201329109785</v>
       </c>
       <c r="G33">
         <v>-0.204261372452152</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.304967759472521</v>
+        <v>-3.494372367213336</v>
       </c>
       <c r="G34">
         <v>-0.2073477138282507</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.30319008193402</v>
+        <v>-3.501843289498727</v>
       </c>
       <c r="G35">
         <v>-0.2104340552043489</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.301412404395518</v>
+        <v>-3.509080839844734</v>
       </c>
       <c r="G36">
         <v>-0.2135203965804466</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.299634726857018</v>
+        <v>-3.517018506008895</v>
       </c>
       <c r="G37">
         <v>-0.2149915592655465</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.294626691936519</v>
+        <v>-3.524956172173059</v>
       </c>
       <c r="G38">
         <v>-0.2148475432596471</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.29123383570702</v>
+        <v>-3.533127210276611</v>
       </c>
       <c r="G39">
         <v>-0.2163187059447476</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.28784097947752</v>
+        <v>-3.540364760622615</v>
       </c>
       <c r="G40">
         <v>-0.2194050473208446</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.282832944557022</v>
+        <v>-3.548769170665551</v>
       </c>
       <c r="G41">
         <v>-0.2176458526239478</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.277824909636523</v>
+        <v>-3.556940208769103</v>
       </c>
       <c r="G42">
         <v>-0.2191170153090456</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.272816874716024</v>
+        <v>-3.565111246872652</v>
       </c>
       <c r="G43">
         <v>-0.218972999303146</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.267808839795524</v>
+        <v>-3.572348797218666</v>
       </c>
       <c r="G44">
         <v>-0.2188289832972452</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.262800804875027</v>
+        <v>-3.58028646338283</v>
       </c>
       <c r="G45">
         <v>-0.2170697886003492</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.257792769954528</v>
+        <v>-3.588690873425761</v>
       </c>
       <c r="G46">
         <v>-0.2169257725944491</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.25116955634303</v>
+        <v>-3.59662853958993</v>
       </c>
       <c r="G47">
         <v>-0.2167817565885481</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.244546342731534</v>
+        <v>-3.604332833814707</v>
       </c>
       <c r="G48">
         <v>-0.2150225618916513</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.239538307811035</v>
+        <v>-3.613203987736416</v>
       </c>
       <c r="G49">
         <v>-0.2132633671947521</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.23129991550854</v>
+        <v>-3.620908281961198</v>
       </c>
       <c r="G50">
         <v>-0.2098889938068553</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.223061523206043</v>
+        <v>-3.629079320064746</v>
       </c>
       <c r="G51">
         <v>-0.2081297991099575</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.214823130903548</v>
+        <v>-3.637250358168297</v>
       </c>
       <c r="G52">
         <v>-0.2047554257220621</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.20658473860105</v>
+        <v>-3.645188024332463</v>
       </c>
       <c r="G53">
         <v>-0.201381052334163</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.198346346298553</v>
+        <v>-3.65312569049663</v>
       </c>
       <c r="G54">
         <v>-0.1980066789462654</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.190107953996056</v>
+        <v>-3.661063356660796</v>
       </c>
       <c r="G55">
         <v>-0.1946323055583671</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.181869561693559</v>
+        <v>-3.669467766703731</v>
       </c>
       <c r="G56">
         <v>-0.1912579321704697</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.173631169391061</v>
+        <v>-3.67763880480728</v>
       </c>
       <c r="G57">
         <v>-0.1878835587825706</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.165392777088563</v>
+        <v>-3.686043214850217</v>
       </c>
       <c r="G58">
         <v>-0.1845091853946722</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.151661867997654</v>
+        <v>-3.68685607108001</v>
       </c>
       <c r="G59">
         <v>-0.1756422952183621</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.132160991148193</v>
+        <v>-3.68628845675119</v>
       </c>
       <c r="G60">
         <v>-0.1610054372834995</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.11266011429873</v>
+        <v>-3.685720842422365</v>
       </c>
       <c r="G61">
         <v>-0.1463685793486366</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.093159237449268</v>
+        <v>-3.685153228093544</v>
       </c>
       <c r="G62">
         <v>-0.1317317214137729</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.073658360599806</v>
+        <v>-3.684585613764718</v>
       </c>
       <c r="G63">
         <v>-0.1170948634789107</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.054157483750344</v>
+        <v>-3.684017999435899</v>
       </c>
       <c r="G64">
         <v>-0.1024580055440469</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.034656606900881</v>
+        <v>-3.683450385107073</v>
       </c>
       <c r="G65">
         <v>-0.08782114760918308</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.015155730051418</v>
+        <v>-3.68288277077825</v>
       </c>
       <c r="G66">
         <v>-0.07318428967431967</v>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.995654853201955</v>
+        <v>-3.682315156449426</v>
       </c>
       <c r="G67">
         <v>-0.05854743173945581</v>
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.976153976352492</v>
+        <v>-3.681747542120603</v>
       </c>
       <c r="G68">
         <v>-0.04391057380459198</v>
@@ -1979,7 +1979,7 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.95665309950303</v>
+        <v>-3.681179927791779</v>
       </c>
       <c r="G69">
         <v>-0.02927371586972857</v>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.937152222653566</v>
+        <v>-3.680612313462955</v>
       </c>
       <c r="G70">
         <v>-0.01463685793486384</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.917651345804103</v>
+        <v>-3.680044699134132</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.699766221860584</v>
+        <v>-3.732346626073499</v>
       </c>
       <c r="G309">
         <v>-0.04416874621654188</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.701763442630397</v>
+        <v>-3.772621310163761</v>
       </c>
       <c r="G310">
         <v>-0.07715273209053075</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692938866881547</v>
+        <v>-3.808725259814115</v>
       </c>
       <c r="G311">
         <v>-0.09853991288976438</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.674284383541718</v>
+        <v>-3.840795925872091</v>
       </c>
       <c r="G312">
         <v>-0.1106877231615777</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.645232644366574</v>
+        <v>-3.868936242377688</v>
       </c>
       <c r="G313">
         <v>-0.1110448097857557</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.606235431121595</v>
+        <v>-3.892966123789402</v>
       </c>
       <c r="G314">
         <v>-0.1051762362785627</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.562094213585553</v>
+        <v>-3.91157422077014</v>
       </c>
       <c r="G315">
         <v>-0.09205487378901722</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.509447427939822</v>
+        <v>-3.92715309992929</v>
       </c>
       <c r="G316">
         <v>-0.07061494922667855</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.449832468190515</v>
+        <v>-3.942089028149831</v>
       </c>
       <c r="G317">
         <v>-0.04193930164877058</v>
@@ -7706,7 +7706,7 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.376906401437568</v>
+        <v>-3.952066137077082</v>
       </c>
       <c r="G318">
         <v>0</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.294626691936519</v>
+        <v>-3.296241870627517</v>
       </c>
       <c r="G38">
         <v>-0.2148475432596471</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.403455326077144</v>
+        <v>-3.404442174149705</v>
       </c>
       <c r="G81">
         <v>-0.05536302554159267</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.443754339387577</v>
+        <v>-3.443932197638415</v>
       </c>
       <c r="G105">
         <v>-0.1430938955093124</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.429050118855575</v>
+        <v>-3.430530390964419</v>
       </c>
       <c r="G132">
         <v>-0.1763306688984059</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.413629959010097</v>
+        <v>-3.414123383046378</v>
       </c>
       <c r="G140">
         <v>-0.179926805565451</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.377214845998012</v>
+        <v>-3.378534377635301</v>
       </c>
       <c r="G155">
         <v>-0.1726592357024925</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.257334009149035</v>
+        <v>-3.257827433185316</v>
       </c>
       <c r="G188">
         <v>-0.11612049003549</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.230710579398565</v>
+        <v>-3.230734374937502</v>
       </c>
       <c r="G194">
         <v>-0.100536216278667</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.499171568123653</v>
+        <v>-3.501336308094772</v>
       </c>
       <c r="G224">
         <v>-0.1510669254402854</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.319380670567706</v>
+        <v>-3.319441265190533</v>
       </c>
       <c r="G240">
         <v>-0.05814913711430819</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.464020834201248</v>
+        <v>-3.464799314036361</v>
       </c>
       <c r="G249">
         <v>-0.1026869833190476</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.603685535156147</v>
+        <v>-3.605069584442461</v>
       </c>
       <c r="G257">
         <v>-0.1209381197960622</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.701763442630397</v>
+        <v>-3.702274195230968</v>
       </c>
       <c r="G310">
         <v>-0.07715273209053075</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.421993401052893</v>
+        <v>-3.425958331518353</v>
       </c>
       <c r="G89">
         <v>-0.08511776285066297</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.440804495309599</v>
+        <v>-3.442658663242707</v>
       </c>
       <c r="G97">
         <v>-0.1192628681245322</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.442245413179671</v>
+        <v>-3.444636884891301</v>
       </c>
       <c r="G100">
         <v>-0.1282650365834166</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.446602506278294</v>
+        <v>-3.450716792796014</v>
       </c>
       <c r="G108">
         <v>-0.1517083524149943</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.431300797889245</v>
+        <v>-3.432781069998089</v>
       </c>
       <c r="G129">
         <v>-0.1751452331658983</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.411791947647602</v>
+        <v>-3.413340473376555</v>
       </c>
       <c r="G142">
         <v>-0.1796028122974773</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.390256760540376</v>
+        <v>-3.390995769158745</v>
       </c>
       <c r="G151">
         <v>-0.1760651178241548</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.356355530861908</v>
+        <v>-3.356806606020379</v>
       </c>
       <c r="G162">
         <v>-0.1639112700917482</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.287949520193483</v>
+        <v>-3.288355845247127</v>
       </c>
       <c r="G181">
         <v>-0.1333684233609908</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.515491095618183</v>
+        <v>-3.52016545682552</v>
       </c>
       <c r="G222">
         <v>-0.1090116881330792</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.265947505651923</v>
+        <v>-3.266840581985131</v>
       </c>
       <c r="G229">
         <v>-0.06377977497289722</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.579636299992243</v>
+        <v>-3.579742763080273</v>
       </c>
       <c r="G246">
         <v>-0.125231498898597</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.534118238529421</v>
+        <v>-3.535319421029803</v>
       </c>
       <c r="G259">
         <v>-0.1103936207961647</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.642259646037509</v>
+        <v>-3.643833658955448</v>
       </c>
       <c r="G267">
         <v>-0.1055513186082511</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.594083534230745</v>
+        <v>-3.59505612576138</v>
       </c>
       <c r="G269">
         <v>-0.1174162388276241</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401225799708256</v>
+        <v>-3.401519110358363</v>
       </c>
       <c r="G273">
         <v>-0.04748936637145251</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.663529163219314</v>
+        <v>-3.664996835120907</v>
       </c>
       <c r="G276">
         <v>-0.04685244867077065</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.6107194180731</v>
+        <v>-3.612097768456824</v>
       </c>
       <c r="G280">
         <v>-0.115655615996485</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.417235243551607</v>
+        <v>-3.417374340261562</v>
       </c>
       <c r="G284">
         <v>-0.04570605286432927</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.681852804017198</v>
+        <v>-3.681884770620186</v>
       </c>
       <c r="G288">
         <v>-0.07814598663099437</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.653176462016868</v>
+        <v>-3.653439106891641</v>
       </c>
       <c r="G290">
         <v>-0.112868219358309</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.596214305779806</v>
+        <v>-3.596419169444265</v>
       </c>
       <c r="G303">
         <v>-0.1056275865711904</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.699766221860584</v>
+        <v>-3.699838412991125</v>
       </c>
       <c r="G309">
         <v>-0.04416874621654188</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692938866881547</v>
+        <v>-3.692996937933436</v>
       </c>
       <c r="G311">
         <v>-0.09853991288976438</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.674284383541718</v>
+        <v>-3.674441535165363</v>
       </c>
       <c r="G312">
         <v>-0.1106877231615777</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.779917079680689</v>
+        <v>-2.779917079680688</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.925423280269532</v>
+        <v>-2.925423280269533</v>
       </c>
       <c r="G5">
-        <v>-0.1993870888685416</v>
+        <v>-0.1993870888685429</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.911196034610398</v>
       </c>
       <c r="G6">
-        <v>-0.2031201393026398</v>
+        <v>-0.2031201393026407</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-2.889078202510945</v>
+        <v>-2.889078202510948</v>
       </c>
       <c r="G7">
-        <v>-0.19896260329642</v>
+        <v>-0.1989626032964222</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.859069783971177</v>
+        <v>-2.859069783971179</v>
       </c>
       <c r="G8">
-        <v>-0.186914480849885</v>
+        <v>-0.1869144808498873</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.829061365431408</v>
+        <v>-2.82906136543141</v>
       </c>
       <c r="G9">
-        <v>-0.1748663584033485</v>
+        <v>-0.1748663584033503</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.791162360451322</v>
+        <v>-2.791162360451325</v>
       </c>
       <c r="G10">
-        <v>-0.1549276495164951</v>
+        <v>-0.1549276495164982</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.753263355471234</v>
+        <v>-2.753263355471237</v>
       </c>
       <c r="G11">
-        <v>-0.1349889406296405</v>
+        <v>-0.1349889406296436</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.70747376405083</v>
+        <v>-2.707473764050832</v>
       </c>
       <c r="G12">
-        <v>-0.1071596453024691</v>
+        <v>-0.1071596453024714</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.653793586190108</v>
+        <v>-2.653793586190109</v>
       </c>
       <c r="G13">
-        <v>-0.07143976353497972</v>
+        <v>-0.07143976353498105</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.600113408329385</v>
+        <v>-2.600113408329386</v>
       </c>
       <c r="G14">
-        <v>-0.03571988176749025</v>
+        <v>-0.03571988176749069</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.546433230468662</v>
+        <v>-2.546433230468663</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-3.185172386107054</v>
+        <v>-3.185172386107042</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.154631945610163e-14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-3.19934114235373</v>
+        <v>-3.19934114235372</v>
       </c>
       <c r="G17">
-        <v>-0.01903277516127488</v>
+        <v>-0.01903277516126511</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-3.213509898600405</v>
+        <v>-3.213509898600397</v>
       </c>
       <c r="G18">
-        <v>-0.03806555032254932</v>
+        <v>-0.03806555032254089</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-3.227678654847081</v>
+        <v>-3.227678654847073</v>
       </c>
       <c r="G19">
-        <v>-0.05709832548382376</v>
+        <v>-0.05709832548381577</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.240528623214968</v>
+        <v>-3.24052862321496</v>
       </c>
       <c r="G20">
-        <v>-0.07481231276631117</v>
+        <v>-0.07481231276630318</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.252059803704068</v>
+        <v>-3.252059803704062</v>
       </c>
       <c r="G21">
-        <v>-0.09120751217000977</v>
+        <v>-0.09120751217000356</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.263590984193168</v>
+        <v>-3.263590984193161</v>
       </c>
       <c r="G22">
-        <v>-0.1076027115737084</v>
+        <v>-0.1076027115737013</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.27380337680348</v>
+        <v>-3.273803376803474</v>
       </c>
       <c r="G23">
-        <v>-0.1226791230986191</v>
+        <v>-0.1226791230986137</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.284015769413791</v>
+        <v>-3.282696981534998</v>
       </c>
       <c r="G24">
-        <v>-0.1377555346235302</v>
+        <v>-0.1364367467447374</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.292909374145314</v>
+        <v>-3.292909374145309</v>
       </c>
       <c r="G25">
-        <v>-0.1515131582696521</v>
+        <v>-0.1515131582696472</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.30048419099805</v>
+        <v>-3.292746875297809</v>
       </c>
       <c r="G26">
-        <v>-0.1639519940369873</v>
+        <v>-0.1562146783367466</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.308059007850786</v>
+        <v>-3.2924361810442</v>
       </c>
       <c r="G27">
-        <v>-0.1763908298043222</v>
+        <v>-0.1607680029977359</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.315633824703522</v>
+        <v>-3.307748313597179</v>
       </c>
       <c r="G28">
         <v>-0.1809441544653136</v>
@@ -1062,7 +1062,7 @@
         <v>-3.313856147165021</v>
       </c>
       <c r="G29">
-        <v>-0.1919160069477557</v>
+        <v>-0.1919160069477548</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.312078469626522</v>
+        <v>-3.31207846962652</v>
       </c>
       <c r="G30">
-        <v>-0.1950023483238552</v>
+        <v>-0.1950023483238539</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.310300792088022</v>
+        <v>-3.31030079208802</v>
       </c>
       <c r="G31">
-        <v>-0.1980886896999539</v>
+        <v>-0.198088689699953</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.308523114549522</v>
+        <v>-3.308523114549521</v>
       </c>
       <c r="G32">
-        <v>-0.2011750310760534</v>
+        <v>-0.2011750310760525</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.306745437011021</v>
+        <v>-3.30674543701102</v>
       </c>
       <c r="G33">
-        <v>-0.204261372452152</v>
+        <v>-0.2042613724521511</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.304967759472521</v>
+        <v>-3.303352580781522</v>
       </c>
       <c r="G34">
-        <v>-0.2073477138282507</v>
+        <v>-0.2057325351372525</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.30319008193402</v>
+        <v>-3.303190081934019</v>
       </c>
       <c r="G35">
-        <v>-0.2104340552043489</v>
+        <v>-0.210434055204348</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.301412404395518</v>
+        <v>-3.299797225704521</v>
       </c>
       <c r="G36">
-        <v>-0.2135203965804466</v>
+        <v>-0.2119052178894489</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.299634726857018</v>
+        <v>-3.296404369475023</v>
       </c>
       <c r="G37">
-        <v>-0.2149915592655465</v>
+        <v>-0.213376380574551</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.296241870627517</v>
+        <v>-3.293011513245526</v>
       </c>
       <c r="G38">
-        <v>-0.2148475432596471</v>
+        <v>-0.2148475432596528</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.29123383570702</v>
+        <v>-3.291233835707021</v>
       </c>
       <c r="G39">
-        <v>-0.2163187059447476</v>
+        <v>-0.2179338846357466</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.28784097947752</v>
+        <v>-3.282995443404524</v>
       </c>
       <c r="G40">
-        <v>-0.2194050473208446</v>
+        <v>-0.2145595112478484</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.282832944557022</v>
+        <v>-3.282832944557027</v>
       </c>
       <c r="G41">
-        <v>-0.2176458526239478</v>
+        <v>-0.2192610313149508</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.277824909636523</v>
+        <v>-3.276209730945528</v>
       </c>
       <c r="G42">
-        <v>-0.2191170153090456</v>
+        <v>-0.217501836618051</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.272816874716024</v>
+        <v>-3.272816874716034</v>
       </c>
       <c r="G43">
-        <v>-0.218972999303146</v>
+        <v>-0.2189729993031562</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.267808839795524</v>
+        <v>-3.261348125031535</v>
       </c>
       <c r="G44">
-        <v>-0.2188289832972452</v>
+        <v>-0.2123682685332557</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.262800804875027</v>
+        <v>-3.262800804875038</v>
       </c>
       <c r="G45">
-        <v>-0.2170697886003492</v>
+        <v>-0.2186849672913584</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.257792769954528</v>
+        <v>-3.256177591263543</v>
       </c>
       <c r="G46">
-        <v>-0.2169257725944491</v>
+        <v>-0.2169257725944624</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.25116955634303</v>
+        <v>-3.249554377652047</v>
       </c>
       <c r="G47">
-        <v>-0.2167817565885481</v>
+        <v>-0.2151665778975651</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.244546342731534</v>
+        <v>-3.244546342731546</v>
       </c>
       <c r="G48">
-        <v>-0.2150225618916513</v>
+        <v>-0.2150225618916641</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.239538307811035</v>
+        <v>-3.234692771738048</v>
       </c>
       <c r="G49">
-        <v>-0.2132633671947521</v>
+        <v>-0.2100330098127652</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.23129991550854</v>
+        <v>-3.231299915508554</v>
       </c>
       <c r="G50">
-        <v>-0.2098889938068553</v>
+        <v>-0.2115041724978699</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.223061523206043</v>
+        <v>-3.223061523206055</v>
       </c>
       <c r="G51">
-        <v>-0.2081297991099575</v>
+        <v>-0.2081297991099695</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.214823130903548</v>
+        <v>-3.214823130903563</v>
       </c>
       <c r="G52">
-        <v>-0.2047554257220621</v>
+        <v>-0.2047554257220767</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.20658473860105</v>
+        <v>-3.206584738601067</v>
       </c>
       <c r="G53">
-        <v>-0.201381052334163</v>
+        <v>-0.2013810523341799</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.198346346298553</v>
+        <v>-3.198346346298576</v>
       </c>
       <c r="G54">
-        <v>-0.1980066789462654</v>
+        <v>-0.1980066789462877</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.190107953996056</v>
+        <v>-3.190107953996078</v>
       </c>
       <c r="G55">
-        <v>-0.1946323055583671</v>
+        <v>-0.1946323055583897</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.181869561693559</v>
+        <v>-3.181869561693581</v>
       </c>
       <c r="G56">
-        <v>-0.1912579321704697</v>
+        <v>-0.1912579321704915</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.173631169391061</v>
+        <v>-3.173631169391087</v>
       </c>
       <c r="G57">
-        <v>-0.1878835587825706</v>
+        <v>-0.1878835587825963</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.165392777088563</v>
+        <v>-3.165392777088593</v>
       </c>
       <c r="G58">
-        <v>-0.1845091853946722</v>
+        <v>-0.1845091853947015</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.151661867997654</v>
+        <v>-3.151661867997684</v>
       </c>
       <c r="G59">
-        <v>-0.1756422952183621</v>
+        <v>-0.1756422952183918</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.132160991148193</v>
+        <v>-3.13216099114822</v>
       </c>
       <c r="G60">
-        <v>-0.1610054372834995</v>
+        <v>-0.1610054372835266</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.11266011429873</v>
+        <v>-3.112660114298756</v>
       </c>
       <c r="G61">
-        <v>-0.1463685793486366</v>
+        <v>-0.1463685793486623</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.093159237449268</v>
+        <v>-3.093159237449292</v>
       </c>
       <c r="G62">
-        <v>-0.1317317214137729</v>
+        <v>-0.1317317214137973</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.073658360599806</v>
+        <v>-3.073658360599827</v>
       </c>
       <c r="G63">
-        <v>-0.1170948634789107</v>
+        <v>-0.1170948634789316</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.054157483750344</v>
+        <v>-3.054157483750364</v>
       </c>
       <c r="G64">
-        <v>-0.1024580055440469</v>
+        <v>-0.1024580055440669</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.034656606900881</v>
+        <v>-3.0346566069009</v>
       </c>
       <c r="G65">
-        <v>-0.08782114760918308</v>
+        <v>-0.08782114760920218</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.015155730051418</v>
+        <v>-3.015155730051436</v>
       </c>
       <c r="G66">
-        <v>-0.07318428967431967</v>
+        <v>-0.07318428967433788</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.995654853201955</v>
+        <v>-2.995654853201971</v>
       </c>
       <c r="G67">
-        <v>-0.05854743173945581</v>
+        <v>-0.0585474317394718</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.976153976352492</v>
+        <v>-2.976153976352508</v>
       </c>
       <c r="G68">
-        <v>-0.04391057380459198</v>
+        <v>-0.04391057380460753</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.95665309950303</v>
+        <v>-2.956653099503044</v>
       </c>
       <c r="G69">
-        <v>-0.02927371586972857</v>
+        <v>-0.02927371586974323</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.937152222653566</v>
+        <v>-2.93715222265358</v>
       </c>
       <c r="G70">
-        <v>-0.01463685793486384</v>
+        <v>-0.01463685793487761</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.917651345804103</v>
+        <v>-2.917651345804116</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-1.287858708565182e-14</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-3.364089634042877</v>
+        <v>-3.364089634042915</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>-3.774758283725532e-14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-3.369390869373266</v>
+        <v>-3.369390869373304</v>
       </c>
       <c r="G73">
-        <v>-0.007223332002043836</v>
+        <v>-0.007223332002082028</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-3.374692104703655</v>
+        <v>-3.374692104703694</v>
       </c>
       <c r="G74">
-        <v>-0.01444666400408812</v>
+        <v>-0.01444666400412675</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-3.379993340034044</v>
+        <v>-3.379993340034083</v>
       </c>
       <c r="G75">
-        <v>-0.0216699960061324</v>
+        <v>-0.02166999600617103</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-3.385294575364432</v>
+        <v>-3.385294575364472</v>
       </c>
       <c r="G76">
-        <v>-0.0288933280081749</v>
+        <v>-0.02889332800821487</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.39059581069482</v>
+        <v>-3.388307426084731</v>
       </c>
       <c r="G77">
-        <v>-0.03382827540008915</v>
+        <v>-0.03382827540012912</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.39360866141508</v>
+        <v>-3.391320276804987</v>
       </c>
       <c r="G78">
-        <v>-0.03876322279200251</v>
+        <v>-0.03876322279203981</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.398909896745468</v>
+        <v>-3.394333127525246</v>
       </c>
       <c r="G79">
-        <v>-0.0436981701839172</v>
+        <v>-0.0436981701839545</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.401922747465727</v>
+        <v>-3.399634362855637</v>
       </c>
       <c r="G80">
-        <v>-0.05042807814967842</v>
+        <v>-0.05092150218599922</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.404442174149705</v>
+        <v>-3.404935598186025</v>
       </c>
       <c r="G81">
-        <v>-0.05536302554159267</v>
+        <v>-0.05814483418804217</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.407455024869964</v>
+        <v>-3.40696160083372</v>
       </c>
       <c r="G82">
-        <v>-0.05980454889722564</v>
+        <v>-0.06209293350739253</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.415044644810482</v>
+        <v>-3.410033658913241</v>
       </c>
       <c r="G83">
-        <v>-0.06576799322427807</v>
+        <v>-0.06708708825856746</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.414782262848049</v>
+        <v>-3.406496044268115</v>
       </c>
       <c r="G84">
-        <v>-0.0681941715722103</v>
+        <v>-0.06547157028509742</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.418603226069594</v>
+        <v>-3.414085664208634</v>
       </c>
       <c r="G85">
-        <v>-0.07950084875823116</v>
+        <v>-0.0749832868972713</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.416545883533312</v>
+        <v>-3.40782963547266</v>
       </c>
       <c r="G86">
-        <v>-0.0710835715099325</v>
+        <v>-0.07064935483295143</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.421412902186679</v>
+        <v>-3.421353694827458</v>
       </c>
       <c r="G87">
-        <v>-0.08615471821862597</v>
+        <v>-0.08609551085940481</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.423932328870657</v>
+        <v>-3.411944326615189</v>
       </c>
       <c r="G88">
-        <v>-0.08466180215997454</v>
+        <v>-0.07860823931879102</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.425958331518353</v>
+        <v>-3.423669946908266</v>
       </c>
       <c r="G89">
-        <v>-0.08511776285066297</v>
+        <v>-0.09225595628352323</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.4237553435615</v>
+        <v>-3.408868031290262</v>
       </c>
       <c r="G90">
-        <v>-0.08841126105913855</v>
+        <v>-0.07937613733717397</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.430329212475054</v>
+        <v>-3.417269950928371</v>
       </c>
       <c r="G91">
-        <v>-0.1016148685343463</v>
+        <v>-0.08970015364693751</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.434383931430833</v>
+        <v>-3.420597490113632</v>
       </c>
       <c r="G92">
-        <v>-0.09494560230751503</v>
+        <v>-0.09494978950385358</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.4386391113294</v>
+        <v>-3.43238579625385</v>
       </c>
       <c r="G93">
-        <v>-0.09982134234017082</v>
+        <v>-0.1086601923157255</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.436466427777403</v>
+        <v>-3.432182621650675</v>
       </c>
       <c r="G94">
-        <v>-0.1146629205109337</v>
+        <v>-0.1103791143842061</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.437798545446028</v>
+        <v>-3.421526532423054</v>
       </c>
       <c r="G95">
-        <v>-0.1136592412922615</v>
+        <v>-0.1016451218282399</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.440539473950023</v>
+        <v>-3.435239712155592</v>
       </c>
       <c r="G96">
-        <v>-0.1137794765333795</v>
+        <v>-0.1172803982324333</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.442658663242707</v>
+        <v>-3.423210113405232</v>
       </c>
       <c r="G97">
-        <v>-0.1192628681245322</v>
+        <v>-0.1071728961537284</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.446420419104993</v>
+        <v>-3.442103318186831</v>
       </c>
       <c r="G98">
-        <v>-0.1279500311249024</v>
+        <v>-0.1279881976069812</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.446651461178841</v>
+        <v>-3.427300289075327</v>
       </c>
       <c r="G99">
-        <v>-0.1211092863332355</v>
+        <v>-0.1151072651671328</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.444636884891301</v>
+        <v>-3.442211433893984</v>
       </c>
       <c r="G100">
-        <v>-0.1282650365834166</v>
+        <v>-0.1319405066574446</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.446292065417536</v>
+        <v>-3.436900619797338</v>
       </c>
       <c r="G101">
-        <v>-0.1306736564346656</v>
+        <v>-0.1285517892324535</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.448313880868929</v>
+        <v>-3.432553743406612</v>
       </c>
       <c r="G102">
-        <v>-0.127436920443512</v>
+        <v>-0.1261270095133824</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.44889359069351</v>
+        <v>-3.44159422018615</v>
       </c>
       <c r="G103">
-        <v>-0.1288625717438094</v>
+        <v>-0.1370895829645753</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.448873751428323</v>
+        <v>-3.439442577511375</v>
       </c>
       <c r="G104">
-        <v>-0.1400760622848427</v>
+        <v>-0.1368600369614552</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.443932197638415</v>
+        <v>-3.444054404313601</v>
       </c>
       <c r="G105">
-        <v>-0.1430938955093124</v>
+        <v>-0.1433939604353363</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.446791540860929</v>
+        <v>-3.443256639876237</v>
       </c>
       <c r="G106">
-        <v>-0.1382103700014388</v>
+        <v>-0.1445182926696265</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.452744307492054</v>
+        <v>-3.441233312376498</v>
       </c>
       <c r="G107">
-        <v>-0.1486837066126445</v>
+        <v>-0.1444170618415432</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.450716792796014</v>
+        <v>-3.442969389882691</v>
       </c>
       <c r="G108">
-        <v>-0.1517083524149943</v>
+        <v>-0.1480752360193907</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.450547597478567</v>
+        <v>-3.445706131190383</v>
       </c>
       <c r="G109">
-        <v>-0.1541127850699406</v>
+        <v>-0.1527340739987375</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.45162073133943</v>
+        <v>-3.44275094003023</v>
       </c>
       <c r="G110">
-        <v>-0.1605707708194406</v>
+        <v>-0.1517009795102395</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.448389053947112</v>
+        <v>-3.428786964753752</v>
       </c>
       <c r="G111">
-        <v>-0.1533313147003885</v>
+        <v>-0.1396591009054164</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.451236107504594</v>
+        <v>-3.441264591857138</v>
       </c>
       <c r="G112">
-        <v>-0.1618351423627722</v>
+        <v>-0.1540588246804577</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.451284226810865</v>
+        <v>-3.449025257470618</v>
       </c>
       <c r="G113">
-        <v>-0.157773545085123</v>
+        <v>-0.1637415869655916</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.448469640490765</v>
+        <v>-3.449532821527441</v>
       </c>
       <c r="G114">
-        <v>-0.1624999648163343</v>
+        <v>-0.1661712476940704</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.448521946993337</v>
+        <v>-3.44640726918861</v>
       </c>
       <c r="G115">
-        <v>-0.1650315634019965</v>
+        <v>-0.1649677920268942</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.447016771102565</v>
+        <v>-3.444226211244007</v>
       </c>
       <c r="G116">
-        <v>-0.1674993906125044</v>
+        <v>-0.1647088307539457</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.449337298658476</v>
+        <v>-3.445376555389371</v>
       </c>
       <c r="G117">
-        <v>-0.1674661183558781</v>
+        <v>-0.1677812715709646</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.444859104891547</v>
+        <v>-3.444748792641813</v>
       </c>
       <c r="G118">
-        <v>-0.1665014829396734</v>
+        <v>-0.169075605495062</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.448416897109027</v>
+        <v>-3.442226976589052</v>
       </c>
       <c r="G119">
-        <v>-0.1671017390585456</v>
+        <v>-0.1684758861139555</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.448635878094811</v>
+        <v>-3.444049015591949</v>
       </c>
       <c r="G120">
-        <v>-0.1693871082515033</v>
+        <v>-0.1722200217885073</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.448228739846831</v>
+        <v>-3.444629602736967</v>
       </c>
       <c r="G121">
-        <v>-0.1678345200835656</v>
+        <v>-0.1747227056051801</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.446834753526288</v>
+        <v>-3.434471573341053</v>
       </c>
       <c r="G122">
-        <v>-0.1692433534537519</v>
+        <v>-0.1664867728809214</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.440493175864024</v>
+        <v>-3.435340743557117</v>
       </c>
       <c r="G123">
-        <v>-0.1723116070744655</v>
+        <v>-0.1692780397686406</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.443119604921927</v>
+        <v>-3.438320492312086</v>
       </c>
       <c r="G124">
-        <v>-0.1789789978051042</v>
+        <v>-0.1741798851952643</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.437488765919659</v>
+        <v>-3.438935058742834</v>
       </c>
       <c r="G125">
-        <v>-0.1720193735448925</v>
+        <v>-0.1767165482976671</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.437251612030756</v>
+        <v>-3.434890616902897</v>
       </c>
       <c r="G126">
-        <v>-0.176929147846201</v>
+        <v>-0.1745942031293852</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.435330222388203</v>
+        <v>-3.432645787583139</v>
       </c>
       <c r="G127">
-        <v>-0.1769559052863459</v>
+        <v>-0.1742714704812816</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.439084481178322</v>
+        <v>-3.433757965246471</v>
       </c>
       <c r="G128">
-        <v>-0.1763486888330741</v>
+        <v>-0.1773057448162687</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.432781069998089</v>
+        <v>-3.431728187852802</v>
       </c>
       <c r="G129">
-        <v>-0.1751452331658983</v>
+        <v>-0.177198064094255</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.43473896360506</v>
+        <v>-3.432902212392613</v>
       </c>
       <c r="G130">
-        <v>-0.1821309365181678</v>
+        <v>-0.1802941853057201</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.429245069535412</v>
+        <v>-3.4304646958308</v>
       </c>
       <c r="G131">
-        <v>-0.1764062948333649</v>
+        <v>-0.1797787654155623</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.430530390964419</v>
+        <v>-3.425587926678328</v>
       </c>
       <c r="G132">
-        <v>-0.1763306688984059</v>
+        <v>-0.1768240929347449</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.429013581083415</v>
+        <v>-3.427155361895907</v>
       </c>
       <c r="G133">
-        <v>-0.1785512389265043</v>
+        <v>-0.1803136248239785</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.430559548325937</v>
+        <v>-3.422416484663263</v>
       </c>
       <c r="G134">
-        <v>-0.179565426710997</v>
+        <v>-0.1774968442629907</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.425242985218267</v>
+        <v>-3.420690979321563</v>
       </c>
       <c r="G135">
-        <v>-0.1817859967390969</v>
+        <v>-0.177693435592946</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.425501072545351</v>
+        <v>-3.42409516575165</v>
       </c>
       <c r="G136">
-        <v>-0.1785706784447645</v>
+        <v>-0.1830197186946871</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.421350505651926</v>
+        <v>-3.421980149007773</v>
       </c>
       <c r="G137">
-        <v>-0.1787659972146018</v>
+        <v>-0.1828267986224654</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.418543265934728</v>
+        <v>-3.422657295056051</v>
       </c>
       <c r="G138">
-        <v>-0.1799347057591214</v>
+        <v>-0.1854260413423978</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.417237766301431</v>
+        <v>-3.418013304126344</v>
       </c>
       <c r="G139">
-        <v>-0.1788193687535657</v>
+        <v>-0.1827041470843458</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.414123383046378</v>
+        <v>-3.414691172397801</v>
       </c>
       <c r="G140">
-        <v>-0.179926805565451</v>
+        <v>-0.1813041120274577</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.416258607615328</v>
+        <v>-3.41423557590445</v>
       </c>
       <c r="G141">
-        <v>-0.1803106243810433</v>
+        <v>-0.1827706122057613</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.413340473376555</v>
+        <v>-3.410271289509451</v>
       </c>
       <c r="G142">
-        <v>-0.1796028122974773</v>
+        <v>-0.1807284224824177</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.410992678409908</v>
+        <v>-3.412406514078401</v>
       </c>
       <c r="G143">
-        <v>-0.1786433039368449</v>
+        <v>-0.1847857437230223</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.407099847494337</v>
+        <v>-3.406986985323839</v>
       </c>
       <c r="G144">
-        <v>-0.1812139463249758</v>
+        <v>-0.1812883116401149</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.407386169455016</v>
+        <v>-3.407325844709642</v>
       </c>
       <c r="G145">
-        <v>-0.1802544379643432</v>
+        <v>-0.1835492676975727</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.404581184609923</v>
+        <v>-3.401298140574351</v>
       </c>
       <c r="G146">
-        <v>-0.1812060461313054</v>
+        <v>-0.1794436602339364</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.401620409469683</v>
+        <v>-3.401103189894512</v>
       </c>
       <c r="G147">
-        <v>-0.1797165845279052</v>
+        <v>-0.1811708062257527</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.399417488310341</v>
+        <v>-3.400267391450329</v>
       </c>
       <c r="G148">
-        <v>-0.1806681926948686</v>
+        <v>-0.1822571044532248</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.395132231356404</v>
+        <v>-3.394034488762312</v>
       </c>
       <c r="G149">
-        <v>-0.1790440410309548</v>
+        <v>-0.1779462984368632</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.392747907183271</v>
+        <v>-3.390473179195316</v>
       </c>
       <c r="G150">
-        <v>-0.1781588979854114</v>
+        <v>-0.1763070855415216</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.390995769158745</v>
+        <v>-3.389763336504136</v>
       </c>
       <c r="G151">
-        <v>-0.1760651178241548</v>
+        <v>-0.1775193395219965</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.388188529441546</v>
+        <v>-3.386106193646993</v>
       </c>
       <c r="G152">
-        <v>-0.1759189833969799</v>
+        <v>-0.1757842933365079</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.383433643990266</v>
+        <v>-3.38390327248765</v>
       </c>
       <c r="G153">
-        <v>-0.1728145596242228</v>
+        <v>-0.1755034688488206</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.381230722830923</v>
+        <v>-3.379998290176314</v>
       </c>
       <c r="G154">
-        <v>-0.1747530158637478</v>
+        <v>-0.1735205832091393</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.378534377635301</v>
+        <v>-3.379027801671616</v>
       </c>
       <c r="G155">
-        <v>-0.1726592357024925</v>
+        <v>-0.1744721913760956</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.375146614899182</v>
+        <v>-3.373286068147773</v>
       </c>
       <c r="G156">
-        <v>-0.1705416600022984</v>
+        <v>-0.1706525545239075</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.370861357945245</v>
+        <v>-3.37341332223722</v>
       </c>
       <c r="G157">
-        <v>-0.1697674114783294</v>
+        <v>-0.1727019052850101</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.368165012749623</v>
+        <v>-3.368275907271228</v>
       </c>
       <c r="G158">
-        <v>-0.1693756924690675</v>
+        <v>-0.1694865869906725</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.365627153153449</v>
+        <v>-3.365468667554025</v>
       </c>
       <c r="G159">
-        <v>-0.1686490350229728</v>
+        <v>-0.1686014439451249</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.362574328854163</v>
+        <v>-3.364521974588271</v>
       </c>
       <c r="G160">
-        <v>-0.1668901932985478</v>
+        <v>-0.1695768476510255</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.360371407694821</v>
+        <v>-3.358510860943405</v>
       </c>
       <c r="G161">
-        <v>-0.1673483774292308</v>
+        <v>-0.1654878306778145</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.356806606020379</v>
+        <v>-3.355592726704626</v>
       </c>
       <c r="G162">
-        <v>-0.1639112700917482</v>
+        <v>-0.1644917931106908</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.353189557168942</v>
+        <v>-3.354756928260449</v>
       </c>
       <c r="G163">
-        <v>-0.1631132260288424</v>
+        <v>-0.1655780913381686</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.350606361366999</v>
+        <v>-3.350136732869676</v>
       </c>
       <c r="G164">
-        <v>-0.1615366654428043</v>
+        <v>-0.1628799926190503</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.346571931195213</v>
+        <v>-3.347194803091965</v>
       </c>
       <c r="G165">
-        <v>-0.16065152239726</v>
+        <v>-0.161860159512994</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.343178926259033</v>
+        <v>-3.342709297761704</v>
       </c>
       <c r="G166">
-        <v>-0.1586686367575794</v>
+        <v>-0.1592967508543881</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.338668352829721</v>
+        <v>-3.340371686541846</v>
       </c>
       <c r="G167">
-        <v>-0.1565748565963214</v>
+        <v>-0.1588812363061849</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.336601394291009</v>
+        <v>-3.335751491151076</v>
       </c>
       <c r="G168">
-        <v>-0.1567636606059788</v>
+        <v>-0.1561831375870699</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.33425174449246</v>
+        <v>-3.328173006414735</v>
       </c>
       <c r="G169">
-        <v>-0.1523397051959334</v>
+        <v>-0.1505267495223837</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.330247906238243</v>
+        <v>-3.329197754721985</v>
       </c>
       <c r="G170">
-        <v>-0.1545237460175466</v>
+        <v>-0.1534735945012886</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.326232029405331</v>
+        <v>-3.327710046642076</v>
       </c>
       <c r="G171">
-        <v>-0.1524299658562895</v>
+        <v>-0.1539079830930341</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.322844266669213</v>
+        <v>-3.321611834014567</v>
       </c>
       <c r="G172">
-        <v>-0.1484994344825266</v>
+        <v>-0.1497318671371803</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.319396874276527</v>
+        <v>-3.318828389836299</v>
       </c>
       <c r="G173">
-        <v>-0.1494390040707949</v>
+        <v>-0.1488705196305675</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.316021150119102</v>
+        <v>-3.314788717464456</v>
       </c>
       <c r="G174">
-        <v>-0.1454334122930863</v>
+        <v>-0.1467529439303792</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.31077284063154</v>
+        <v>-3.311400954728335</v>
       </c>
       <c r="G175">
-        <v>-0.1445482692475433</v>
+        <v>-0.1452872778659127</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.306756963798629</v>
+        <v>-3.307854706392768</v>
       </c>
       <c r="G176">
-        <v>-0.1419134739721312</v>
+        <v>-0.1436631262020006</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.303937685502736</v>
+        <v>-3.301556245388938</v>
       </c>
       <c r="G177">
-        <v>-0.1416682019836236</v>
+        <v>-0.139286761869826</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.301031589842655</v>
+        <v>-3.300427271284792</v>
       </c>
       <c r="G178">
-        <v>-0.1389225121866362</v>
+        <v>-0.1400798844373354</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.2976200315676</v>
+        <v>-3.295917970415601</v>
       </c>
       <c r="G179">
-        <v>-0.1391947413917978</v>
+        <v>-0.1374926802397984</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.290756759910682</v>
+        <v>-3.291186880503254</v>
       </c>
       <c r="G180">
-        <v>-0.1341426718849602</v>
+        <v>-0.1346836869991072</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.288355845247127</v>
+        <v>-3.287305693730849</v>
       </c>
       <c r="G181">
-        <v>-0.1333684233609908</v>
+        <v>-0.1327245968983567</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.283706330498906</v>
+        <v>-3.283242225820068</v>
       </c>
       <c r="G182">
-        <v>-0.128794065524606</v>
+        <v>-0.1305832256592303</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.279801348187569</v>
+        <v>-3.277326294330943</v>
       </c>
       <c r="G183">
-        <v>-0.1260959668054924</v>
+        <v>-0.1265893908417599</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.27569185761184</v>
+        <v>-3.275703896190522</v>
       </c>
       <c r="G184">
-        <v>-0.1246698086457936</v>
+        <v>-0.1268890893729939</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.270614072302421</v>
+        <v>-3.271107496338686</v>
       </c>
       <c r="G185">
-        <v>-0.1237213621565479</v>
+        <v>-0.1242147861928132</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.266514770274004</v>
+        <v>-3.265970081372702</v>
       </c>
       <c r="G186">
-        <v>-0.1209123689158608</v>
+        <v>-0.1209994678984844</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.262534727558724</v>
+        <v>-3.260634672902502</v>
       </c>
       <c r="G187">
-        <v>-0.1188763683797889</v>
+        <v>-0.1175861560999392</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.257827433185316</v>
+        <v>-3.257246910166371</v>
       </c>
       <c r="G188">
-        <v>-0.11612049003549</v>
+        <v>-0.1161204900354633</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.253318132316124</v>
+        <v>-3.253811556352384</v>
       </c>
       <c r="G189">
-        <v>-0.1140267098742328</v>
+        <v>-0.114607232893131</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.248697936925355</v>
+        <v>-3.248610837942695</v>
       </c>
       <c r="G190">
-        <v>-0.1113286111551183</v>
+        <v>-0.111328611155097</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.244594961109807</v>
+        <v>-3.243990642551917</v>
       </c>
       <c r="G191">
-        <v>-0.1092348309938634</v>
+        <v>-0.108630512435974</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.239950970180101</v>
+        <v>-3.239950970180074</v>
       </c>
       <c r="G192">
-        <v>-0.1060195126995318</v>
+        <v>-0.1065129367357855</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.235330774789333</v>
+        <v>-3.235354570328236</v>
       </c>
       <c r="G193">
-        <v>-0.1033214139804177</v>
+        <v>-0.1038386335556027</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.230734374937502</v>
+        <v>-3.230734374937468</v>
       </c>
       <c r="G194">
-        <v>-0.100536216278667</v>
+        <v>-0.101140534836489</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.226114179546735</v>
+        <v>-3.225644551049352</v>
       </c>
       <c r="G195">
-        <v>-0.09836552568208556</v>
+        <v>-0.09797280762002802</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.221493984155966</v>
+        <v>-3.221000560119644</v>
       </c>
       <c r="G196">
-        <v>-0.09572054185936008</v>
+        <v>-0.09525091336197544</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.216873788765199</v>
+        <v>-3.216873788765154</v>
       </c>
       <c r="G197">
-        <v>-0.0925290191039656</v>
+        <v>-0.09304623867913953</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.212253593374431</v>
+        <v>-3.212229797835453</v>
       </c>
       <c r="G198">
-        <v>-0.09034813996007157</v>
+        <v>-0.09032434442109366</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.207633397983662</v>
+        <v>-3.207163769486264</v>
       </c>
       <c r="G199">
-        <v>-0.08715661720467704</v>
+        <v>-0.08718041274356036</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.203013202592895</v>
+        <v>-3.202543574095499</v>
       </c>
       <c r="G200">
-        <v>-0.08445851848556379</v>
+        <v>-0.08448231402444978</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.198393007202127</v>
+        <v>-3.198369211663137</v>
       </c>
       <c r="G201">
-        <v>-0.08225384380273226</v>
+        <v>-0.08223004826374236</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.193772811811359</v>
+        <v>-3.19374901627237</v>
       </c>
       <c r="G202">
-        <v>-0.07953194954468196</v>
+        <v>-0.07953194954463044</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.189128820881654</v>
+        <v>-3.189152616420534</v>
       </c>
       <c r="G203">
-        <v>-0.07678073592918089</v>
+        <v>-0.07685764636444892</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.184508625490885</v>
+        <v>-3.184508625490829</v>
       </c>
       <c r="G204">
-        <v>-0.07364232807017507</v>
+        <v>-0.07413575210639906</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.179371210524899</v>
+        <v>-3.178853990949625</v>
       </c>
       <c r="G205">
-        <v>-0.07092043381212482</v>
+        <v>-0.07040321423685009</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.174233795558913</v>
+        <v>-3.174233795558856</v>
       </c>
       <c r="G206">
-        <v>-0.06770511551779324</v>
+        <v>-0.06770511551773639</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.169096380592926</v>
+        <v>-3.169096380592869</v>
       </c>
       <c r="G207">
-        <v>-0.06448979722346121</v>
+        <v>-0.06448979722340437</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.16180013415265</v>
+        <v>-3.161800134152594</v>
       </c>
       <c r="G208">
-        <v>-0.05911564745483966</v>
+        <v>-0.05911564745478415</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.154503887712373</v>
+        <v>-3.154503887712319</v>
       </c>
       <c r="G209">
-        <v>-0.05374149768621853</v>
+        <v>-0.0537414976861639</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.147207641272097</v>
+        <v>-3.147207641272044</v>
       </c>
       <c r="G210">
-        <v>-0.04836734791759653</v>
+        <v>-0.04836734791754368</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.13991139483182</v>
+        <v>-3.139911394831769</v>
       </c>
       <c r="G211">
-        <v>-0.04299319814897454</v>
+        <v>-0.04299319814892347</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.132615148391543</v>
+        <v>-3.132615148391495</v>
       </c>
       <c r="G212">
-        <v>-0.03761904838035263</v>
+        <v>-0.03761904838030511</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.125318901951266</v>
+        <v>-3.12531890195122</v>
       </c>
       <c r="G213">
-        <v>-0.03224489861173063</v>
+        <v>-0.03224489861168489</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.118022655510989</v>
+        <v>-3.118022655510944</v>
       </c>
       <c r="G214">
-        <v>-0.02687074884310864</v>
+        <v>-0.02687074884306379</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.110726409070713</v>
+        <v>-3.110726409070669</v>
       </c>
       <c r="G215">
-        <v>-0.02149659907448664</v>
+        <v>-0.02149659907444357</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-3.103430162630436</v>
+        <v>-3.103430162630396</v>
       </c>
       <c r="G216">
-        <v>-0.01612244930586509</v>
+        <v>-0.01612244930582513</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-3.096133916190159</v>
+        <v>-3.096133916190122</v>
       </c>
       <c r="G217">
-        <v>-0.01074829953724354</v>
+        <v>-0.01074829953720624</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-3.088837669749883</v>
+        <v>-3.088837669749846</v>
       </c>
       <c r="G218">
-        <v>-0.005374149768621994</v>
+        <v>-0.005374149768585135</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-3.081541423309606</v>
+        <v>-3.081541423309571</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>3.508304757815495e-14</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-3.463912643822297</v>
+        <v>-3.463912643822209</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>8.837375276016246e-14</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.501730846013208</v>
+        <v>-3.495902629476959</v>
       </c>
       <c r="G221">
-        <v>-0.06415743101973925</v>
+        <v>-0.06023583959098655</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.52016545682552</v>
+        <v>-3.507350712205389</v>
       </c>
       <c r="G222">
-        <v>-0.1090116881330792</v>
+        <v>-0.1008713047202843</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.522338697358049</v>
+        <v>-3.518745964433648</v>
       </c>
       <c r="G223">
-        <v>-0.1450466722738128</v>
+        <v>-0.1414539393494119</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.501336308094772</v>
+        <v>-3.498275713185465</v>
       </c>
       <c r="G224">
-        <v>-0.1510669254402854</v>
+        <v>-0.1501710705020982</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.466689550857282</v>
+        <v>-3.468873893651558</v>
       </c>
       <c r="G225">
-        <v>-0.1458764667773202</v>
+        <v>-0.1499566333690594</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.436158025600783</v>
+        <v>-3.43550841394027</v>
       </c>
       <c r="G226">
-        <v>-0.1446006854341173</v>
+        <v>-0.145778536058639</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.392145240998148</v>
+        <v>-3.391970087453571</v>
       </c>
       <c r="G227">
-        <v>-0.1296591024614706</v>
+        <v>-0.1314275919728085</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.334709462788865</v>
+        <v>-3.338169699458214</v>
       </c>
       <c r="G228">
-        <v>-0.1033543497089705</v>
+        <v>-0.1068145863783195</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.266840581985131</v>
+        <v>-3.267726209794356</v>
       </c>
       <c r="G229">
-        <v>-0.06377977497289722</v>
+        <v>-0.06555847911533075</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.172980348278157</v>
+        <v>-3.172980348278067</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>9.059419880941277e-14</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-3.527393892060999</v>
+        <v>-3.527393892061264</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>-2.655653474903374e-13</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.555924614130802</v>
+        <v>-3.551675971281013</v>
       </c>
       <c r="G232">
-        <v>-0.0581043174706477</v>
+        <v>-0.05385567462085916</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.570234799344144</v>
+        <v>-3.571957310278685</v>
       </c>
       <c r="G233">
-        <v>-0.1004786325474658</v>
+        <v>-0.1037106090193753</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.567408547453444</v>
+        <v>-3.567990691946407</v>
       </c>
       <c r="G234">
-        <v>-0.1287354415949791</v>
+        <v>-0.1293175860879416</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.547010960203928</v>
+        <v>-3.548666435387186</v>
       </c>
       <c r="G235">
-        <v>-0.1351066606829523</v>
+        <v>-0.1395669249295652</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.510419640706294</v>
+        <v>-3.512398639762789</v>
       </c>
       <c r="G236">
-        <v>-0.1308937256495168</v>
+        <v>-0.132872724706012</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.473109938417339</v>
+        <v>-3.476193065536933</v>
       </c>
       <c r="G237">
-        <v>-0.1214431680478998</v>
+        <v>-0.1262407458810011</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.437297633228867</v>
+        <v>-3.439484410252847</v>
       </c>
       <c r="G238">
-        <v>-0.1162333887766265</v>
+        <v>-0.1191056859977591</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.386051919815041</v>
+        <v>-3.387864544999231</v>
       </c>
       <c r="G239">
-        <v>-0.0935170618860931</v>
+        <v>-0.0970594161449877</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.319441265190533</v>
+        <v>-3.321652931661475</v>
       </c>
       <c r="G240">
-        <v>-0.05814913711430819</v>
+        <v>-0.06042139820807707</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.231129838134682</v>
+        <v>-3.231129838134792</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>-1.101341240428155e-13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-3.571265520823145</v>
+        <v>-3.571265520823244</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>-9.85878045867139e-14</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.595839157584085</v>
+        <v>-3.592659948671205</v>
       </c>
       <c r="G243">
-        <v>-0.05150583012554177</v>
+        <v>-0.05129181737525279</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.605193757262108</v>
+        <v>-3.606907088758181</v>
       </c>
       <c r="G244">
-        <v>-0.08785514156629892</v>
+        <v>-0.09543634698942283</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.599160473189462</v>
+        <v>-3.603220541281542</v>
       </c>
       <c r="G245">
-        <v>-0.1163204703699021</v>
+        <v>-0.1216471890399768</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.579742763080273</v>
+        <v>-3.582074659229234</v>
       </c>
       <c r="G246">
-        <v>-0.125231498898597</v>
+        <v>-0.1307236681401576</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.550942667354255</v>
+        <v>-3.546587731327653</v>
       </c>
       <c r="G247">
-        <v>-0.1251247162163853</v>
+        <v>-0.1251341297657707</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.510485666620935</v>
+        <v>-3.520593453777136</v>
       </c>
       <c r="G248">
-        <v>-0.1189294545862463</v>
+        <v>-0.129037241742447</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.464799314036361</v>
+        <v>-3.466551318208257</v>
       </c>
       <c r="G249">
-        <v>-0.1026869833190476</v>
+        <v>-0.1052174673260573</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.418080543350204</v>
+        <v>-3.420887665618078</v>
       </c>
       <c r="G250">
-        <v>-0.08546583702477806</v>
+        <v>-0.08945120426307129</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.355526297778042</v>
+        <v>-3.357172011968356</v>
       </c>
       <c r="G251">
-        <v>-0.05307173383244884</v>
+        <v>-0.05563294014054304</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.271316710675324</v>
+        <v>-3.27131671067524</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>8.393286066166183e-14</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-3.603377606898737</v>
+        <v>-3.603377606899421</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>-6.843414723789465e-13</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.623795445878173</v>
+        <v>-3.623617825090756</v>
       </c>
       <c r="G254">
-        <v>-0.05011988700667658</v>
+        <v>-0.05039786500639343</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.630586439925739</v>
+        <v>-3.633258113504902</v>
       </c>
       <c r="G255">
-        <v>-0.08690015677713392</v>
+        <v>-0.09040968425487517</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.626117775422681</v>
+        <v>-3.629873429071988</v>
       </c>
       <c r="G256">
-        <v>-0.1116016889635363</v>
+        <v>-0.1171826466363353</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.605069584442461</v>
+        <v>-3.612671689548028</v>
       </c>
       <c r="G257">
-        <v>-0.1209381197960622</v>
+        <v>-0.1303524379467107</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.572510953863295</v>
+        <v>-3.575317097223054</v>
       </c>
       <c r="G258">
-        <v>-0.1195985142405087</v>
+        <v>-0.123155492436112</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.535319421029803</v>
+        <v>-3.54524694449716</v>
       </c>
       <c r="G259">
-        <v>-0.1103936207961647</v>
+        <v>-0.1234568705445527</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.491276014317601</v>
+        <v>-3.501200653276681</v>
       </c>
       <c r="G260">
-        <v>-0.09964358717936905</v>
+        <v>-0.1095682261384483</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.440989717890946</v>
+        <v>-3.444431494671387</v>
       </c>
       <c r="G261">
-        <v>-0.07903635711719581</v>
+        <v>-0.08317059836748941</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.381580888813393</v>
+        <v>-3.38325582570266</v>
       </c>
       <c r="G262">
-        <v>-0.05041828924502179</v>
+        <v>-0.05215257621313762</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.300731718655187</v>
+        <v>-3.300731718655721</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-5.333511410299252e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-3.627890951663662</v>
+        <v>-3.627890951664432</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-7.696066006701585e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.646485980456314</v>
+        <v>-3.644427328153354</v>
       </c>
       <c r="G265">
-        <v>-0.0489618125206186</v>
+        <v>-0.04690316021765906</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.652131850056011</v>
+        <v>-3.654580737354665</v>
       </c>
       <c r="G266">
-        <v>-0.08435623202178721</v>
+        <v>-0.08757148379926871</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.643833658955448</v>
+        <v>-3.647060345985796</v>
       </c>
       <c r="G267">
-        <v>-0.1055513186082511</v>
+        <v>-0.1105660068106982</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.623266363214887</v>
+        <v>-3.629549897372379</v>
       </c>
       <c r="G268">
-        <v>-0.117138807767756</v>
+        <v>-0.1234223419252478</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.59505612576138</v>
+        <v>-3.602962149533571</v>
       </c>
       <c r="G269">
-        <v>-0.1174162388276241</v>
+        <v>-0.1273495084667393</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.555776309887143</v>
+        <v>-3.566889282340646</v>
       </c>
       <c r="G270">
-        <v>-0.1106785832006099</v>
+        <v>-0.1217915556541127</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.510501263781707</v>
+        <v>-3.521198524941414</v>
       </c>
       <c r="G271">
-        <v>-0.09577032082314152</v>
+        <v>-0.1064675819828482</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.459647953730375</v>
+        <v>-3.459982982933077</v>
       </c>
       <c r="G272">
-        <v>-0.07543192515210806</v>
+        <v>-0.07576695435480985</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401519110358363</v>
+        <v>-3.40334027307315</v>
       </c>
       <c r="G273">
-        <v>-0.04748936637145251</v>
+        <v>-0.049639158875182</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.32318619981767</v>
+        <v>-3.323186199818896</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-1.226574397605873e-12</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-3.647213383461576</v>
+        <v>-3.647213383462762</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-1.186162279509517e-12</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.664996835120907</v>
+        <v>-3.662973424226552</v>
       </c>
       <c r="G276">
-        <v>-0.04685244867077065</v>
+        <v>-0.04629670967800825</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.668393137173358</v>
+        <v>-3.672248448720415</v>
       </c>
       <c r="G277">
-        <v>-0.08143887914602077</v>
+        <v>-0.08621517465452966</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.660284142475105</v>
+        <v>-3.665834673807755</v>
       </c>
       <c r="G278">
-        <v>-0.1042870909592017</v>
+        <v>-0.1104448402245279</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.641377258455318</v>
+        <v>-3.644090540455329</v>
       </c>
       <c r="G279">
-        <v>-0.1166308653547494</v>
+        <v>-0.1193441473547603</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.612097768456824</v>
+        <v>-3.614782794537311</v>
       </c>
       <c r="G280">
-        <v>-0.115655615996485</v>
+        <v>-0.1206798419193997</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.572005083913143</v>
+        <v>-3.581586780979216</v>
       </c>
       <c r="G281">
-        <v>-0.10854557177789</v>
+        <v>-0.1181272688439636</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.527279621294157</v>
+        <v>-3.537765677413244</v>
       </c>
       <c r="G282">
-        <v>-0.09418538145654898</v>
+        <v>-0.1049496057606492</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.475337995401925</v>
+        <v>-3.481847594389102</v>
       </c>
       <c r="G283">
-        <v>-0.07206455394067046</v>
+        <v>-0.07967496321916523</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.417374340261562</v>
+        <v>-3.419398775607168</v>
       </c>
       <c r="G284">
-        <v>-0.04570605286432927</v>
+        <v>-0.04786958491989013</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.34088575020462</v>
+        <v>-3.340885750205778</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-1.158184659288963e-12</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-3.662833852363239</v>
+        <v>-3.662833852362676</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>5.622169396701793e-13</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.678638320821626</v>
+        <v>-3.679078685106174</v>
       </c>
       <c r="G287">
-        <v>-0.04656048003358926</v>
+        <v>-0.04700084431813778</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.681884770620186</v>
+        <v>-3.685259168452632</v>
       </c>
       <c r="G288">
-        <v>-0.07814598663099437</v>
+        <v>-0.08393733923979818</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.673673339140208</v>
+        <v>-3.677997001202709</v>
       </c>
       <c r="G289">
-        <v>-0.1031075215025772</v>
+        <v>-0.1074311835650774</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.653439106891641</v>
+        <v>-3.657657302504941</v>
       </c>
       <c r="G290">
-        <v>-0.112868219358309</v>
+        <v>-0.1178474964425131</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.623624863563881</v>
+        <v>-3.630470556994842</v>
       </c>
       <c r="G291">
-        <v>-0.1127749030786571</v>
+        <v>-0.1214167625076161</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.585404907274219</v>
+        <v>-3.594341529568034</v>
       </c>
       <c r="G292">
-        <v>-0.1063788731871684</v>
+        <v>-0.1160437466560114</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.541690990810394</v>
+        <v>-3.549560516242809</v>
       </c>
       <c r="G293">
-        <v>-0.0932750883259843</v>
+        <v>-0.1020187449059884</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.489218323467699</v>
+        <v>-3.495335159709752</v>
       </c>
       <c r="G294">
-        <v>-0.07147307847699425</v>
+        <v>-0.07854939994813381</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.430382541472519</v>
+        <v>-3.432131339368548</v>
       </c>
       <c r="G295">
-        <v>-0.04435279328610381</v>
+        <v>-0.0461015911821327</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.355194263713085</v>
+        <v>-3.355194263712564</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>5.209166431541234e-13</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7223,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>-3.675722137244145</v>
+        <v>-3.675722137241923</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>2.221778316879863e-12</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.690094130927622</v>
+        <v>-3.691895489621121</v>
       </c>
       <c r="G298">
-        <v>-0.04501977451646422</v>
+        <v>-0.04702733844603246</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.692741664297564</v>
+        <v>-3.696334351400109</v>
       </c>
       <c r="G299">
-        <v>-0.07872749919153099</v>
+        <v>-0.08232018629407589</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.683957707623259</v>
+        <v>-3.68654261497553</v>
       </c>
       <c r="G300">
-        <v>-0.1007975285862814</v>
+        <v>-0.1033824359385527</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.664699951961719</v>
+        <v>-3.672654069720262</v>
       </c>
       <c r="G301">
-        <v>-0.1123074068731142</v>
+        <v>-0.1204086129453903</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.635952102504016</v>
+        <v>-3.640517740557447</v>
       </c>
       <c r="G302">
-        <v>-0.1145606317981995</v>
+        <v>-0.1191262698516313</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.596419169444265</v>
+        <v>-3.604394387497636</v>
       </c>
       <c r="G303">
-        <v>-0.1056275865711904</v>
+        <v>-0.113856902860876</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.552571945493221</v>
+        <v>-3.561121733105126</v>
       </c>
       <c r="G304">
-        <v>-0.09254141344726619</v>
+        <v>-0.1014989707304712</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.499994320411566</v>
+        <v>-3.505876808388945</v>
       </c>
       <c r="G305">
-        <v>-0.07095671801662418</v>
+        <v>-0.07710803208334571</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.441003993149673</v>
+        <v>-3.442481607037319</v>
       </c>
       <c r="G306">
-        <v>-0.04272782635678091</v>
+        <v>-0.04456681680077595</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7453,10 +7453,10 @@
         <v>5083</v>
       </c>
       <c r="F307">
-        <v>-3.367000067974438</v>
+        <v>-3.367000067972194</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>2.243982777372366e-12</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>-3.686536787815441</v>
+        <v>-3.686536787814132</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>1.309174990637985e-12</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.699838412991125</v>
+        <v>-3.700964409548612</v>
       </c>
       <c r="G309">
-        <v>-0.04416874621654188</v>
+        <v>-0.04536693390456925</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.702274195230968</v>
+        <v>-3.705400130113413</v>
       </c>
       <c r="G310">
-        <v>-0.07715273209053075</v>
+        <v>-0.08078941957354679</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692996937933436</v>
+        <v>-3.697316732633918</v>
       </c>
       <c r="G311">
-        <v>-0.09853991288976438</v>
+        <v>-0.1036453342654502</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.674441535165363</v>
+        <v>-3.67877110592794</v>
       </c>
       <c r="G312">
-        <v>-0.1106877231615777</v>
+        <v>-0.1160864726636475</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.645232644366574</v>
+        <v>-3.650195016453179</v>
       </c>
       <c r="G313">
-        <v>-0.1110448097857557</v>
+        <v>-0.1184496953602856</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.606235431121595</v>
+        <v>-3.614445073642329</v>
       </c>
       <c r="G314">
-        <v>-0.1051762362785627</v>
+        <v>-0.1136865176536119</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.562094213585553</v>
+        <v>-3.568729771328498</v>
       </c>
       <c r="G315">
-        <v>-0.09205487378901722</v>
+        <v>-0.09891052751117924</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.509447427939822</v>
+        <v>-3.514180348722588</v>
       </c>
       <c r="G316">
-        <v>-0.07061494922667855</v>
+        <v>-0.07534787000944521</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.449832468190515</v>
+        <v>-3.451343362035205</v>
       </c>
       <c r="G317">
-        <v>-0.04193930164877058</v>
+        <v>-0.04345019549346008</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7706,10 +7706,10 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.376906401437568</v>
+        <v>-3.376906401434639</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>2.929212428171013e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.276209730945528</v>
+        <v>-3.277824909636527</v>
       </c>
       <c r="G42">
         <v>-0.217501836618051</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.261348125031535</v>
+        <v>-3.264578482413532</v>
       </c>
       <c r="G44">
         <v>-0.2123682685332557</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.388307426084731</v>
+        <v>-3.390595810694861</v>
       </c>
       <c r="G77">
         <v>-0.03382827540012912</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.391320276804987</v>
+        <v>-3.395897046025251</v>
       </c>
       <c r="G78">
         <v>-0.03876322279203981</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.394333127525246</v>
+        <v>-3.401198281355641</v>
       </c>
       <c r="G79">
         <v>-0.0436981701839545</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.399634362855637</v>
+        <v>-3.4042111320759</v>
       </c>
       <c r="G80">
         <v>-0.05092150218599922</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.40696160083372</v>
+        <v>-3.407773900531315</v>
       </c>
       <c r="G82">
         <v>-0.06209293350739253</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.40782963547266</v>
+        <v>-3.418170482928532</v>
       </c>
       <c r="G86">
         <v>-0.07064935483295143</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.411944326615189</v>
+        <v>-3.418346864881844</v>
       </c>
       <c r="G88">
         <v>-0.07860823931879102</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.408868031290262</v>
+        <v>-3.421704276489743</v>
       </c>
       <c r="G90">
         <v>-0.07937613733717397</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.420597490113632</v>
+        <v>-3.423570575598762</v>
       </c>
       <c r="G92">
         <v>-0.09494978950385358</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.421526532423054</v>
+        <v>-3.425960037216139</v>
       </c>
       <c r="G95">
         <v>-0.1016451218282399</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.423210113405232</v>
+        <v>-3.426195885826549</v>
       </c>
       <c r="G97">
         <v>-0.1071728961537284</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.428786964753752</v>
+        <v>-3.431146001170415</v>
       </c>
       <c r="G111">
         <v>-0.1396591009054164</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.495902629476959</v>
+        <v>-3.498283167951017</v>
       </c>
       <c r="G221">
         <v>-0.06023583959098655</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.43550841394027</v>
+        <v>-3.439504810359772</v>
       </c>
       <c r="G226">
         <v>-0.145778536058639</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.391970087453571</v>
+        <v>-3.392691549231719</v>
       </c>
       <c r="G227">
         <v>-0.1314275919728085</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.551675971281013</v>
+        <v>-3.553033578297499</v>
       </c>
       <c r="G232">
         <v>-0.05385567462085916</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.512398639762789</v>
+        <v>-3.526985723657118</v>
       </c>
       <c r="G236">
         <v>-0.132872724706012</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.476193065536933</v>
+        <v>-3.486616442265972</v>
       </c>
       <c r="G237">
         <v>-0.1262407458810011</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.439484410252847</v>
+        <v>-3.442056213004732</v>
       </c>
       <c r="G238">
         <v>-0.1191056859977591</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.546587731327653</v>
+        <v>-3.558364539587318</v>
       </c>
       <c r="G247">
         <v>-0.1251341297657707</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.520593453777136</v>
+        <v>-3.520622383042409</v>
       </c>
       <c r="G248">
         <v>-0.129037241742447</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.466551318208257</v>
+        <v>-3.475548510454801</v>
       </c>
       <c r="G249">
         <v>-0.1052174673260573</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.420887665618078</v>
+        <v>-3.42134246639517</v>
       </c>
       <c r="G250">
         <v>-0.08945120426307129</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.575317097223054</v>
+        <v>-3.58526848466293</v>
       </c>
       <c r="G258">
         <v>-0.123155492436112</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.54524694449716</v>
+        <v>-3.54659826514924</v>
       </c>
       <c r="G259">
         <v>-0.1234568705445527</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.501200653276681</v>
+        <v>-3.503222331293208</v>
       </c>
       <c r="G260">
         <v>-0.1095682261384483</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.444431494671387</v>
+        <v>-3.446778389831029</v>
       </c>
       <c r="G261">
         <v>-0.08317059836748941</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.521198524941414</v>
+        <v>-3.522473712415544</v>
       </c>
       <c r="G271">
         <v>-0.1064675819828482</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.459982982933077</v>
+        <v>-3.466337653890096</v>
       </c>
       <c r="G272">
         <v>-0.07576695435480985</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.644090540455329</v>
+        <v>-3.644693283465606</v>
       </c>
       <c r="G279">
         <v>-0.1193441473547603</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.614782794537311</v>
+        <v>-3.61813378094851</v>
       </c>
       <c r="G280">
         <v>-0.1206798419193997</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.581586780979216</v>
+        <v>-3.582381762964387</v>
       </c>
       <c r="G281">
         <v>-0.1181272688439636</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.481847594389102</v>
+        <v>-3.482533605460424</v>
       </c>
       <c r="G283">
         <v>-0.07967496321916523</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.630470556994842</v>
+        <v>-3.630935139606545</v>
       </c>
       <c r="G291">
         <v>-0.1214167625076161</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.594341529568034</v>
+        <v>-3.594954077589367</v>
       </c>
       <c r="G292">
         <v>-0.1160437466560114</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.549560516242809</v>
+        <v>-3.54967702283694</v>
       </c>
       <c r="G293">
         <v>-0.1020187449059884</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.640517740557447</v>
+        <v>-3.641176652160747</v>
       </c>
       <c r="G302">
         <v>-0.1191262698516313</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.604394387497636</v>
+        <v>-3.605603659735721</v>
       </c>
       <c r="G303">
         <v>-0.113856902860876</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.568729771328498</v>
+        <v>-3.56920997727532</v>
       </c>
       <c r="G315">
         <v>-0.09891052751117924</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.514180348722588</v>
+        <v>-3.515458637360898</v>
       </c>
       <c r="G316">
         <v>-0.07534787000944521</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.417269950928371</v>
+        <v>-3.422088710530863</v>
       </c>
       <c r="G91">
         <v>-0.08970015364693751</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.475548510454801</v>
+        <v>-3.476238937290412</v>
       </c>
       <c r="G249">
         <v>-0.1052174673260573</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.54967702283694</v>
+        <v>-3.550210916809982</v>
       </c>
       <c r="G293">
         <v>-0.1020187449059884</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.495335159709752</v>
+        <v>-3.495428998774869</v>
       </c>
       <c r="G294">
         <v>-0.07854939994813381</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.56920997727532</v>
+        <v>-3.56927547816658</v>
       </c>
       <c r="G315">
         <v>-0.09891052751117924</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.779917079680688</v>
       </c>
       <c r="G2">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.953877771587799</v>
       </c>
       <c r="G3">
-        <v>-0.1919209880003425</v>
+        <v>-0.1919209880003434</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.939650525928666</v>
       </c>
       <c r="G4">
-        <v>-0.1956540384344421</v>
+        <v>-0.195654038434443</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.911196034610398</v>
       </c>
       <c r="G6">
-        <v>-0.2031201393026407</v>
+        <v>-0.2031201393026409</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.889078202510948</v>
       </c>
       <c r="G7">
-        <v>-0.1989626032964222</v>
+        <v>-0.1989626032964227</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.859069783971179</v>
       </c>
       <c r="G8">
-        <v>-0.1869144808498873</v>
+        <v>-0.1869144808498875</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.82906136543141</v>
       </c>
       <c r="G9">
-        <v>-0.1748663584033503</v>
+        <v>-0.1748663584033505</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.753263355471237</v>
       </c>
       <c r="G11">
-        <v>-0.1349889406296436</v>
+        <v>-0.1349889406296435</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.707473764050832</v>
       </c>
       <c r="G12">
-        <v>-0.1071596453024714</v>
+        <v>-0.1071596453024711</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.653793586190109</v>
       </c>
       <c r="G13">
-        <v>-0.07143976353498105</v>
+        <v>-0.07143976353498077</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.600113408329386</v>
       </c>
       <c r="G14">
-        <v>-0.03571988176749069</v>
+        <v>-0.03571988176749033</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.546433230468663</v>
       </c>
       <c r="G15">
-        <v>-4.440892098500626e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-3.185172386107042</v>
       </c>
       <c r="G16">
-        <v>1.154631945610163e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-3.19934114235372</v>
       </c>
       <c r="G17">
-        <v>-0.01903277516126511</v>
+        <v>-0.01903277516127622</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-3.213509898600397</v>
       </c>
       <c r="G18">
-        <v>-0.03806555032254089</v>
+        <v>-0.03806555032255154</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-3.227678654847073</v>
       </c>
       <c r="G19">
-        <v>-0.05709832548381577</v>
+        <v>-0.05709832548382598</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.24052862321496</v>
+        <v>-3.240528623214959</v>
       </c>
       <c r="G20">
-        <v>-0.07481231276630318</v>
+        <v>-0.07481231276631162</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.252059803704062</v>
+        <v>-3.25205980370406</v>
       </c>
       <c r="G21">
-        <v>-0.09120751217000356</v>
+        <v>-0.09120751217001066</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.263590984193161</v>
+        <v>-3.262272196314375</v>
       </c>
       <c r="G22">
-        <v>-0.1076027115737013</v>
+        <v>-0.1062839236949245</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.273803376803474</v>
+        <v>-3.264747273224447</v>
       </c>
       <c r="G23">
-        <v>-0.1226791230986137</v>
+        <v>-0.1136230195195953</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.282696981534998</v>
+        <v>-3.264584774376946</v>
       </c>
       <c r="G24">
-        <v>-0.1364367467447374</v>
+        <v>-0.118324539586693</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.292909374145309</v>
+        <v>-3.276115954866046</v>
       </c>
       <c r="G25">
-        <v>-0.1515131582696472</v>
+        <v>-0.1347197389903911</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.292746875297809</v>
+        <v>-3.273019489448758</v>
       </c>
       <c r="G26">
-        <v>-0.1562146783367466</v>
+        <v>-0.1364872924877023</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.2924361810442</v>
+        <v>-3.292584376450307</v>
       </c>
       <c r="G27">
-        <v>-0.1607680029977359</v>
+        <v>-0.1609161984038496</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.307748313597179</v>
+        <v>-3.284239975684252</v>
       </c>
       <c r="G28">
-        <v>-0.1809441544653136</v>
+        <v>-0.1574358165523928</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.313856147165021</v>
+        <v>-3.282610493551857</v>
       </c>
       <c r="G29">
-        <v>-0.1919160069477548</v>
+        <v>-0.1606703533345972</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.31207846962652</v>
+        <v>-3.291355902877278</v>
       </c>
       <c r="G30">
-        <v>-0.1950023483238539</v>
+        <v>-0.1742797815746169</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.31030079208802</v>
+        <v>-3.297463736445119</v>
       </c>
       <c r="G31">
-        <v>-0.198088689699953</v>
+        <v>-0.1852516340570558</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.308523114549521</v>
+        <v>-3.277459126598211</v>
       </c>
       <c r="G32">
-        <v>-0.2011750310760525</v>
+        <v>-0.1701110431247477</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.30674543701102</v>
+        <v>-3.275203392585647</v>
       </c>
       <c r="G33">
-        <v>-0.2042613724521511</v>
+        <v>-0.1727193280267825</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.303352580781522</v>
+        <v>-3.290367329732516</v>
       </c>
       <c r="G34">
-        <v>-0.2057325351372525</v>
+        <v>-0.1927472840882496</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.303190081934019</v>
+        <v>-3.280407750275464</v>
       </c>
       <c r="G35">
-        <v>-0.210434055204348</v>
+        <v>-0.187651723545796</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.299797225704521</v>
+        <v>-3.274558983950237</v>
       </c>
       <c r="G36">
-        <v>-0.2119052178894489</v>
+        <v>-0.1866669761351676</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.296404369475023</v>
+        <v>-3.280485151856232</v>
       </c>
       <c r="G37">
-        <v>-0.213376380574551</v>
+        <v>-0.197457162955762</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.293011513245526</v>
+        <v>-3.284829611326971</v>
       </c>
       <c r="G38">
-        <v>-0.2148475432596528</v>
+        <v>-0.206665641341099</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.291233835707021</v>
+        <v>-3.275644479156193</v>
       </c>
       <c r="G39">
-        <v>-0.2179338846357466</v>
+        <v>-0.2023445280849203</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.282995443404524</v>
+        <v>-3.267930665126892</v>
       </c>
       <c r="G40">
-        <v>-0.2145595112478484</v>
+        <v>-0.1994947329702168</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.282832944557027</v>
+        <v>-3.272195132542749</v>
       </c>
       <c r="G41">
-        <v>-0.2192610313149508</v>
+        <v>-0.2086232193006734</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.277824909636527</v>
+        <v>-3.26277989367821</v>
       </c>
       <c r="G42">
-        <v>-0.217501836618051</v>
+        <v>-0.2040719993507329</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.272816874716034</v>
+        <v>-3.265284485577213</v>
       </c>
       <c r="G43">
-        <v>-0.2189729993031562</v>
+        <v>-0.2114406101643347</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.264578482413532</v>
+        <v>-3.235563623451962</v>
       </c>
       <c r="G44">
-        <v>-0.2123682685332557</v>
+        <v>-0.1865837669536827</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.262800804875038</v>
+        <v>-3.24196784783202</v>
       </c>
       <c r="G45">
-        <v>-0.2186849672913584</v>
+        <v>-0.1978520102483388</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.256177591263543</v>
+        <v>-3.252947233881537</v>
       </c>
       <c r="G46">
-        <v>-0.2169257725944624</v>
+        <v>-0.2136954152124546</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.249554377652047</v>
+        <v>-3.25116955634304</v>
       </c>
       <c r="G47">
-        <v>-0.2151665778975651</v>
+        <v>-0.2167817565885564</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.244546342731546</v>
+        <v>-3.234601066715888</v>
       </c>
       <c r="G48">
-        <v>-0.2150225618916641</v>
+        <v>-0.2050772858760024</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.234692771738048</v>
+        <v>-3.220320529459034</v>
       </c>
       <c r="G49">
-        <v>-0.2100330098127652</v>
+        <v>-0.1956607675337472</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.231299915508554</v>
+        <v>-3.212629976329304</v>
       </c>
       <c r="G50">
-        <v>-0.2115041724978699</v>
+        <v>-0.1928342333186159</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.223061523206055</v>
+        <v>-3.207746875915346</v>
       </c>
       <c r="G51">
-        <v>-0.2081297991099695</v>
+        <v>-0.1928151518192571</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.214823130903563</v>
+        <v>-3.198018239428391</v>
       </c>
       <c r="G52">
-        <v>-0.2047554257220767</v>
+        <v>-0.1879505342469003</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.206584738601067</v>
+        <v>-3.183487833158457</v>
       </c>
       <c r="G53">
-        <v>-0.2013810523341799</v>
+        <v>-0.1782841468915655</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.198346346298576</v>
+        <v>-3.172836553979123</v>
       </c>
       <c r="G54">
-        <v>-0.1980066789462877</v>
+        <v>-0.1724968866268296</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.190107953996078</v>
+        <v>-3.165146000849397</v>
       </c>
       <c r="G55">
-        <v>-0.1946323055583897</v>
+        <v>-0.1696703524117029</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.181869561693581</v>
+        <v>-3.164564932192254</v>
       </c>
       <c r="G56">
-        <v>-0.1912579321704915</v>
+        <v>-0.1739533026691575</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>-3.173631169391087</v>
       </c>
       <c r="G57">
-        <v>-0.1878835587825963</v>
+        <v>-0.1878835587825899</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.165392777088593</v>
+        <v>-3.15990026030018</v>
       </c>
       <c r="G58">
-        <v>-0.1845091853947015</v>
+        <v>-0.1790166686062822</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.151661867997684</v>
+        <v>-3.111407575743012</v>
       </c>
       <c r="G59">
-        <v>-0.1756422952183918</v>
+        <v>-0.1353880029637126</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.13216099114822</v>
+        <v>-3.118608765237768</v>
       </c>
       <c r="G60">
-        <v>-0.1610054372835266</v>
+        <v>-0.1474532113730672</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.112660114298756</v>
+        <v>-3.091325630236408</v>
       </c>
       <c r="G61">
-        <v>-0.1463685793486623</v>
+        <v>-0.1250340952863054</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1821,7 +1821,7 @@
         <v>-3.093159237449292</v>
       </c>
       <c r="G62">
-        <v>-0.1317317214137973</v>
+        <v>-0.1317317214137881</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1844,7 +1844,7 @@
         <v>-3.073658360599827</v>
       </c>
       <c r="G63">
-        <v>-0.1170948634789316</v>
+        <v>-0.1170948634789222</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.054157483750364</v>
+        <v>-3.054157483750363</v>
       </c>
       <c r="G64">
-        <v>-0.1024580055440669</v>
+        <v>-0.1024580055440568</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1890,7 +1890,7 @@
         <v>-3.0346566069009</v>
       </c>
       <c r="G65">
-        <v>-0.08782114760920218</v>
+        <v>-0.08782114760919185</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>-3.015155730051436</v>
       </c>
       <c r="G66">
-        <v>-0.07318428967433788</v>
+        <v>-0.07318428967432694</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.995654853201971</v>
+        <v>-2.995654853201972</v>
       </c>
       <c r="G67">
-        <v>-0.0585474317394718</v>
+        <v>-0.05854743173946153</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-2.976153976352508</v>
       </c>
       <c r="G68">
-        <v>-0.04391057380460753</v>
+        <v>-0.04391057380459615</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-2.956653099503044</v>
       </c>
       <c r="G69">
-        <v>-0.02927371586974323</v>
+        <v>-0.02927371586973121</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-2.93715222265358</v>
       </c>
       <c r="G70">
-        <v>-0.01463685793487761</v>
+        <v>-0.01463685793486538</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-2.917651345804116</v>
       </c>
       <c r="G71">
-        <v>-1.287858708565182e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-3.364089634042915</v>
       </c>
       <c r="G72">
-        <v>-3.774758283725532e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-3.369390869373304</v>
       </c>
       <c r="G73">
-        <v>-0.007223332002082028</v>
+        <v>-0.007223332002045169</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-3.374692104703694</v>
       </c>
       <c r="G74">
-        <v>-0.01444666400412675</v>
+        <v>-0.01444666400409034</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-3.379993340034083</v>
       </c>
       <c r="G75">
-        <v>-0.02166999600617103</v>
+        <v>-0.02166999600613462</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-3.385294575364472</v>
+        <v>-3.385294575364471</v>
       </c>
       <c r="G76">
-        <v>-0.02889332800821487</v>
+        <v>-0.02889332800817801</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-3.390595810694861</v>
+        <v>-3.390595810694862</v>
       </c>
       <c r="G77">
-        <v>-0.03382827540012912</v>
+        <v>-0.03611666001022451</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.395897046025251</v>
+        <v>-3.39360866141512</v>
       </c>
       <c r="G78">
-        <v>-0.03876322279203981</v>
+        <v>-0.04105160740213831</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.401198281355641</v>
+        <v>-3.396621512135378</v>
       </c>
       <c r="G79">
-        <v>-0.0436981701839545</v>
+        <v>-0.04598655479405123</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.4042111320759</v>
+        <v>-3.397405185604766</v>
       </c>
       <c r="G80">
-        <v>-0.05092150218599922</v>
+        <v>-0.04869232493509434</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.404935598186025</v>
+        <v>-3.397142803642334</v>
       </c>
       <c r="G81">
-        <v>-0.05814483418804217</v>
+        <v>-0.05035203964431822</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.407773900531315</v>
+        <v>-3.399474310650958</v>
       </c>
       <c r="G82">
-        <v>-0.06209293350739253</v>
+        <v>-0.05460564332459761</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.410033658913241</v>
+        <v>-3.403806256405465</v>
       </c>
       <c r="G83">
-        <v>-0.06708708825856746</v>
+        <v>-0.06085968575075995</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.406496044268115</v>
+        <v>-3.401314697192162</v>
       </c>
       <c r="G84">
-        <v>-0.06547157028509742</v>
+        <v>-0.06029022320911182</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.414085664208634</v>
+        <v>-3.405296837488303</v>
       </c>
       <c r="G85">
-        <v>-0.0749832868972713</v>
+        <v>-0.06619446017690844</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.418170482928532</v>
+        <v>-3.40525483995972</v>
       </c>
       <c r="G86">
-        <v>-0.07064935483295143</v>
+        <v>-0.06807455931998119</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.421353694827458</v>
+        <v>-3.408366181907438</v>
       </c>
       <c r="G87">
-        <v>-0.08609551085940481</v>
+        <v>-0.07310799793935363</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.418346864881844</v>
+        <v>-3.409800269291398</v>
       </c>
       <c r="G88">
-        <v>-0.07860823931879102</v>
+        <v>-0.07646418199496985</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.423669946908266</v>
+        <v>-3.412440345466223</v>
       </c>
       <c r="G89">
-        <v>-0.09225595628352323</v>
+        <v>-0.08102635484145049</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.421704276489743</v>
+        <v>-3.410546822716839</v>
       </c>
       <c r="G90">
-        <v>-0.07937613733717397</v>
+        <v>-0.08105492876372189</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.422088710530863</v>
+        <v>-3.413935113745363</v>
       </c>
       <c r="G91">
-        <v>-0.08970015364693751</v>
+        <v>-0.08636531646390067</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.423570575598762</v>
+        <v>-3.416350744619417</v>
       </c>
       <c r="G92">
-        <v>-0.09494978950385358</v>
+        <v>-0.09070304400961016</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.43238579625385</v>
+        <v>-3.417806978860181</v>
       </c>
       <c r="G93">
-        <v>-0.1086601923157255</v>
+        <v>-0.09408137492202906</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.432182621650675</v>
+        <v>-3.415344689247962</v>
       </c>
       <c r="G94">
-        <v>-0.1103791143842061</v>
+        <v>-0.09354118198146644</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.425960037216139</v>
+        <v>-3.415710977408489</v>
       </c>
       <c r="G95">
-        <v>-0.1016451218282399</v>
+        <v>-0.09582956681364774</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.435239712155592</v>
+        <v>-3.413564639316197</v>
       </c>
       <c r="G96">
-        <v>-0.1172803982324333</v>
+        <v>-0.09560532539301203</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.426195885826549</v>
+        <v>-3.410438799754238</v>
       </c>
       <c r="G97">
-        <v>-0.1071728961537284</v>
+        <v>-0.09440158250270869</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.442103318186831</v>
+        <v>-3.418807286627585</v>
       </c>
       <c r="G98">
-        <v>-0.1279881976069812</v>
+        <v>-0.1046921660477111</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.427300289075327</v>
+        <v>-3.415374993118528</v>
       </c>
       <c r="G99">
-        <v>-0.1151072651671328</v>
+        <v>-0.1031819692103086</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.442211433893984</v>
+        <v>-3.414545491074009</v>
       </c>
       <c r="G100">
-        <v>-0.1319405066574446</v>
+        <v>-0.1042745638374463</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.436900619797338</v>
+        <v>-3.422334994390213</v>
       </c>
       <c r="G101">
-        <v>-0.1285517892324535</v>
+        <v>-0.1139861638253046</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.432553743406612</v>
+        <v>-3.422712628349404</v>
       </c>
       <c r="G102">
-        <v>-0.1261270095133824</v>
+        <v>-0.1162858944561518</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.44159422018615</v>
+        <v>-3.408944034273981</v>
       </c>
       <c r="G103">
-        <v>-0.1370895829645753</v>
+        <v>-0.104439397052384</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.439442577511375</v>
+        <v>-3.420731120731271</v>
       </c>
       <c r="G104">
-        <v>-0.1368600369614552</v>
+        <v>-0.1181485801813293</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.444054404313601</v>
+        <v>-3.417537609820985</v>
       </c>
       <c r="G105">
-        <v>-0.1433939604353363</v>
+        <v>-0.1168771659426984</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.443256639876237</v>
+        <v>-3.423897701148473</v>
       </c>
       <c r="G106">
-        <v>-0.1445182926696265</v>
+        <v>-0.1251593539418421</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.441233312376498</v>
+        <v>-3.425178113234685</v>
       </c>
       <c r="G107">
-        <v>-0.1444170618415432</v>
+        <v>-0.1283618626997094</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.442969389882691</v>
+        <v>-3.419650398986119</v>
       </c>
       <c r="G108">
-        <v>-0.1480752360193907</v>
+        <v>-0.124756245122799</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.445706131190383</v>
+        <v>-3.410922319706896</v>
       </c>
       <c r="G109">
-        <v>-0.1527340739987375</v>
+        <v>-0.1179502625152313</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.44275094003023</v>
+        <v>-3.426371323699748</v>
       </c>
       <c r="G110">
-        <v>-0.1517009795102395</v>
+        <v>-0.135321363179739</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.431146001170415</v>
+        <v>-3.416502894162019</v>
       </c>
       <c r="G111">
-        <v>-0.1396591009054164</v>
+        <v>-0.1273750303136651</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.441264591857138</v>
+        <v>-3.415855924758076</v>
       </c>
       <c r="G112">
-        <v>-0.1540588246804577</v>
+        <v>-0.1286501575813777</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.449025257470618</v>
+        <v>-3.413908088323346</v>
       </c>
       <c r="G113">
-        <v>-0.1637415869655916</v>
+        <v>-0.1286244178183034</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.449532821527441</v>
+        <v>-3.420828192305729</v>
       </c>
       <c r="G114">
-        <v>-0.1661712476940704</v>
+        <v>-0.1374666184723412</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.44640726918861</v>
+        <v>-3.417954398626363</v>
       </c>
       <c r="G115">
-        <v>-0.1649677920268942</v>
+        <v>-0.1365149214646308</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.444226211244007</v>
+        <v>-3.421197813616768</v>
       </c>
       <c r="G116">
-        <v>-0.1647088307539457</v>
+        <v>-0.1416804331266914</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.445376555389371</v>
+        <v>-3.432383211931904</v>
       </c>
       <c r="G117">
-        <v>-0.1677812715709646</v>
+        <v>-0.1547879281134823</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.444748792641813</v>
+        <v>-3.428528516644679</v>
       </c>
       <c r="G118">
-        <v>-0.169075605495062</v>
+        <v>-0.1528553294979123</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.442226976589052</v>
+        <v>-3.411652722055255</v>
       </c>
       <c r="G119">
-        <v>-0.1684758861139555</v>
+        <v>-0.1379016315801445</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.444049015591949</v>
+        <v>-3.409129812648969</v>
       </c>
       <c r="G120">
-        <v>-0.1722200217885073</v>
+        <v>-0.1373008188455129</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.444629602736967</v>
+        <v>-3.406774515905462</v>
       </c>
       <c r="G121">
-        <v>-0.1747227056051801</v>
+        <v>-0.1368676187736617</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.434471573341053</v>
+        <v>-3.413073600592197</v>
       </c>
       <c r="G122">
-        <v>-0.1664867728809214</v>
+        <v>-0.1450888001320521</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.435340743557117</v>
+        <v>-3.41910971149048</v>
       </c>
       <c r="G123">
-        <v>-0.1692780397686406</v>
+        <v>-0.153047007701991</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.438320492312086</v>
+        <v>-3.423230140247207</v>
       </c>
       <c r="G124">
-        <v>-0.1741798851952643</v>
+        <v>-0.159089533130373</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.438935058742834</v>
+        <v>-3.419693101171969</v>
       </c>
       <c r="G125">
-        <v>-0.1767165482976671</v>
+        <v>-0.1574745907267903</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.434890616902897</v>
+        <v>-3.410447530944774</v>
       </c>
       <c r="G126">
-        <v>-0.1745942031293852</v>
+        <v>-0.1501511171712506</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.432645787583139</v>
+        <v>-3.403843160613445</v>
       </c>
       <c r="G127">
-        <v>-0.1742714704812816</v>
+        <v>-0.1454688435115776</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.433757965246471</v>
+        <v>-3.415965439975626</v>
       </c>
       <c r="G128">
-        <v>-0.1773057448162687</v>
+        <v>-0.1595132195454134</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.431728187852802</v>
+        <v>-3.406676407785469</v>
       </c>
       <c r="G129">
-        <v>-0.177198064094255</v>
+        <v>-0.1521462840269128</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.432902212392613</v>
+        <v>-3.420270984780966</v>
       </c>
       <c r="G130">
-        <v>-0.1802941853057201</v>
+        <v>-0.167662957694064</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.4304646958308</v>
+        <v>-3.396880424062057</v>
       </c>
       <c r="G131">
-        <v>-0.1797787654155623</v>
+        <v>-0.1461944936468109</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.425587926678328</v>
+        <v>-3.410080605621214</v>
       </c>
       <c r="G132">
-        <v>-0.1768240929347449</v>
+        <v>-0.1613167718776238</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.427155361895907</v>
+        <v>-3.400232403484463</v>
       </c>
       <c r="G133">
-        <v>-0.1803136248239785</v>
+        <v>-0.1533906664125282</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.422416484663263</v>
+        <v>-3.404352368420892</v>
       </c>
       <c r="G134">
-        <v>-0.1774968442629907</v>
+        <v>-0.1594327280206125</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.420690979321563</v>
+        <v>-3.396859770016364</v>
       </c>
       <c r="G135">
-        <v>-0.177693435592946</v>
+        <v>-0.1538622262877398</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.42409516575165</v>
+        <v>-3.395298827627102</v>
       </c>
       <c r="G136">
-        <v>-0.1830197186946871</v>
+        <v>-0.1542233805701336</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.421980149007773</v>
+        <v>-3.397104807697814</v>
       </c>
       <c r="G137">
-        <v>-0.1828267986224654</v>
+        <v>-0.1579514573124998</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.422657295056051</v>
+        <v>-3.39847072845917</v>
       </c>
       <c r="G138">
-        <v>-0.1854260413423978</v>
+        <v>-0.1612394747455117</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.418013304126344</v>
+        <v>-3.40489883400436</v>
       </c>
       <c r="G139">
-        <v>-0.1827041470843458</v>
+        <v>-0.1695896769623577</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.414691172397801</v>
+        <v>-3.394138924856331</v>
       </c>
       <c r="G140">
-        <v>-0.1813041120274577</v>
+        <v>-0.160751864485984</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.41423557590445</v>
+        <v>-3.384404999527054</v>
       </c>
       <c r="G141">
-        <v>-0.1827706122057613</v>
+        <v>-0.1529400358283621</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.410271289509451</v>
+        <v>-3.383516183075322</v>
       </c>
       <c r="G142">
-        <v>-0.1807284224824177</v>
+        <v>-0.153973316048285</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.412406514078401</v>
+        <v>-3.380250950095394</v>
       </c>
       <c r="G143">
-        <v>-0.1847857437230223</v>
+        <v>-0.1526301797400127</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.406986985323839</v>
+        <v>-3.380704489041507</v>
       </c>
       <c r="G144">
-        <v>-0.1812883116401149</v>
+        <v>-0.1550058153577816</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.407325844709642</v>
+        <v>-3.383473197674771</v>
       </c>
       <c r="G145">
-        <v>-0.1835492676975727</v>
+        <v>-0.1596966206627006</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.401298140574351</v>
+        <v>-3.38067507335204</v>
       </c>
       <c r="G146">
-        <v>-0.1794436602339364</v>
+        <v>-0.1588205930116247</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.401103189894512</v>
+        <v>-3.380726107294501</v>
       </c>
       <c r="G147">
-        <v>-0.1811708062257527</v>
+        <v>-0.1607937236257417</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.400267391450329</v>
+        <v>-3.376918007159917</v>
       </c>
       <c r="G148">
-        <v>-0.1822571044532248</v>
+        <v>-0.1589077201628133</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.394034488762312</v>
+        <v>-3.37924105793842</v>
       </c>
       <c r="G149">
-        <v>-0.1779462984368632</v>
+        <v>-0.163152867612971</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.390473179195316</v>
+        <v>-3.363509889868194</v>
       </c>
       <c r="G150">
-        <v>-0.1763070855415216</v>
+        <v>-0.1493437962144009</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.389763336504136</v>
+        <v>-3.371242942875528</v>
       </c>
       <c r="G151">
-        <v>-0.1775193395219965</v>
+        <v>-0.1589989458933896</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.386106193646993</v>
+        <v>-3.371350592856762</v>
       </c>
       <c r="G152">
-        <v>-0.1757842933365079</v>
+        <v>-0.1610286925462787</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.38390327248765</v>
+        <v>-3.370745338761621</v>
       </c>
       <c r="G153">
-        <v>-0.1755034688488206</v>
+        <v>-0.162345535122794</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.379998290176314</v>
+        <v>-3.363344390093259</v>
       </c>
       <c r="G154">
-        <v>-0.1735205832091393</v>
+        <v>-0.156866683126087</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.379027801671616</v>
+        <v>-3.356650910519157</v>
       </c>
       <c r="G155">
-        <v>-0.1744721913760956</v>
+        <v>-0.15209530022364</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.373286068147773</v>
+        <v>-3.346499904645093</v>
       </c>
       <c r="G156">
-        <v>-0.1706525545239075</v>
+        <v>-0.1438663910212319</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.37341332223722</v>
+        <v>-3.357537380894272</v>
       </c>
       <c r="G157">
-        <v>-0.1727019052850101</v>
+        <v>-0.1568259639420662</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.368275907271228</v>
+        <v>-3.354186772680174</v>
       </c>
       <c r="G158">
-        <v>-0.1694865869906725</v>
+        <v>-0.155397452399624</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.365468667554025</v>
+        <v>-3.350354464130372</v>
       </c>
       <c r="G159">
-        <v>-0.1686014439451249</v>
+        <v>-0.1534872405214769</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.364521974588271</v>
+        <v>-3.348183897277815</v>
       </c>
       <c r="G160">
-        <v>-0.1695768476510255</v>
+        <v>-0.1532387703405753</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.358510860943405</v>
+        <v>-3.341578591695293</v>
       </c>
       <c r="G161">
-        <v>-0.1654878306778145</v>
+        <v>-0.1485555614297089</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.355592726704626</v>
+        <v>-3.342469072192068</v>
       </c>
       <c r="G162">
-        <v>-0.1644917931106908</v>
+        <v>-0.1513681385981391</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.354756928260449</v>
+        <v>-3.340492870194476</v>
       </c>
       <c r="G163">
-        <v>-0.1655780913381686</v>
+        <v>-0.1513140332722025</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.350136732869676</v>
+        <v>-3.337416865521937</v>
       </c>
       <c r="G164">
-        <v>-0.1628799926190503</v>
+        <v>-0.1501601252713187</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.347194803091965</v>
+        <v>-3.329615733401832</v>
       </c>
       <c r="G165">
-        <v>-0.161860159512994</v>
+        <v>-0.1442810898228697</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.342709297761704</v>
+        <v>-3.325482033619534</v>
       </c>
       <c r="G166">
-        <v>-0.1592967508543881</v>
+        <v>-0.1420694867122272</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.340371686541846</v>
+        <v>-3.314033401780116</v>
       </c>
       <c r="G167">
-        <v>-0.1588812363061849</v>
+        <v>-0.1325429515444643</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.335751491151076</v>
+        <v>-3.324254431229212</v>
       </c>
       <c r="G168">
-        <v>-0.1561831375870699</v>
+        <v>-0.1446860776652161</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.328173006414735</v>
+        <v>-3.316547343905325</v>
       </c>
       <c r="G169">
-        <v>-0.1505267495223837</v>
+        <v>-0.1389010870129845</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.329197754721985</v>
+        <v>-3.317772599587195</v>
       </c>
       <c r="G170">
-        <v>-0.1534735945012886</v>
+        <v>-0.1420484393665096</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.327710046642076</v>
+        <v>-3.307025899108107</v>
       </c>
       <c r="G171">
-        <v>-0.1539079830930341</v>
+        <v>-0.1332238355590774</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.321611834014567</v>
+        <v>-3.303244107843375</v>
       </c>
       <c r="G172">
-        <v>-0.1497318671371803</v>
+        <v>-0.1313641409659996</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.318828389836299</v>
+        <v>-3.307578846095137</v>
       </c>
       <c r="G173">
-        <v>-0.1488705196305675</v>
+        <v>-0.137620975889418</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.314788717464456</v>
+        <v>-3.301040565913356</v>
       </c>
       <c r="G174">
-        <v>-0.1467529439303792</v>
+        <v>-0.1330047923792923</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.311400954728335</v>
+        <v>-3.294561949771215</v>
       </c>
       <c r="G175">
-        <v>-0.1452872778659127</v>
+        <v>-0.1284482729088061</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.307854706392768</v>
+        <v>-3.293801347036741</v>
       </c>
       <c r="G176">
-        <v>-0.1436631262020006</v>
+        <v>-0.1296097668459881</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.301556245388938</v>
+        <v>-3.281558051717826</v>
       </c>
       <c r="G177">
-        <v>-0.139286761869826</v>
+        <v>-0.1192885681987284</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.300427271284792</v>
+        <v>-3.287300302249575</v>
       </c>
       <c r="G178">
-        <v>-0.1400798844373354</v>
+        <v>-0.126952915402133</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.295917970415601</v>
+        <v>-3.288881886882423</v>
       </c>
       <c r="G179">
-        <v>-0.1374926802397984</v>
+        <v>-0.1304565967066359</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.291186880503254</v>
+        <v>-3.281636203561678</v>
       </c>
       <c r="G180">
-        <v>-0.1346836869991072</v>
+        <v>-0.1251330100575464</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.287305693730849</v>
+        <v>-3.276144208664137</v>
       </c>
       <c r="G181">
-        <v>-0.1327245968983567</v>
+        <v>-0.1215631118316615</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.283242225820068</v>
+        <v>-3.281034574254248</v>
       </c>
       <c r="G182">
-        <v>-0.1305832256592303</v>
+        <v>-0.1283755740934273</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.277326294330943</v>
+        <v>-3.27293452271697</v>
       </c>
       <c r="G183">
-        <v>-0.1265893908417599</v>
+        <v>-0.122197619227805</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.275703896190522</v>
+        <v>-3.259643841650533</v>
       </c>
       <c r="G184">
-        <v>-0.1268890893729939</v>
+        <v>-0.1108290348330231</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.271107496338686</v>
+        <v>-3.260571905821443</v>
       </c>
       <c r="G185">
-        <v>-0.1242147861928132</v>
+        <v>-0.1136791956755886</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.265970081372702</v>
+        <v>-3.255384154024425</v>
       </c>
       <c r="G186">
-        <v>-0.1209994678984844</v>
+        <v>-0.1104135405502263</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.260634672902502</v>
+        <v>-3.255797714490294</v>
       </c>
       <c r="G187">
-        <v>-0.1175861560999392</v>
+        <v>-0.1127491976877506</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.257246910166371</v>
+        <v>-3.244432293854514</v>
       </c>
       <c r="G188">
-        <v>-0.1161204900354633</v>
+        <v>-0.1033058737236257</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.253811556352384</v>
+        <v>-3.249178949618169</v>
       </c>
       <c r="G189">
-        <v>-0.114607232893131</v>
+        <v>-0.1099746261589356</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.248610837942695</v>
+        <v>-3.238570727988901</v>
       </c>
       <c r="G190">
-        <v>-0.111328611155097</v>
+        <v>-0.1012885012013238</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.243990642551917</v>
+        <v>-3.231464618869928</v>
       </c>
       <c r="G191">
-        <v>-0.108630512435974</v>
+        <v>-0.09610448875400612</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.239950970180074</v>
+        <v>-3.228500781279074</v>
       </c>
       <c r="G192">
-        <v>-0.1065129367357855</v>
+        <v>-0.09506274783480739</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.235354570328236</v>
+        <v>-3.224791253611755</v>
       </c>
       <c r="G193">
-        <v>-0.1038386335556027</v>
+        <v>-0.09327531683914392</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.230734374937468</v>
+        <v>-3.212059686139062</v>
       </c>
       <c r="G194">
-        <v>-0.101140534836489</v>
+        <v>-0.08246584603810658</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.225644551049352</v>
+        <v>-3.21493971021013</v>
       </c>
       <c r="G195">
-        <v>-0.09797280762002802</v>
+        <v>-0.08726796678082926</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.221000560119644</v>
+        <v>-3.215370167948989</v>
       </c>
       <c r="G196">
-        <v>-0.09525091336197544</v>
+        <v>-0.08962052119134334</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.216873788765154</v>
+        <v>-3.198956330325339</v>
       </c>
       <c r="G197">
-        <v>-0.09304623867913953</v>
+        <v>-0.07512878023934977</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.212229797835453</v>
+        <v>-3.205708153136732</v>
       </c>
       <c r="G198">
-        <v>-0.09032434442109366</v>
+        <v>-0.08380269972239762</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.207163769486264</v>
+        <v>-3.196704481979296</v>
       </c>
       <c r="G199">
-        <v>-0.08718041274356036</v>
+        <v>-0.07672112523661745</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.202543574095499</v>
+        <v>-3.189646986058885</v>
       </c>
       <c r="G200">
-        <v>-0.08448231402444978</v>
+        <v>-0.07158572598786106</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.198369211663137</v>
+        <v>-3.19294530955856</v>
       </c>
       <c r="G201">
-        <v>-0.08223004826374236</v>
+        <v>-0.07680614615919118</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.19374901627237</v>
+        <v>-3.184298933129682</v>
       </c>
       <c r="G202">
-        <v>-0.07953194954463044</v>
+        <v>-0.07008186640196873</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.189152616420534</v>
+        <v>-3.177293321725136</v>
       </c>
       <c r="G203">
-        <v>-0.07685764636444892</v>
+        <v>-0.06499835166907908</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.184508625490829</v>
+        <v>-3.1713710008124</v>
       </c>
       <c r="G204">
-        <v>-0.07413575210639906</v>
+        <v>-0.06099812742799782</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.178853990949625</v>
+        <v>-3.166750805421628</v>
       </c>
       <c r="G205">
-        <v>-0.07040321423685009</v>
+        <v>-0.05830002870888173</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.174233795558856</v>
+        <v>-3.159925034353443</v>
       </c>
       <c r="G206">
-        <v>-0.06770511551773639</v>
+        <v>-0.05339635431235185</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.169096380592869</v>
+        <v>-3.160996427438786</v>
       </c>
       <c r="G207">
-        <v>-0.06448979722340437</v>
+        <v>-0.05638984406935038</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.161800134152594</v>
+        <v>-3.157099094814567</v>
       </c>
       <c r="G208">
-        <v>-0.05911564745478415</v>
+        <v>-0.05441460811678595</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.154503887712319</v>
+        <v>-3.146270091372468</v>
       </c>
       <c r="G209">
-        <v>-0.0537414976861639</v>
+        <v>-0.04550770134634266</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.147207641272044</v>
+        <v>-3.139107688117962</v>
       </c>
       <c r="G210">
-        <v>-0.04836734791754368</v>
+        <v>-0.04026739476349273</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.139911394831769</v>
+        <v>-3.137752563357482</v>
       </c>
       <c r="G211">
-        <v>-0.04299319814892347</v>
+        <v>-0.04083436667466786</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5271,7 +5271,7 @@
         <v>-3.132615148391495</v>
       </c>
       <c r="G212">
-        <v>-0.03761904838030511</v>
+        <v>-0.03761904838033661</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.12531890195122</v>
+        <v>-3.121268925374179</v>
       </c>
       <c r="G213">
-        <v>-0.03224489861168489</v>
+        <v>-0.02819492203467588</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>-3.118022655510944</v>
       </c>
       <c r="G214">
-        <v>-0.02687074884306379</v>
+        <v>-0.02687074884309625</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>-3.110726409070669</v>
       </c>
       <c r="G215">
-        <v>-0.02149659907444357</v>
+        <v>-0.02149659907447674</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>-3.103430162630396</v>
       </c>
       <c r="G216">
-        <v>-0.01612244930582513</v>
+        <v>-0.01612244930585899</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-3.096133916190122</v>
       </c>
       <c r="G217">
-        <v>-0.01074829953720624</v>
+        <v>-0.01074829953724037</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-3.088837669749846</v>
       </c>
       <c r="G218">
-        <v>-0.005374149768585135</v>
+        <v>-0.005374149768619517</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-3.081541423309571</v>
       </c>
       <c r="G219">
-        <v>3.508304757815495e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-3.463912643822209</v>
       </c>
       <c r="G220">
-        <v>8.837375276016246e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.498283167951017</v>
+        <v>-3.495998691694037</v>
       </c>
       <c r="G221">
-        <v>-0.06023583959098655</v>
+        <v>-0.06033190180815273</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.507350712205389</v>
+        <v>-3.500604989677691</v>
       </c>
       <c r="G222">
-        <v>-0.1008713047202843</v>
+        <v>-0.09412558219267542</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.518745964433648</v>
+        <v>-3.509117504924411</v>
       </c>
       <c r="G223">
-        <v>-0.1414539393494119</v>
+        <v>-0.131825479840264</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.498275713185465</v>
+        <v>-3.487167245768515</v>
       </c>
       <c r="G224">
-        <v>-0.1501710705020982</v>
+        <v>-0.1390626030852369</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.468873893651558</v>
+        <v>-3.461114078028289</v>
       </c>
       <c r="G225">
-        <v>-0.1499566333690594</v>
+        <v>-0.1421968177458799</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.439504810359772</v>
+        <v>-3.430835211713565</v>
       </c>
       <c r="G226">
-        <v>-0.145778536058639</v>
+        <v>-0.1411053338320243</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.392691549231719</v>
+        <v>-3.386188731918554</v>
       </c>
       <c r="G227">
-        <v>-0.1314275919728085</v>
+        <v>-0.1256462364378812</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.338169699458214</v>
+        <v>-3.329624100224954</v>
       </c>
       <c r="G228">
-        <v>-0.1068145863783195</v>
+        <v>-0.09826898714515042</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.267726209794356</v>
+        <v>-3.257277833383057</v>
       </c>
       <c r="G229">
-        <v>-0.06555847911533075</v>
+        <v>-0.05511010270412164</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.172980348278067</v>
       </c>
       <c r="G230">
-        <v>9.059419880941277e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-3.527393892061264</v>
       </c>
       <c r="G231">
-        <v>-2.655653474903374e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.553033578297499</v>
+        <v>-3.550524547681168</v>
       </c>
       <c r="G232">
-        <v>-0.05385567462085916</v>
+        <v>-0.05270425102076359</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.571957310278685</v>
+        <v>-3.554877790385619</v>
       </c>
       <c r="G233">
-        <v>-0.1037106090193753</v>
+        <v>-0.0866310891260742</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.567990691946407</v>
+        <v>-3.552747899065142</v>
       </c>
       <c r="G234">
-        <v>-0.1293175860879416</v>
+        <v>-0.114074793206457</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.548666435387186</v>
+        <v>-3.542568558219457</v>
       </c>
       <c r="G235">
-        <v>-0.1395669249295652</v>
+        <v>-0.1334690477616318</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.526985723657118</v>
+        <v>-3.517217684559026</v>
       </c>
       <c r="G236">
-        <v>-0.132872724706012</v>
+        <v>-0.1376917695020607</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.486616442265972</v>
+        <v>-3.479710175081677</v>
       </c>
       <c r="G237">
-        <v>-0.1262407458810011</v>
+        <v>-0.1297578554255729</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.442056213004732</v>
+        <v>-3.4389542425126</v>
       </c>
       <c r="G238">
-        <v>-0.1191056859977591</v>
+        <v>-0.1185755182573551</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.387864544999231</v>
+        <v>-3.384000189212097</v>
       </c>
       <c r="G239">
-        <v>-0.0970594161449877</v>
+        <v>-0.09319506035771308</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.321652931661475</v>
+        <v>-3.316432625005461</v>
       </c>
       <c r="G240">
-        <v>-0.06042139820807707</v>
+        <v>-0.0552010915519367</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.231129838134792</v>
       </c>
       <c r="G241">
-        <v>-1.101341240428155e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-3.571265520823244</v>
       </c>
       <c r="G242">
-        <v>-9.85878045867139e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.592659948671205</v>
+        <v>-3.589702225990092</v>
       </c>
       <c r="G243">
-        <v>-0.05129181737525279</v>
+        <v>-0.0483340946940598</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.606907088758181</v>
+        <v>-3.597344449041862</v>
       </c>
       <c r="G244">
-        <v>-0.09543634698942283</v>
+        <v>-0.08587370727304133</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.603220541281542</v>
+        <v>-3.590520280164845</v>
       </c>
       <c r="G245">
-        <v>-0.1216471890399768</v>
+        <v>-0.108946927923236</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.582074659229234</v>
+        <v>-3.578875036235321</v>
       </c>
       <c r="G246">
-        <v>-0.1307236681401576</v>
+        <v>-0.127524045146219</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.558364539587318</v>
+        <v>-3.552806764761299</v>
       </c>
       <c r="G247">
-        <v>-0.1251341297657707</v>
+        <v>-0.1313531631994094</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.520622383042409</v>
+        <v>-3.518032161085419</v>
       </c>
       <c r="G248">
-        <v>-0.129037241742447</v>
+        <v>-0.1264759490507408</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.476238937290412</v>
+        <v>-3.475638191737672</v>
       </c>
       <c r="G249">
-        <v>-0.1052174673260573</v>
+        <v>-0.1143043408555013</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.42134246639517</v>
+        <v>-3.420457596123914</v>
       </c>
       <c r="G250">
-        <v>-0.08945120426307129</v>
+        <v>-0.08902113476895468</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.357172011968356</v>
+        <v>-3.352725103690543</v>
       </c>
       <c r="G251">
-        <v>-0.05563294014054304</v>
+        <v>-0.05118603186279547</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.27131671067524</v>
       </c>
       <c r="G252">
-        <v>8.393286066166183e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-3.603377606899421</v>
       </c>
       <c r="G253">
-        <v>-6.843414723789465e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.623617825090756</v>
+        <v>-3.620214502774174</v>
       </c>
       <c r="G254">
-        <v>-0.05039786500639343</v>
+        <v>-0.04699454268914272</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.633258113504902</v>
+        <v>-3.625920434994208</v>
       </c>
       <c r="G255">
-        <v>-0.09040968425487517</v>
+        <v>-0.08307200574352702</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.629873429071988</v>
+        <v>-3.619849788471272</v>
       </c>
       <c r="G256">
-        <v>-0.1171826466363353</v>
+        <v>-0.1071590060349803</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.612671689548028</v>
+        <v>-3.606490290913632</v>
       </c>
       <c r="G257">
-        <v>-0.1303524379467107</v>
+        <v>-0.1241710393116908</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.58526848466293</v>
+        <v>-3.583430491401389</v>
       </c>
       <c r="G258">
-        <v>-0.123155492436112</v>
+        <v>-0.1312688866138383</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.54659826514924</v>
+        <v>-3.544655319037851</v>
       </c>
       <c r="G259">
-        <v>-0.1234568705445527</v>
+        <v>-0.1228652450846499</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.503222331293208</v>
+        <v>-3.500277524918387</v>
       </c>
       <c r="G260">
-        <v>-0.1095682261384483</v>
+        <v>-0.1086450977795763</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.446778389831029</v>
+        <v>-3.446487853181176</v>
       </c>
       <c r="G261">
-        <v>-0.08317059836748941</v>
+        <v>-0.08522695687671566</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.38325582570266</v>
+        <v>-3.378512776986331</v>
       </c>
       <c r="G262">
-        <v>-0.05215257621313762</v>
+        <v>-0.04740952749626015</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.300731718655721</v>
       </c>
       <c r="G263">
-        <v>-5.333511410299252e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-3.627890951664432</v>
       </c>
       <c r="G264">
-        <v>-7.696066006701585e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.644427328153354</v>
+        <v>-3.6432880719936</v>
       </c>
       <c r="G265">
-        <v>-0.04690316021765906</v>
+        <v>-0.04576390405708919</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.654580737354665</v>
+        <v>-3.647171742915767</v>
       </c>
       <c r="G266">
-        <v>-0.08757148379926871</v>
+        <v>-0.08016248935950943</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.647060345985796</v>
+        <v>-3.643199296820629</v>
       </c>
       <c r="G267">
-        <v>-0.1105660068106982</v>
+        <v>-0.1067049576446251</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.629549897372379</v>
+        <v>-3.626364591535952</v>
       </c>
       <c r="G268">
-        <v>-0.1234223419252478</v>
+        <v>-0.1202370360878686</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.602962149533571</v>
+        <v>-3.601192249041813</v>
       </c>
       <c r="G269">
-        <v>-0.1273495084667393</v>
+        <v>-0.125579607973983</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.566889282340646</v>
+        <v>-3.566765596305372</v>
       </c>
       <c r="G270">
-        <v>-0.1217915556541127</v>
+        <v>-0.1216678696177951</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.522473712415544</v>
+        <v>-3.519091257727045</v>
       </c>
       <c r="G271">
-        <v>-0.1064675819828482</v>
+        <v>-0.1043603147673902</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.466337653890096</v>
+        <v>-3.465988044508081</v>
       </c>
       <c r="G272">
-        <v>-0.07576695435480985</v>
+        <v>-0.08177201592867889</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.40334027307315</v>
+        <v>-3.3998336078841</v>
       </c>
       <c r="G273">
-        <v>-0.049639158875182</v>
+        <v>-0.04613249368495104</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.323186199818896</v>
       </c>
       <c r="G274">
-        <v>-1.226574397605873e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-3.647213383462762</v>
       </c>
       <c r="G275">
-        <v>-1.186162279509517e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.662973424226552</v>
+        <v>-3.661491673079137</v>
       </c>
       <c r="G276">
-        <v>-0.04629670967800825</v>
+        <v>-0.04481495852940975</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.672248448720415</v>
+        <v>-3.665283893683617</v>
       </c>
       <c r="G277">
-        <v>-0.08621517465452966</v>
+        <v>-0.07925061961655189</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.665834673807755</v>
+        <v>-3.658508055338943</v>
       </c>
       <c r="G278">
-        <v>-0.1104448402245279</v>
+        <v>-0.1031182217545381</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.644693283465606</v>
+        <v>-3.643006219993596</v>
       </c>
       <c r="G279">
-        <v>-0.1193441473547603</v>
+        <v>-0.1182598268918529</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.61813378094851</v>
+        <v>-3.615546099646324</v>
       </c>
       <c r="G280">
-        <v>-0.1206798419193997</v>
+        <v>-0.1214431470272408</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.582381762964387</v>
+        <v>-3.58127531631382</v>
       </c>
       <c r="G281">
-        <v>-0.1181272688439636</v>
+        <v>-0.1178158041773978</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.537765677413244</v>
+        <v>-3.536445542922281</v>
       </c>
       <c r="G282">
-        <v>-0.1049496057606492</v>
+        <v>-0.1036294712685202</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.482533605460424</v>
+        <v>-3.481312293467081</v>
       </c>
       <c r="G283">
-        <v>-0.07967496321916523</v>
+        <v>-0.07913966229598124</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.419398775607168</v>
+        <v>-3.416280802655009</v>
       </c>
       <c r="G284">
-        <v>-0.04786958491989013</v>
+        <v>-0.0447516119665694</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.340885750205778</v>
       </c>
       <c r="G285">
-        <v>-1.158184659288963e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-3.662833852362676</v>
       </c>
       <c r="G286">
-        <v>5.622169396701793e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.679078685106174</v>
+        <v>-3.675553900401386</v>
       </c>
       <c r="G287">
-        <v>-0.04700084431813778</v>
+        <v>-0.0434760596139081</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.685259168452632</v>
+        <v>-3.679047993919844</v>
       </c>
       <c r="G288">
-        <v>-0.08393733923979818</v>
+        <v>-0.0777261647075651</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.677997001202709</v>
+        <v>-3.670864397795033</v>
       </c>
       <c r="G289">
-        <v>-0.1074311835650774</v>
+        <v>-0.1002985801579523</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.657657302504941</v>
+        <v>-3.655557669722722</v>
       </c>
       <c r="G290">
-        <v>-0.1178474964425131</v>
+        <v>-0.1157478636608396</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.630935139606545</v>
+        <v>-3.629027299034729</v>
       </c>
       <c r="G291">
-        <v>-0.1214167625076161</v>
+        <v>-0.1199735045480448</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.594954077589367</v>
+        <v>-3.594034874190328</v>
       </c>
       <c r="G292">
-        <v>-0.1160437466560114</v>
+        <v>-0.1157370912788425</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.550210916809982</v>
+        <v>-3.550887320821248</v>
       </c>
       <c r="G293">
-        <v>-0.1020187449059884</v>
+        <v>-0.1033455494849609</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.495428998774869</v>
+        <v>-3.494672651772573</v>
       </c>
       <c r="G294">
-        <v>-0.07854939994813381</v>
+        <v>-0.07788689201148424</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.432131339368548</v>
+        <v>-3.43038023831698</v>
       </c>
       <c r="G295">
-        <v>-0.0461015911821327</v>
+        <v>-0.04435049013109038</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.355194263712564</v>
       </c>
       <c r="G296">
-        <v>5.209166431541234e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7226,7 +7226,7 @@
         <v>-3.675722137241923</v>
       </c>
       <c r="G297">
-        <v>2.221778316879863e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.691895489621121</v>
+        <v>-3.687998590447315</v>
       </c>
       <c r="G298">
-        <v>-0.04702733844603246</v>
+        <v>-0.0431304392744507</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.696334351400109</v>
+        <v>-3.690491691519803</v>
       </c>
       <c r="G299">
-        <v>-0.08232018629407589</v>
+        <v>-0.0764775264159967</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.68654261497553</v>
+        <v>-3.68290946966988</v>
       </c>
       <c r="G300">
-        <v>-0.1033824359385527</v>
+        <v>-0.09974929063513116</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.672654069720262</v>
+        <v>-3.666503411026026</v>
       </c>
       <c r="G301">
-        <v>-0.1204086129453903</v>
+        <v>-0.114257954253385</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.641176652160747</v>
+        <v>-3.640204994018362</v>
       </c>
       <c r="G302">
-        <v>-0.1191262698516313</v>
+        <v>-0.1188135233147785</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.605603659735721</v>
+        <v>-3.605450089852965</v>
       </c>
       <c r="G303">
-        <v>-0.113856902860876</v>
+        <v>-0.1149126052184397</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.561121733105126</v>
+        <v>-3.560083107054798</v>
       </c>
       <c r="G304">
-        <v>-0.1014989707304712</v>
+        <v>-0.1004603446823797</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.505876808388945</v>
+        <v>-3.506035085526701</v>
       </c>
       <c r="G305">
-        <v>-0.07710803208334571</v>
+        <v>-0.07726630922334143</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.442481607037319</v>
+        <v>-3.441443294286982</v>
       </c>
       <c r="G306">
-        <v>-0.04456681680077595</v>
+        <v>-0.04352850405268022</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>-3.367000067972194</v>
       </c>
       <c r="G307">
-        <v>2.243982777372366e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7479,7 +7479,7 @@
         <v>-3.686536787814132</v>
       </c>
       <c r="G308">
-        <v>1.309174990637985e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.700964409548612</v>
+        <v>-3.698516075405868</v>
       </c>
       <c r="G309">
-        <v>-0.04536693390456925</v>
+        <v>-0.04291859976329659</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.705400130113413</v>
+        <v>-3.699722481200454</v>
       </c>
       <c r="G310">
-        <v>-0.08078941957354679</v>
+        <v>-0.07511177066221997</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.697316732633918</v>
+        <v>-3.691861914779424</v>
       </c>
       <c r="G311">
-        <v>-0.1036453342654502</v>
+        <v>-0.09819051641275145</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.67877110592794</v>
+        <v>-3.676273748254618</v>
       </c>
       <c r="G312">
-        <v>-0.1160864726636475</v>
+        <v>-0.1135891149922839</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.650195016453179</v>
+        <v>-3.649479487979447</v>
       </c>
       <c r="G313">
-        <v>-0.1184496953602856</v>
+        <v>-0.1177341668886722</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.614445073642329</v>
+        <v>-3.613403079711424</v>
       </c>
       <c r="G314">
-        <v>-0.1136865176536119</v>
+        <v>-0.1126445237249882</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.56927547816658</v>
+        <v>-3.568982249097424</v>
       </c>
       <c r="G315">
-        <v>-0.09891052751117924</v>
+        <v>-0.0991630052825474</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.515458637360898</v>
+        <v>-3.515391663845063</v>
       </c>
       <c r="G316">
-        <v>-0.07534787000944521</v>
+        <v>-0.07655918513452487</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.451343362035205</v>
+        <v>-3.450429954791355</v>
       </c>
       <c r="G317">
-        <v>-0.04345019549346008</v>
+        <v>-0.04253678825237683</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>-3.376906401434639</v>
       </c>
       <c r="G318">
-        <v>2.929212428171013e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.262272196314375</v>
+        <v>-3.263590984193161</v>
       </c>
       <c r="G22">
         <v>-0.1062839236949245</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.264584774376946</v>
+        <v>-3.282696981535</v>
       </c>
       <c r="G24">
         <v>-0.118324539586693</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.276115954866046</v>
+        <v>-3.283853270566284</v>
       </c>
       <c r="G25">
         <v>-0.1347197389903911</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.273019489448758</v>
+        <v>-3.275805260612439</v>
       </c>
       <c r="G26">
         <v>-0.1364872924877023</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.284239975684252</v>
+        <v>-3.290806698911808</v>
       </c>
       <c r="G28">
         <v>-0.1574358165523928</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.282610493551857</v>
+        <v>-3.284225672242855</v>
       </c>
       <c r="G29">
         <v>-0.1606703533345972</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.277459126598211</v>
+        <v>-3.284866581230491</v>
       </c>
       <c r="G32">
         <v>-0.1701110431247477</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.275203392585647</v>
+        <v>-3.290826219392226</v>
       </c>
       <c r="G33">
         <v>-0.1727193280267825</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.290367329732516</v>
+        <v>-3.295467069675176</v>
       </c>
       <c r="G34">
         <v>-0.1927472840882496</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.280407750275464</v>
+        <v>-3.301574903243021</v>
       </c>
       <c r="G35">
         <v>-0.187651723545796</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.274558983950237</v>
+        <v>-3.281966438582522</v>
       </c>
       <c r="G36">
         <v>-0.1866669761351676</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.280485151856232</v>
+        <v>-3.28180393973502</v>
       </c>
       <c r="G37">
         <v>-0.197457162955762</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.275644479156193</v>
+        <v>-3.289618657016026</v>
       </c>
       <c r="G39">
         <v>-0.2023445280849203</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.267930665126892</v>
+        <v>-3.284610622095529</v>
       </c>
       <c r="G40">
         <v>-0.1994947329702168</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.26277989367821</v>
+        <v>-3.268677341806713</v>
       </c>
       <c r="G42">
         <v>-0.2040719993507329</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.265284485577213</v>
+        <v>-3.27281687471603</v>
       </c>
       <c r="G43">
         <v>-0.2114406101643347</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.235563623451962</v>
+        <v>-3.260401385163255</v>
       </c>
       <c r="G44">
         <v>-0.1865837669536827</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.24196784783202</v>
+        <v>-3.25461890295648</v>
       </c>
       <c r="G45">
         <v>-0.1978520102483388</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.220320529459034</v>
+        <v>-3.230265805474687</v>
       </c>
       <c r="G49">
         <v>-0.1956607675337472</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.212629976329304</v>
+        <v>-3.22968473681755</v>
       </c>
       <c r="G50">
         <v>-0.1928342333186159</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.207746875915346</v>
+        <v>-3.213789020869702</v>
       </c>
       <c r="G51">
         <v>-0.1928151518192571</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.198018239428391</v>
+        <v>-3.205425694060671</v>
       </c>
       <c r="G52">
         <v>-0.1879505342469003</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.183487833158457</v>
+        <v>-3.191270091310348</v>
       </c>
       <c r="G53">
         <v>-0.1782841468915655</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.172836553979123</v>
+        <v>-3.190689022653212</v>
       </c>
       <c r="G54">
         <v>-0.1724968866268296</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.165146000849397</v>
+        <v>-3.172380419828528</v>
       </c>
       <c r="G55">
         <v>-0.1696703524117029</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.111407575743012</v>
+        <v>-3.138109642087232</v>
       </c>
       <c r="G59">
         <v>-0.1353880029637126</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.091325630236408</v>
+        <v>-3.106890146540201</v>
       </c>
       <c r="G61">
         <v>-0.1250340952863054</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-3.39360866141512</v>
+        <v>-3.39589704602525</v>
       </c>
       <c r="G78">
         <v>-0.04105160740213831</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.396621512135378</v>
+        <v>-3.398909896745509</v>
       </c>
       <c r="G79">
         <v>-0.04598655479405123</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.397142803642334</v>
+        <v>-3.403126839213968</v>
       </c>
       <c r="G81">
         <v>-0.05035203964431822</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.399474310650958</v>
+        <v>-3.405485515921182</v>
       </c>
       <c r="G82">
         <v>-0.05460564332459761</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.403806256405465</v>
+        <v>-3.404236285886185</v>
       </c>
       <c r="G83">
         <v>-0.06085968575075995</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.401314697192162</v>
+        <v>-3.409757905650427</v>
       </c>
       <c r="G84">
         <v>-0.06029022320911182</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.405296837488303</v>
+        <v>-3.416203687640095</v>
       </c>
       <c r="G85">
         <v>-0.06619446017690844</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.40525483995972</v>
+        <v>-3.410871112421122</v>
       </c>
       <c r="G86">
         <v>-0.06807455931998119</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.409800269291398</v>
+        <v>-3.413667417237828</v>
       </c>
       <c r="G88">
         <v>-0.07646418199496985</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.410546822716839</v>
+        <v>-3.41240586234054</v>
       </c>
       <c r="G90">
         <v>-0.08105492876372189</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.413935113745363</v>
+        <v>-3.41746958763227</v>
       </c>
       <c r="G91">
         <v>-0.08636531646390067</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.416350744619417</v>
+        <v>-3.416449235846875</v>
       </c>
       <c r="G92">
         <v>-0.09070304400961016</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.415344689247962</v>
+        <v>-3.416241683676177</v>
       </c>
       <c r="G94">
         <v>-0.09354118198146644</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.415710977408489</v>
+        <v>-3.416337461243247</v>
       </c>
       <c r="G95">
         <v>-0.09582956681364774</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.413564639316197</v>
+        <v>-3.424547804011963</v>
       </c>
       <c r="G96">
         <v>-0.09560532539301203</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.410438799754238</v>
+        <v>-3.42489463651211</v>
       </c>
       <c r="G97">
         <v>-0.09440158250270869</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.418807286627585</v>
+        <v>-3.421129531100307</v>
       </c>
       <c r="G98">
         <v>-0.1046921660477111</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.415374993118528</v>
+        <v>-3.428404581998954</v>
       </c>
       <c r="G99">
         <v>-0.1031819692103086</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.414545491074009</v>
+        <v>-3.420871185962543</v>
       </c>
       <c r="G100">
         <v>-0.1042745638374463</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.422334994390213</v>
+        <v>-3.42671341209274</v>
       </c>
       <c r="G101">
         <v>-0.1139861638253046</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.422712628349404</v>
+        <v>-3.429853855841538</v>
       </c>
       <c r="G102">
         <v>-0.1162858944561518</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.408944034273981</v>
+        <v>-3.430282035544257</v>
       </c>
       <c r="G103">
         <v>-0.104439397052384</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.420731120731271</v>
+        <v>-3.43442365325704</v>
       </c>
       <c r="G104">
         <v>-0.1181485801813293</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.417537609820985</v>
+        <v>-3.421045185603747</v>
       </c>
       <c r="G105">
         <v>-0.1168771659426984</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.423897701148473</v>
+        <v>-3.428021031895566</v>
       </c>
       <c r="G106">
         <v>-0.1251593539418421</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.419650398986119</v>
+        <v>-3.430341044074841</v>
       </c>
       <c r="G108">
         <v>-0.124756245122799</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.410922319706896</v>
+        <v>-3.428685589603269</v>
       </c>
       <c r="G109">
         <v>-0.1179502625152313</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.426371323699748</v>
+        <v>-3.430705845271421</v>
       </c>
       <c r="G110">
         <v>-0.135321363179739</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.416502894162019</v>
+        <v>-3.429391038785725</v>
       </c>
       <c r="G111">
         <v>-0.1273750303136651</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.415855924758076</v>
+        <v>-3.421243562520276</v>
       </c>
       <c r="G112">
         <v>-0.1286501575813777</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.413908088323346</v>
+        <v>-3.425270147981969</v>
       </c>
       <c r="G113">
         <v>-0.1286244178183034</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.420828192305729</v>
+        <v>-3.423367119785071</v>
       </c>
       <c r="G114">
         <v>-0.1374666184723412</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.417954398626363</v>
+        <v>-3.42556441607123</v>
       </c>
       <c r="G115">
         <v>-0.1365149214646308</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.411652722055255</v>
+        <v>-3.414584248444351</v>
       </c>
       <c r="G119">
         <v>-0.1379016315801445</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.409129812648969</v>
+        <v>-3.418182782980805</v>
       </c>
       <c r="G120">
         <v>-0.1373008188455129</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.406774515905462</v>
+        <v>-3.41825007214313</v>
       </c>
       <c r="G121">
         <v>-0.1368676187736617</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.423230140247207</v>
+        <v>-3.430127346294948</v>
       </c>
       <c r="G124">
         <v>-0.159089533130373</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.410447530944774</v>
+        <v>-3.414213700125402</v>
       </c>
       <c r="G126">
         <v>-0.1501511171712506</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.403843160613445</v>
+        <v>-3.416428893107184</v>
       </c>
       <c r="G127">
         <v>-0.1454688435115776</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.406676407785469</v>
+        <v>-3.416888580606698</v>
       </c>
       <c r="G129">
         <v>-0.1521462840269128</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.396880424062057</v>
+        <v>-3.409851489003212</v>
       </c>
       <c r="G131">
         <v>-0.1461944936468109</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.400232403484463</v>
+        <v>-3.411890543129865</v>
       </c>
       <c r="G133">
         <v>-0.1533906664125282</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.404352368420892</v>
+        <v>-3.406441030374685</v>
       </c>
       <c r="G134">
         <v>-0.1594327280206125</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.396859770016364</v>
+        <v>-3.404125210133087</v>
       </c>
       <c r="G135">
         <v>-0.1538622262877398</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.395298827627102</v>
+        <v>-3.409716683140786</v>
       </c>
       <c r="G136">
         <v>-0.1542233805701336</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.397104807697814</v>
+        <v>-3.409563791090628</v>
       </c>
       <c r="G137">
         <v>-0.1579514573124998</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.394138924856331</v>
+        <v>-3.399154209876959</v>
       </c>
       <c r="G140">
         <v>-0.160751864485984</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.384404999527054</v>
+        <v>-3.38744784096585</v>
       </c>
       <c r="G141">
         <v>-0.1529400358283621</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.383516183075322</v>
+        <v>-3.385039415331683</v>
       </c>
       <c r="G142">
         <v>-0.153973316048285</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.380250950095394</v>
+        <v>-3.394316979174264</v>
       </c>
       <c r="G143">
         <v>-0.1526301797400127</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.380704489041507</v>
+        <v>-3.389583470857199</v>
       </c>
       <c r="G144">
         <v>-0.1550058153577816</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.383473197674771</v>
+        <v>-3.385286156904461</v>
       </c>
       <c r="G145">
         <v>-0.1596966206627006</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.38067507335204</v>
+        <v>-3.383686831433991</v>
       </c>
       <c r="G146">
         <v>-0.1588205930116247</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.363509889868194</v>
+        <v>-3.374522324865682</v>
       </c>
       <c r="G150">
         <v>-0.1493437962144009</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.371242942875528</v>
+        <v>-3.371338485917535</v>
       </c>
       <c r="G151">
         <v>-0.1589989458933896</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.371350592856762</v>
+        <v>-3.371966040118818</v>
       </c>
       <c r="G152">
         <v>-0.1610286925462787</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.356650910519157</v>
+        <v>-3.360935560495673</v>
       </c>
       <c r="G155">
         <v>-0.15209530022364</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.346499904645093</v>
+        <v>-3.364625519037559</v>
       </c>
       <c r="G156">
         <v>-0.1438663910212319</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.357537380894272</v>
+        <v>-3.358154435254657</v>
       </c>
       <c r="G157">
         <v>-0.1568259639420662</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.354186772680174</v>
+        <v>-3.357924421452182</v>
       </c>
       <c r="G158">
         <v>-0.155397452399624</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.350354464130372</v>
+        <v>-3.354378518878804</v>
       </c>
       <c r="G159">
         <v>-0.1534872405214769</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.341578591695293</v>
+        <v>-3.347236876951214</v>
       </c>
       <c r="G161">
         <v>-0.1485555614297089</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.342469072192068</v>
+        <v>-3.347359370999926</v>
       </c>
       <c r="G162">
         <v>-0.1513681385981391</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.340492870194476</v>
+        <v>-3.342941489142324</v>
       </c>
       <c r="G163">
         <v>-0.1513140332722025</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.337416865521937</v>
+        <v>-3.339918121865062</v>
       </c>
       <c r="G164">
         <v>-0.1501601252713187</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.329615733401832</v>
+        <v>-3.334964600465503</v>
       </c>
       <c r="G165">
         <v>-0.1442810898228697</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.325482033619534</v>
+        <v>-3.332245261192298</v>
       </c>
       <c r="G166">
         <v>-0.1420694867122272</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.314033401780116</v>
+        <v>-3.336027574857539</v>
       </c>
       <c r="G167">
         <v>-0.1325429515444643</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.324254431229212</v>
+        <v>-3.328156358822662</v>
       </c>
       <c r="G168">
         <v>-0.1446860776652161</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.316547343905325</v>
+        <v>-3.320460712823916</v>
       </c>
       <c r="G169">
         <v>-0.1389010870129845</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.317772599587195</v>
+        <v>-3.321765507393267</v>
       </c>
       <c r="G170">
         <v>-0.1420484393665096</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.307025899108107</v>
+        <v>-3.317117466900444</v>
       </c>
       <c r="G171">
         <v>-0.1332238355590774</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.303244107843375</v>
+        <v>-3.312434785755982</v>
       </c>
       <c r="G172">
         <v>-0.1313641409659996</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.301040565913356</v>
+        <v>-3.310526917432834</v>
       </c>
       <c r="G174">
         <v>-0.1330047923792923</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.294561949771215</v>
+        <v>-3.299069814244841</v>
       </c>
       <c r="G175">
         <v>-0.1284482729088061</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.293801347036741</v>
+        <v>-3.298634066710048</v>
       </c>
       <c r="G176">
         <v>-0.1296097668459881</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.281558051717826</v>
+        <v>-3.29055686703263</v>
       </c>
       <c r="G177">
         <v>-0.1192885681987284</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.287300302249575</v>
+        <v>-3.288080812871006</v>
       </c>
       <c r="G178">
         <v>-0.126952915402133</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.281636203561678</v>
+        <v>-3.28524665183843</v>
       </c>
       <c r="G180">
         <v>-0.1251330100575464</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.276144208664137</v>
+        <v>-3.28066713436919</v>
       </c>
       <c r="G181">
         <v>-0.1215631118316615</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.259643841650533</v>
+        <v>-3.269214351590016</v>
       </c>
       <c r="G184">
         <v>-0.1108290348330231</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.255384154024425</v>
+        <v>-3.262888731127998</v>
       </c>
       <c r="G186">
         <v>-0.1104135405502263</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.255797714490294</v>
+        <v>-3.257933597300393</v>
       </c>
       <c r="G187">
         <v>-0.1127491976877506</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.244432293854514</v>
+        <v>-3.251519291598585</v>
       </c>
       <c r="G188">
         <v>-0.1033058737236257</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.238570727988901</v>
+        <v>-3.239935088693652</v>
       </c>
       <c r="G190">
         <v>-0.1012885012013238</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.231464618869928</v>
+        <v>-3.240350278705283</v>
       </c>
       <c r="G191">
         <v>-0.09610448875400612</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.228500781279074</v>
+        <v>-3.230289655823791</v>
       </c>
       <c r="G192">
         <v>-0.09506274783480739</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.224791253611755</v>
+        <v>-3.229285592650154</v>
       </c>
       <c r="G193">
         <v>-0.09327531683914392</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.212059686139062</v>
+        <v>-3.223783635504618</v>
       </c>
       <c r="G194">
         <v>-0.08246584603810658</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.21493971021013</v>
+        <v>-3.221864546965799</v>
       </c>
       <c r="G195">
         <v>-0.08726796678082926</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.215370167948989</v>
+        <v>-3.217372207573312</v>
       </c>
       <c r="G196">
         <v>-0.08962052119134334</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.198956330325339</v>
+        <v>-3.2114010353192</v>
       </c>
       <c r="G197">
         <v>-0.07512878023934977</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.196704481979296</v>
+        <v>-3.201079461184101</v>
       </c>
       <c r="G199">
         <v>-0.07672112523661745</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.189646986058885</v>
+        <v>-3.194330217045453</v>
       </c>
       <c r="G200">
         <v>-0.07158572598786106</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.184298933129682</v>
+        <v>-3.190350102456309</v>
       </c>
       <c r="G202">
         <v>-0.07008186640196873</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.177293321725136</v>
+        <v>-3.184224992543021</v>
       </c>
       <c r="G203">
         <v>-0.06499835166907908</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.1713710008124</v>
+        <v>-3.17451752723399</v>
       </c>
       <c r="G204">
         <v>-0.06099812742799782</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.166750805421628</v>
+        <v>-3.167070476131238</v>
       </c>
       <c r="G205">
         <v>-0.05830002870888173</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.159925034353443</v>
+        <v>-3.163591634541033</v>
       </c>
       <c r="G206">
         <v>-0.05339635431235185</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.146270091372468</v>
+        <v>-3.148428922846757</v>
       </c>
       <c r="G209">
         <v>-0.04550770134634266</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.139107688117962</v>
+        <v>-3.141132676406481</v>
       </c>
       <c r="G210">
         <v>-0.04026739476349273</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.137752563357482</v>
+        <v>-3.139911394831771</v>
       </c>
       <c r="G211">
         <v>-0.04083436667466786</v>
@@ -5291,7 +5291,7 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.121268925374179</v>
+        <v>-3.12531890195122</v>
       </c>
       <c r="G213">
         <v>-0.02819492203467588</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.500604989677691</v>
+        <v>-3.504227750855896</v>
       </c>
       <c r="G222">
         <v>-0.09412558219267542</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.487167245768515</v>
+        <v>-3.492047849531524</v>
       </c>
       <c r="G224">
         <v>-0.1390626030852369</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.461114078028289</v>
+        <v>-3.46657212360929</v>
       </c>
       <c r="G225">
         <v>-0.1421968177458799</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.430835211713565</v>
+        <v>-3.437610825158026</v>
       </c>
       <c r="G226">
         <v>-0.1411053338320243</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.386188731918554</v>
+        <v>-3.388036036584637</v>
       </c>
       <c r="G227">
         <v>-0.1256462364378812</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.329624100224954</v>
+        <v>-3.335085299739656</v>
       </c>
       <c r="G228">
         <v>-0.09826898714515042</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.257277833383057</v>
+        <v>-3.265234682013203</v>
       </c>
       <c r="G229">
         <v>-0.05511010270412164</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.554877790385619</v>
+        <v>-3.559436256893688</v>
       </c>
       <c r="G233">
         <v>-0.0866310891260742</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.552747899065142</v>
+        <v>-3.556004472935519</v>
       </c>
       <c r="G234">
         <v>-0.114074793206457</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.517217684559026</v>
+        <v>-3.523316618342888</v>
       </c>
       <c r="G236">
         <v>-0.1376917695020607</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.479710175081677</v>
+        <v>-3.484066445258626</v>
       </c>
       <c r="G237">
         <v>-0.1297578554255729</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.4389542425126</v>
+        <v>-3.439757323431111</v>
       </c>
       <c r="G238">
         <v>-0.1185755182573551</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.384000189212097</v>
+        <v>-3.385225770349614</v>
       </c>
       <c r="G239">
         <v>-0.09319506035771308</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.589702225990092</v>
+        <v>-3.59275369755599</v>
       </c>
       <c r="G243">
         <v>-0.0483340946940598</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.597344449041862</v>
+        <v>-3.598446015096642</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.590520280164845</v>
+        <v>-3.59385629074659</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.578875036235321</v>
+        <v>-3.581723369043178</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.552806764761299</v>
+        <v>-3.554950933443667</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.518032161085419</v>
+        <v>-3.522790053690676</v>
       </c>
       <c r="G248">
         <v>-0.1264759490507408</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.620214502774174</v>
+        <v>-3.620448290998097</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.619849788471272</v>
+        <v>-3.621295678985315</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.606490290913632</v>
+        <v>-3.608634563044572</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.544655319037851</v>
+        <v>-3.547304765643017</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.500277524918387</v>
+        <v>-3.500862476969535</v>
       </c>
       <c r="G260">
         <v>-0.1086450977795763</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.378512776986331</v>
+        <v>-3.379626436007245</v>
       </c>
       <c r="G262">
         <v>-0.04740952749626015</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.647171742915767</v>
+        <v>-3.6483316257518</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.643199296820629</v>
+        <v>-3.644867206632856</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.626364591535952</v>
+        <v>-3.62817987335108</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.601192249041813</v>
+        <v>-3.602978719533329</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.519091257727045</v>
+        <v>-3.521547803767239</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.465988044508081</v>
+        <v>-3.466756814318654</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.3998336078841</v>
+        <v>-3.400293814502291</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.661491673079137</v>
+        <v>-3.661562950154087</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.665283893683617</v>
+        <v>-3.665960102650564</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.658508055338943</v>
+        <v>-3.659540028875049</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.643006219993596</v>
+        <v>-3.644653558341777</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.615546099646324</v>
+        <v>-3.617946445144518</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.58127531631382</v>
+        <v>-3.582602500624967</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.536445542922281</v>
+        <v>-3.537616835707044</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.481312293467081</v>
+        <v>-3.482077774480341</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.416280802655009</v>
+        <v>-3.416732760444077</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.675553900401386</v>
+        <v>-3.675573833996958</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.679047993919844</v>
+        <v>-3.679164094494815</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.670864397795033</v>
+        <v>-3.67293420455729</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.655557669722722</v>
+        <v>-3.656392382907451</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.629027299034729</v>
+        <v>-3.629803389871966</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.594034874190328</v>
+        <v>-3.594246064283065</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.494672651772573</v>
+        <v>-3.495326148371808</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.43038023831698</v>
+        <v>-3.43049715305136</v>
       </c>
       <c r="G295">
         <v>-0.04435049013109038</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.687998590447315</v>
+        <v>-3.688910417222341</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.690491691519803</v>
+        <v>-3.690744320619274</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.68290946966988</v>
+        <v>-3.683356734078173</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.640204994018362</v>
+        <v>-3.641196069831589</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.560083107054798</v>
+        <v>-3.560372614841932</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.441443294286982</v>
+        <v>-3.441671787551187</v>
       </c>
       <c r="G306">
         <v>-0.04352850405268022</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.698516075405868</v>
+        <v>-3.698822006063433</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.699722481200454</v>
+        <v>-3.700602929094562</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.691861914779424</v>
+        <v>-3.692604277318945</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.613403079711424</v>
+        <v>-3.613636314454612</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.568982249097424</v>
+        <v>-3.569180114755774</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.450429954791355</v>
+        <v>-3.451292990912851</v>
       </c>
       <c r="G317">
         <v>-0.04253678825237683</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.264747273224447</v>
+        <v>-3.273803376803474</v>
       </c>
       <c r="G23">
         <v>-0.1136230195195953</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.282696981535</v>
+        <v>-3.284015769413785</v>
       </c>
       <c r="G24">
         <v>-0.118324539586693</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.283853270566284</v>
+        <v>-3.292909374145309</v>
       </c>
       <c r="G25">
         <v>-0.1347197389903911</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.275805260612439</v>
+        <v>-3.300484190998048</v>
       </c>
       <c r="G26">
         <v>-0.1364872924877023</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.292584376450307</v>
+        <v>-3.308059007850785</v>
       </c>
       <c r="G27">
         <v>-0.1609161984038496</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.290806698911808</v>
+        <v>-3.315633824703521</v>
       </c>
       <c r="G28">
         <v>-0.1574358165523928</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.284225672242855</v>
+        <v>-3.313856147165021</v>
       </c>
       <c r="G29">
         <v>-0.1606703533345972</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.291355902877278</v>
+        <v>-3.312078469626521</v>
       </c>
       <c r="G30">
         <v>-0.1742797815746169</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.297463736445119</v>
+        <v>-3.303882264266571</v>
       </c>
       <c r="G31">
         <v>-0.1852516340570558</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.284866581230491</v>
+        <v>-3.308523114549521</v>
       </c>
       <c r="G32">
         <v>-0.1701110431247477</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.290826219392226</v>
+        <v>-3.30674543701102</v>
       </c>
       <c r="G33">
         <v>-0.1727193280267825</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.295467069675176</v>
+        <v>-3.296934052960069</v>
       </c>
       <c r="G34">
         <v>-0.1927472840882496</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.281966438582522</v>
+        <v>-3.299797225704522</v>
       </c>
       <c r="G36">
         <v>-0.1866669761351676</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.28180393973502</v>
+        <v>-3.293068003629465</v>
       </c>
       <c r="G37">
         <v>-0.197457162955762</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.284829611326971</v>
+        <v>-3.291396334554526</v>
       </c>
       <c r="G38">
         <v>-0.206665641341099</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.272195132542749</v>
+        <v>-3.275425489924747</v>
       </c>
       <c r="G41">
         <v>-0.2086232193006734</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.268677341806713</v>
+        <v>-3.277824909636526</v>
       </c>
       <c r="G42">
         <v>-0.2040719993507329</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.25461890295648</v>
+        <v>-3.262800804875034</v>
       </c>
       <c r="G45">
         <v>-0.1978520102483388</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.252947233881537</v>
+        <v>-3.254562412572537</v>
       </c>
       <c r="G46">
         <v>-0.2136954152124546</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.234601066715888</v>
+        <v>-3.241315985349549</v>
       </c>
       <c r="G48">
         <v>-0.2050772858760024</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.22968473681755</v>
+        <v>-3.231299915508549</v>
       </c>
       <c r="G50">
         <v>-0.1928342333186159</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.213789020869702</v>
+        <v>-3.223061523206057</v>
       </c>
       <c r="G51">
         <v>-0.1928151518192571</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.205425694060671</v>
+        <v>-3.214823130903568</v>
       </c>
       <c r="G52">
         <v>-0.1879505342469003</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.191270091310348</v>
+        <v>-3.206584738601065</v>
       </c>
       <c r="G53">
         <v>-0.1782841468915655</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.190689022653212</v>
+        <v>-3.198346346298576</v>
       </c>
       <c r="G54">
         <v>-0.1724968866268296</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.172380419828528</v>
+        <v>-3.19010795399608</v>
       </c>
       <c r="G55">
         <v>-0.1696703524117029</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.164564932192254</v>
+        <v>-3.181869561693583</v>
       </c>
       <c r="G56">
         <v>-0.1739533026691575</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.138109642087232</v>
+        <v>-3.151661867997684</v>
       </c>
       <c r="G59">
         <v>-0.1353880029637126</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.118608765237768</v>
+        <v>-3.13216099114822</v>
       </c>
       <c r="G60">
         <v>-0.1474532113730672</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.106890146540201</v>
+        <v>-3.112660114298756</v>
       </c>
       <c r="G61">
         <v>-0.1250340952863054</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.397405185604766</v>
+        <v>-3.399140938819357</v>
       </c>
       <c r="G80">
         <v>-0.04869232493509434</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.403126839213968</v>
+        <v>-3.406730558759874</v>
       </c>
       <c r="G81">
         <v>-0.05035203964431822</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.405485515921182</v>
+        <v>-3.406961600833721</v>
       </c>
       <c r="G82">
         <v>-0.05460564332459761</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.404236285886185</v>
+        <v>-3.406205794835005</v>
       </c>
       <c r="G83">
         <v>-0.06085968575075995</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.409757905650427</v>
+        <v>-3.414782262848089</v>
       </c>
       <c r="G84">
         <v>-0.06029022320911182</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.416203687640095</v>
+        <v>-3.419649281501456</v>
       </c>
       <c r="G85">
         <v>-0.06619446017690844</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.410871112421122</v>
+        <v>-3.414316706282484</v>
       </c>
       <c r="G86">
         <v>-0.06807455931998119</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.408366181907438</v>
+        <v>-3.424194710833129</v>
       </c>
       <c r="G87">
         <v>-0.07310799793935363</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.413667417237828</v>
+        <v>-3.425668082085288</v>
       </c>
       <c r="G88">
         <v>-0.07646418199496985</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.412440345466223</v>
+        <v>-3.421381562298131</v>
       </c>
       <c r="G89">
         <v>-0.08102635484145049</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.41240586234054</v>
+        <v>-3.426444854697983</v>
       </c>
       <c r="G90">
         <v>-0.08105492876372189</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.41746958763227</v>
+        <v>-3.429516912777501</v>
       </c>
       <c r="G91">
         <v>-0.08636531646390067</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.416449235846875</v>
+        <v>-3.430300586246893</v>
       </c>
       <c r="G92">
         <v>-0.09070304400961016</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.417806978860181</v>
+        <v>-3.432088645964051</v>
       </c>
       <c r="G93">
         <v>-0.09408137492202906</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.416241683676177</v>
+        <v>-3.433424950828979</v>
       </c>
       <c r="G94">
         <v>-0.09354118198146644</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.416337461243247</v>
+        <v>-3.431682296757701</v>
       </c>
       <c r="G95">
         <v>-0.09582956681364774</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.424547804011963</v>
+        <v>-3.442190791731863</v>
       </c>
       <c r="G96">
         <v>-0.09560532539301203</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.42489463651211</v>
+        <v>-3.435989783158838</v>
       </c>
       <c r="G97">
         <v>-0.09440158250270869</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.421129531100307</v>
+        <v>-3.441053075558693</v>
       </c>
       <c r="G98">
         <v>-0.1046921660477111</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.428404581998954</v>
+        <v>-3.446098829783348</v>
       </c>
       <c r="G99">
         <v>-0.1031819692103086</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.420871185962543</v>
+        <v>-3.445027221826122</v>
       </c>
       <c r="G100">
         <v>-0.1042745638374463</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.42671341209274</v>
+        <v>-3.449282401724695</v>
       </c>
       <c r="G101">
         <v>-0.1139861638253046</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.429853855841538</v>
+        <v>-3.445178784383638</v>
       </c>
       <c r="G102">
         <v>-0.1162858944561518</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.430282035544257</v>
+        <v>-3.450310775921533</v>
       </c>
       <c r="G103">
         <v>-0.104439397052384</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.43442365325704</v>
+        <v>-3.447911267546964</v>
       </c>
       <c r="G104">
         <v>-0.1181485801813293</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.421045185603747</v>
+        <v>-3.448966725389377</v>
       </c>
       <c r="G105">
         <v>-0.1168771659426984</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.428021031895566</v>
+        <v>-3.445727100702286</v>
       </c>
       <c r="G106">
         <v>-0.1251593539418421</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.425178113234685</v>
+        <v>-3.444597402771972</v>
       </c>
       <c r="G107">
         <v>-0.1283618626997094</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.430341044074841</v>
+        <v>-3.443972259611944</v>
       </c>
       <c r="G108">
         <v>-0.124756245122799</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.428685589603269</v>
+        <v>-3.447861081213921</v>
       </c>
       <c r="G109">
         <v>-0.1179502625152313</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.430705845271421</v>
+        <v>-3.442304204461546</v>
       </c>
       <c r="G110">
         <v>-0.135321363179739</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.429391038785725</v>
+        <v>-3.436888915780484</v>
       </c>
       <c r="G111">
         <v>-0.1273750303136651</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.421243562520276</v>
+        <v>-3.436752025247063</v>
       </c>
       <c r="G112">
         <v>-0.1286501575813777</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.425270147981969</v>
+        <v>-3.449554734671208</v>
       </c>
       <c r="G113">
         <v>-0.1286244178183034</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.423367119785071</v>
+        <v>-3.447265477794536</v>
       </c>
       <c r="G114">
         <v>-0.1374666184723412</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.42556441607123</v>
+        <v>-3.439515221590606</v>
       </c>
       <c r="G115">
         <v>-0.1365149214646308</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.421197813616768</v>
+        <v>-3.441967241903711</v>
       </c>
       <c r="G116">
         <v>-0.1416804331266914</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.432383211931904</v>
+        <v>-3.446048250246904</v>
       </c>
       <c r="G117">
         <v>-0.1547879281134823</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.428528516644679</v>
+        <v>-3.441697672644222</v>
       </c>
       <c r="G118">
         <v>-0.1528553294979123</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.414584248444351</v>
+        <v>-3.437009379948746</v>
       </c>
       <c r="G119">
         <v>-0.1379016315801445</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.418182782980805</v>
+        <v>-3.43128575923882</v>
       </c>
       <c r="G120">
         <v>-0.1373008188455129</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.41825007214313</v>
+        <v>-3.44519517254101</v>
       </c>
       <c r="G121">
         <v>-0.1368676187736617</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.413073600592197</v>
+        <v>-3.433978149304774</v>
       </c>
       <c r="G122">
         <v>-0.1450888001320521</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.41910971149048</v>
+        <v>-3.434647285222816</v>
       </c>
       <c r="G123">
         <v>-0.153047007701991</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.430127346294948</v>
+        <v>-3.434264473538877</v>
       </c>
       <c r="G124">
         <v>-0.159089533130373</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.419693101171969</v>
+        <v>-3.435209938369217</v>
       </c>
       <c r="G125">
         <v>-0.1574745907267903</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.414213700125402</v>
+        <v>-3.431920426368793</v>
       </c>
       <c r="G126">
         <v>-0.1501511171712506</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.416428893107184</v>
+        <v>-3.423621450871737</v>
       </c>
       <c r="G127">
         <v>-0.1454688435115776</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.415965439975626</v>
+        <v>-3.420362879634643</v>
       </c>
       <c r="G128">
         <v>-0.1595132195454134</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.416888580606698</v>
+        <v>-3.420236091106329</v>
       </c>
       <c r="G129">
         <v>-0.1521462840269128</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.420270984780966</v>
+        <v>-3.423043860795616</v>
       </c>
       <c r="G130">
         <v>-0.167662957694064</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.409851489003212</v>
+        <v>-3.413277877587146</v>
       </c>
       <c r="G131">
         <v>-0.1461944936468109</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.410080605621214</v>
+        <v>-3.416286257731325</v>
       </c>
       <c r="G132">
         <v>-0.1613167718776238</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.411890543129865</v>
+        <v>-3.41249486168772</v>
       </c>
       <c r="G133">
         <v>-0.1533906664125282</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.406441030374685</v>
+        <v>-3.426110508076128</v>
       </c>
       <c r="G134">
         <v>-0.1594327280206125</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.404125210133087</v>
+        <v>-3.413727070801655</v>
       </c>
       <c r="G135">
         <v>-0.1538622262877398</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.409716683140786</v>
+        <v>-3.410703531213349</v>
       </c>
       <c r="G136">
         <v>-0.1542233805701336</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.409563791090628</v>
+        <v>-3.410152101429847</v>
       </c>
       <c r="G137">
         <v>-0.1579514573124998</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.39847072845917</v>
+        <v>-3.422287571900665</v>
       </c>
       <c r="G138">
         <v>-0.1612394747455117</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.399154209876959</v>
+        <v>-3.406893037771138</v>
       </c>
       <c r="G140">
         <v>-0.160751864485984</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.38744784096585</v>
+        <v>-3.415271759542821</v>
       </c>
       <c r="G141">
         <v>-0.1529400358283621</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.385039415331683</v>
+        <v>-3.414553297688624</v>
       </c>
       <c r="G142">
         <v>-0.153973316048285</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.394316979174264</v>
+        <v>-3.404992388644786</v>
       </c>
       <c r="G143">
         <v>-0.1526301797400127</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.389583470857199</v>
+        <v>-3.410374812186057</v>
       </c>
       <c r="G144">
         <v>-0.1550058153577816</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.385286156904461</v>
+        <v>-3.406717669328913</v>
       </c>
       <c r="G145">
         <v>-0.1596966206627006</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.383686831433991</v>
+        <v>-3.403553950508051</v>
       </c>
       <c r="G146">
         <v>-0.1588205930116247</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.380726107294501</v>
+        <v>-3.402090037967075</v>
       </c>
       <c r="G147">
         <v>-0.1607937236257417</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.376918007159917</v>
+        <v>-3.398678479692018</v>
       </c>
       <c r="G148">
         <v>-0.1589077201628133</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.37924105793842</v>
+        <v>-3.395488710460111</v>
       </c>
       <c r="G149">
         <v>-0.163152867612971</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.374522324865682</v>
+        <v>-3.39268147074291</v>
       </c>
       <c r="G150">
         <v>-0.1493437962144009</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.371338485917535</v>
+        <v>-3.389380806989431</v>
       </c>
       <c r="G151">
         <v>-0.1589989458933896</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.371966040118818</v>
+        <v>-3.38879284799944</v>
       </c>
       <c r="G152">
         <v>-0.1610286925462787</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.370745338761621</v>
+        <v>-3.385492184245962</v>
       </c>
       <c r="G153">
         <v>-0.162345535122794</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.363344390093259</v>
+        <v>-3.381969731449328</v>
       </c>
       <c r="G154">
         <v>-0.156866683126087</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.360935560495673</v>
+        <v>-3.379162491732126</v>
       </c>
       <c r="G155">
         <v>-0.15209530022364</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.364625519037559</v>
+        <v>-3.376824880512272</v>
       </c>
       <c r="G156">
         <v>-0.1438663910212319</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.358154435254657</v>
+        <v>-3.372151570225114</v>
       </c>
       <c r="G157">
         <v>-0.1568259639420662</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.357924421452182</v>
+        <v>-3.371949409696247</v>
       </c>
       <c r="G158">
         <v>-0.155397452399624</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.354378518878804</v>
+        <v>-3.367059834184448</v>
       </c>
       <c r="G159">
         <v>-0.1534872405214769</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.348183897277815</v>
+        <v>-3.366334930261836</v>
       </c>
       <c r="G160">
         <v>-0.1532387703405753</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.347236876951214</v>
+        <v>-3.360975726252699</v>
       </c>
       <c r="G161">
         <v>-0.1485555614297089</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.347359370999926</v>
+        <v>-3.35260442291274</v>
       </c>
       <c r="G162">
         <v>-0.1513681385981391</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.342941489142324</v>
+        <v>-3.354844027243085</v>
       </c>
       <c r="G163">
         <v>-0.1513140332722025</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.339918121865062</v>
+        <v>-3.342926941844278</v>
       </c>
       <c r="G164">
         <v>-0.1501601252713187</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.334964600465503</v>
+        <v>-3.345358051879459</v>
       </c>
       <c r="G165">
         <v>-0.1442810898228697</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.332245261192298</v>
+        <v>-3.344387563374761</v>
       </c>
       <c r="G166">
         <v>-0.1420694867122272</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.336027574857539</v>
+        <v>-3.337153721071767</v>
       </c>
       <c r="G167">
         <v>-0.1325429515444643</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.328156358822662</v>
+        <v>-3.337540651285711</v>
       </c>
       <c r="G168">
         <v>-0.1446860776652161</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.320460712823916</v>
+        <v>-3.3342875786101</v>
       </c>
       <c r="G169">
         <v>-0.1389010870129845</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.321765507393267</v>
+        <v>-3.330876020335047</v>
       </c>
       <c r="G170">
         <v>-0.1420484393665096</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.317117466900444</v>
+        <v>-3.322128551953024</v>
       </c>
       <c r="G171">
         <v>-0.1332238355590774</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.312434785755982</v>
+        <v>-3.32331389516656</v>
       </c>
       <c r="G172">
         <v>-0.1313641409659996</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.307578846095137</v>
+        <v>-3.318693699775797</v>
       </c>
       <c r="G173">
         <v>-0.137620975889418</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.299069814244841</v>
+        <v>-3.311870583225675</v>
       </c>
       <c r="G175">
         <v>-0.1284482729088061</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.298634066710048</v>
+        <v>-3.309667662066334</v>
       </c>
       <c r="G176">
         <v>-0.1296097668459881</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.29055686703263</v>
+        <v>-3.30383882955985</v>
       </c>
       <c r="G177">
         <v>-0.1192885681987284</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.288080812871006</v>
+        <v>-3.301031589842651</v>
       </c>
       <c r="G178">
         <v>-0.126952915402133</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.288881886882423</v>
+        <v>-3.298224350125456</v>
       </c>
       <c r="G179">
         <v>-0.1304565967066359</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.28524665183843</v>
+        <v>-3.291791199061108</v>
       </c>
       <c r="G180">
         <v>-0.1251330100575464</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.28066713436919</v>
+        <v>-3.288379640786052</v>
       </c>
       <c r="G181">
         <v>-0.1215631118316615</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.281034574254248</v>
+        <v>-3.281527998290529</v>
       </c>
       <c r="G182">
         <v>-0.1283755740934273</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.27293452271697</v>
+        <v>-3.273598470931393</v>
       </c>
       <c r="G183">
         <v>-0.122197619227805</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.269214351590016</v>
+        <v>-3.274576834238934</v>
       </c>
       <c r="G184">
         <v>-0.1108290348330231</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.260571905821443</v>
+        <v>-3.270602033723708</v>
       </c>
       <c r="G185">
         <v>-0.1136791956755886</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.257933597300393</v>
+        <v>-3.258427021336674</v>
       </c>
       <c r="G187">
         <v>-0.1127491976877506</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.251519291598585</v>
+        <v>-3.258431751743156</v>
       </c>
       <c r="G188">
         <v>-0.1033058737236257</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.249178949618169</v>
+        <v>-3.252737609297184</v>
       </c>
       <c r="G189">
         <v>-0.1099746261589356</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.239935088693652</v>
+        <v>-3.249215156500552</v>
       </c>
       <c r="G190">
         <v>-0.1012885012013238</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.240350278705283</v>
+        <v>-3.244594961109782</v>
       </c>
       <c r="G191">
         <v>-0.09610448875400612</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.230289655823791</v>
+        <v>-3.239481341682724</v>
       </c>
       <c r="G192">
         <v>-0.09506274783480739</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.229285592650154</v>
+        <v>-3.234861146291958</v>
       </c>
       <c r="G193">
         <v>-0.09327531683914392</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.223783635504618</v>
+        <v>-3.230264746440123</v>
       </c>
       <c r="G194">
         <v>-0.08246584603810658</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.221864546965799</v>
+        <v>-3.225486065449903</v>
       </c>
       <c r="G195">
         <v>-0.08726796678082926</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.217372207573312</v>
+        <v>-3.221493984155926</v>
       </c>
       <c r="G196">
         <v>-0.08962052119134334</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.2114010353192</v>
+        <v>-3.216873788765156</v>
       </c>
       <c r="G197">
         <v>-0.07512878023934977</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.205708153136732</v>
+        <v>-3.211625479277592</v>
       </c>
       <c r="G198">
         <v>-0.08380269972239762</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.201079461184101</v>
+        <v>-3.207609602444681</v>
       </c>
       <c r="G199">
         <v>-0.07672112523661745</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.194330217045453</v>
+        <v>-3.202989407053909</v>
       </c>
       <c r="G200">
         <v>-0.07158572598786106</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.19294530955856</v>
+        <v>-3.198393007202075</v>
       </c>
       <c r="G201">
         <v>-0.07680614615919118</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.190350102456309</v>
+        <v>-3.19374901627237</v>
       </c>
       <c r="G202">
         <v>-0.07008186640196873</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.184224992543021</v>
+        <v>-3.189152616420534</v>
       </c>
       <c r="G203">
         <v>-0.06499835166907908</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.17451752723399</v>
+        <v>-3.184015201454548</v>
       </c>
       <c r="G204">
         <v>-0.06099812742799782</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.167070476131238</v>
+        <v>-3.179371210524843</v>
       </c>
       <c r="G205">
         <v>-0.05830002870888173</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.163591634541033</v>
+        <v>-3.174233795558856</v>
       </c>
       <c r="G206">
         <v>-0.05339635431235185</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.160996427438786</v>
+        <v>-3.169096380592869</v>
       </c>
       <c r="G207">
         <v>-0.05638984406935038</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.157099094814567</v>
+        <v>-3.161800134152594</v>
       </c>
       <c r="G208">
         <v>-0.05441460811678595</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.148428922846757</v>
+        <v>-3.154503887712319</v>
       </c>
       <c r="G209">
         <v>-0.04550770134634266</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.141132676406481</v>
+        <v>-3.147207641272044</v>
       </c>
       <c r="G210">
         <v>-0.04026739476349273</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.495998691694037</v>
+        <v>-3.503699341499401</v>
       </c>
       <c r="G221">
         <v>-0.06033190180815273</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.504227750855896</v>
+        <v>-3.510957941808331</v>
       </c>
       <c r="G222">
         <v>-0.09412558219267542</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.509117504924411</v>
+        <v>-3.509378618454085</v>
       </c>
       <c r="G223">
         <v>-0.131825479840264</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.437610825158026</v>
+        <v>-3.438010375635717</v>
       </c>
       <c r="G226">
         <v>-0.1411053338320243</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.388036036584637</v>
+        <v>-3.389726503132125</v>
       </c>
       <c r="G227">
         <v>-0.1256462364378812</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.335085299739656</v>
+        <v>-3.335320035446236</v>
       </c>
       <c r="G228">
         <v>-0.09826898714515042</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.265234682013203</v>
+        <v>-3.26635370355693</v>
       </c>
       <c r="G229">
         <v>-0.05511010270412164</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.550524547681168</v>
+        <v>-3.556560836511743</v>
       </c>
       <c r="G232">
         <v>-0.05270425102076359</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.559436256893688</v>
+        <v>-3.562592818610938</v>
       </c>
       <c r="G233">
         <v>-0.0866310891260742</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.556004472935519</v>
+        <v>-3.557916065281769</v>
       </c>
       <c r="G234">
         <v>-0.114074793206457</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.542568558219457</v>
+        <v>-3.544081717932556</v>
       </c>
       <c r="G235">
         <v>-0.1334690477616318</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.523316618342888</v>
+        <v>-3.523974416619922</v>
       </c>
       <c r="G236">
         <v>-0.1376917695020607</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.484066445258626</v>
+        <v>-3.484943166548271</v>
       </c>
       <c r="G237">
         <v>-0.1297578554255729</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.439757323431111</v>
+        <v>-3.442028111589952</v>
       </c>
       <c r="G238">
         <v>-0.1185755182573551</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.385225770349614</v>
+        <v>-3.385846394551016</v>
       </c>
       <c r="G239">
         <v>-0.09319506035771308</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.316432625005461</v>
+        <v>-3.317005268029474</v>
       </c>
       <c r="G240">
         <v>-0.0552010915519367</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.59275369755599</v>
+        <v>-3.59524649402874</v>
       </c>
       <c r="G243">
         <v>-0.0483340946940598</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.598446015096642</v>
+        <v>-3.600987622240948</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.59385629074659</v>
+        <v>-3.596270402137392</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.581723369043178</v>
+        <v>-3.584333305635764</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.554950933443667</v>
+        <v>-3.558135211062238</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.522790053690676</v>
+        <v>-3.524634052896638</v>
       </c>
       <c r="G248">
         <v>-0.1264759490507408</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.475638191737672</v>
+        <v>-3.477539834636872</v>
       </c>
       <c r="G249">
         <v>-0.1143043408555013</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.420457596123914</v>
+        <v>-3.422078235275344</v>
       </c>
       <c r="G250">
         <v>-0.08902113476895468</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.352725103690543</v>
+        <v>-3.353526431384701</v>
       </c>
       <c r="G251">
         <v>-0.05118603186279547</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.620448290998097</v>
+        <v>-3.623809769986726</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.625920434994208</v>
+        <v>-3.628044942811344</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.621295678985315</v>
+        <v>-3.624625518429067</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.608634563044572</v>
+        <v>-3.612768174386246</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.583430491401389</v>
+        <v>-3.586371269318691</v>
       </c>
       <c r="G258">
         <v>-0.1312688866138383</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.547304765643017</v>
+        <v>-3.550052612715232</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.500862476969535</v>
+        <v>-3.50389043624508</v>
       </c>
       <c r="G260">
         <v>-0.1086450977795763</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.446487853181176</v>
+        <v>-3.448038500321196</v>
       </c>
       <c r="G261">
         <v>-0.08522695687671566</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.379626436007245</v>
+        <v>-3.38075873163944</v>
       </c>
       <c r="G262">
         <v>-0.04740952749626015</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.6432880719936</v>
+        <v>-3.645481486369234</v>
       </c>
       <c r="G265">
         <v>-0.04576390405708919</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.6483316257518</v>
+        <v>-3.650028295174822</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.644867206632856</v>
+        <v>-3.647819177755413</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.62817987335108</v>
+        <v>-3.6323052121206</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.602978719533329</v>
+        <v>-3.607812782602145</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.566765596305372</v>
+        <v>-3.571135829127073</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.521547803767239</v>
+        <v>-3.525507110809783</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.466756814318654</v>
+        <v>-3.469350587410634</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.400293814502291</v>
+        <v>-3.401344115252713</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.661562950154087</v>
+        <v>-3.665577482000916</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.665960102650564</v>
+        <v>-3.667588731984885</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.659540028875049</v>
+        <v>-3.663116963128972</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.644653558341777</v>
+        <v>-3.649296297752756</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.617946445144518</v>
+        <v>-3.623509173081237</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.582602500624967</v>
+        <v>-3.588178798168011</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.537616835707044</v>
+        <v>-3.542755468538582</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.482077774480341</v>
+        <v>-3.485356347405439</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.416732760444077</v>
+        <v>-3.417868417586599</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.675573833996958</v>
+        <v>-3.680759960231641</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.679164094494815</v>
+        <v>-3.681203310544149</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.67293420455729</v>
+        <v>-3.676772672016486</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.656392382907451</v>
+        <v>-3.661612095359118</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.629803389871966</v>
+        <v>-3.63579304989378</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.594246064283065</v>
+        <v>-3.600648798832203</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.550887320821248</v>
+        <v>-3.556131811191678</v>
       </c>
       <c r="G293">
         <v>-0.1033455494849609</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.495326148371808</v>
+        <v>-3.499001127179557</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.43049715305136</v>
+        <v>-3.431850793763203</v>
       </c>
       <c r="G295">
         <v>-0.04435049013109038</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.688910417222341</v>
+        <v>-3.689921639383018</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.690744320619274</v>
+        <v>-3.693479834959674</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.683356734078173</v>
+        <v>-3.687275315982851</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.666503411026026</v>
+        <v>-3.672880043541119</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.641196069831589</v>
+        <v>-3.647839835105943</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.605450089852965</v>
+        <v>-3.613040732532785</v>
       </c>
       <c r="G303">
         <v>-0.1149126052184397</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.560372614841932</v>
+        <v>-3.566722152756435</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.506035085526701</v>
+        <v>-3.510139922039569</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.441671787551187</v>
+        <v>-3.443214656076901</v>
       </c>
       <c r="G306">
         <v>-0.04352850405268022</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.698822006063433</v>
+        <v>-3.699740270467387</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.700602929094562</v>
+        <v>-3.703714403375888</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.692604277318945</v>
+        <v>-3.697559606953791</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.676273748254618</v>
+        <v>-3.682690520811915</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.649479487979447</v>
+        <v>-3.657037024406682</v>
       </c>
       <c r="G313">
         <v>-0.1177341668886722</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.613636314454612</v>
+        <v>-3.621221409305718</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.569180114755774</v>
+        <v>-3.575541940776832</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.515391663845063</v>
+        <v>-3.5196662096056</v>
       </c>
       <c r="G316">
         <v>-0.07655918513452487</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.451292990912851</v>
+        <v>-3.452547872021951</v>
       </c>
       <c r="G317">
         <v>-0.04253678825237683</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.303882264266571</v>
+        <v>-3.31030079208802</v>
       </c>
       <c r="G31">
         <v>-0.1852516340570558</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.296934052960069</v>
+        <v>-3.304967759472519</v>
       </c>
       <c r="G34">
         <v>-0.1927472840882496</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.301574903243021</v>
+        <v>-3.303190081934019</v>
       </c>
       <c r="G35">
         <v>-0.187651723545796</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.299797225704522</v>
+        <v>-3.301412404395522</v>
       </c>
       <c r="G36">
         <v>-0.1866669761351676</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.291396334554526</v>
+        <v>-3.296241870627521</v>
       </c>
       <c r="G38">
         <v>-0.206665641341099</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.275425489924747</v>
+        <v>-3.282832944557025</v>
       </c>
       <c r="G41">
         <v>-0.2086232193006734</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.254562412572537</v>
+        <v>-3.257792769954538</v>
       </c>
       <c r="G46">
         <v>-0.2136954152124546</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.230265805474687</v>
+        <v>-3.236307950429045</v>
       </c>
       <c r="G49">
         <v>-0.1956607675337472</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.15990026030018</v>
+        <v>-3.165392777088593</v>
       </c>
       <c r="G58">
         <v>-0.1790166686062822</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.399140938819357</v>
+        <v>-3.401922747465768</v>
       </c>
       <c r="G80">
         <v>-0.04869232493509434</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.406730558759874</v>
+        <v>-3.409512367406288</v>
       </c>
       <c r="G81">
         <v>-0.05035203964431822</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.406961600833721</v>
+        <v>-3.409743409480133</v>
       </c>
       <c r="G82">
         <v>-0.05460564332459761</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.406205794835005</v>
+        <v>-3.407686066943851</v>
       </c>
       <c r="G83">
         <v>-0.06085968575075995</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.424194710833129</v>
+        <v>-3.424688134869413</v>
       </c>
       <c r="G87">
         <v>-0.07310799793935363</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.421381562298131</v>
+        <v>-3.422368410370697</v>
       </c>
       <c r="G89">
         <v>-0.08102635484145049</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.426444854697983</v>
+        <v>-3.429720087380683</v>
       </c>
       <c r="G90">
         <v>-0.08105492876372189</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.429516912777501</v>
+        <v>-3.432298721423916</v>
       </c>
       <c r="G91">
         <v>-0.08636531646390067</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.430300586246893</v>
+        <v>-3.433575818929585</v>
       </c>
       <c r="G92">
         <v>-0.09070304400961016</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.432088645964051</v>
+        <v>-3.433568918072894</v>
       </c>
       <c r="G93">
         <v>-0.09408137492202906</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.433424950828979</v>
+        <v>-3.435654128079851</v>
       </c>
       <c r="G94">
         <v>-0.09354118198146644</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.431682296757701</v>
+        <v>-3.433162568866551</v>
       </c>
       <c r="G95">
         <v>-0.09582956681364774</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.442190791731863</v>
+        <v>-3.447260984988408</v>
       </c>
       <c r="G96">
         <v>-0.09560532539301203</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.435989783158838</v>
+        <v>-3.437470055267684</v>
       </c>
       <c r="G97">
         <v>-0.09440158250270869</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.441053075558693</v>
+        <v>-3.446795428422805</v>
       </c>
       <c r="G98">
         <v>-0.1046921660477111</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.446098829783348</v>
+        <v>-3.450616391644355</v>
       </c>
       <c r="G99">
         <v>-0.1031819692103086</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.445178784383638</v>
+        <v>-3.453299638692723</v>
       </c>
       <c r="G102">
         <v>-0.1162858944561518</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.450310775921533</v>
+        <v>-3.456078733678752</v>
       </c>
       <c r="G103">
         <v>-0.104439397052384</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.447911267546964</v>
+        <v>-3.451609291124015</v>
       </c>
       <c r="G104">
         <v>-0.1181485801813293</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.448966725389377</v>
+        <v>-3.458646279669012</v>
       </c>
       <c r="G105">
         <v>-0.1168771659426984</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-3.445727100702286</v>
+        <v>-3.459192010207865</v>
       </c>
       <c r="G106">
         <v>-0.1251593539418421</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-3.444597402771972</v>
+        <v>-3.459244316710438</v>
       </c>
       <c r="G107">
         <v>-0.1283618626997094</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.443972259611944</v>
+        <v>-3.454838268711263</v>
       </c>
       <c r="G108">
         <v>-0.124756245122799</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-3.447861081213921</v>
+        <v>-3.459348929715584</v>
       </c>
       <c r="G109">
         <v>-0.1179502625152313</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-3.442304204461546</v>
+        <v>-3.459401236218157</v>
       </c>
       <c r="G110">
         <v>-0.135321363179739</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.436888915780484</v>
+        <v>-3.457717789506138</v>
       </c>
       <c r="G111">
         <v>-0.1273750303136651</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.436752025247063</v>
+        <v>-3.457532153078175</v>
       </c>
       <c r="G112">
         <v>-0.1286501575813777</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.449554734671208</v>
+        <v>-3.456086649296692</v>
       </c>
       <c r="G113">
         <v>-0.1286244178183034</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.447265477794536</v>
+        <v>-3.447797068312849</v>
       </c>
       <c r="G114">
         <v>-0.1374666184723412</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.439515221590606</v>
+        <v>-3.454710990192992</v>
       </c>
       <c r="G115">
         <v>-0.1365149214646308</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.441697672644222</v>
+        <v>-3.453205179574316</v>
       </c>
       <c r="G118">
         <v>-0.1528553294979123</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-3.437009379948746</v>
+        <v>-3.455483353451894</v>
       </c>
       <c r="G119">
         <v>-0.1379016315801445</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.43128575923882</v>
+        <v>-3.453272503417866</v>
       </c>
       <c r="G120">
         <v>-0.1373008188455129</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.44519517254101</v>
+        <v>-3.445233339023043</v>
       </c>
       <c r="G121">
         <v>-0.1368676187736617</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.433978149304774</v>
+        <v>-3.43500735105567</v>
       </c>
       <c r="G122">
         <v>-0.1450888001320521</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.434647285222816</v>
+        <v>-3.44730982990424</v>
       </c>
       <c r="G123">
         <v>-0.153047007701991</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.434264473538877</v>
+        <v>-3.444881270006804</v>
       </c>
       <c r="G124">
         <v>-0.159089533130373</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.435209938369217</v>
+        <v>-3.446256670618477</v>
       </c>
       <c r="G125">
         <v>-0.1574745907267903</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.431920426368793</v>
+        <v>-3.440624596708283</v>
       </c>
       <c r="G126">
         <v>-0.1501511171712506</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.423621450871737</v>
+        <v>-3.428598589532471</v>
       </c>
       <c r="G127">
         <v>-0.1454688435115776</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.420362879634643</v>
+        <v>-3.431328264681331</v>
       </c>
       <c r="G128">
         <v>-0.1595132195454134</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.420236091106329</v>
+        <v>-3.431919433469673</v>
       </c>
       <c r="G129">
         <v>-0.1521462840269128</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.423043860795616</v>
+        <v>-3.431017229109346</v>
       </c>
       <c r="G130">
         <v>-0.167662957694064</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.413277877587146</v>
+        <v>-3.422444480823496</v>
       </c>
       <c r="G131">
         <v>-0.1461944936468109</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.416286257731325</v>
+        <v>-3.418598205214149</v>
       </c>
       <c r="G132">
         <v>-0.1613167718776238</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.41249486168772</v>
+        <v>-3.414239966806383</v>
       </c>
       <c r="G133">
         <v>-0.1533906664125282</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.426110508076128</v>
+        <v>-3.428722797113491</v>
       </c>
       <c r="G134">
         <v>-0.1594327280206125</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.413727070801655</v>
+        <v>-3.420139431491372</v>
       </c>
       <c r="G135">
         <v>-0.1538622262877398</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.410703531213349</v>
+        <v>-3.414010118889552</v>
       </c>
       <c r="G136">
         <v>-0.1542233805701336</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.410152101429847</v>
+        <v>-3.413689384535355</v>
       </c>
       <c r="G137">
         <v>-0.1579514573124998</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.422287571900665</v>
+        <v>-3.425486898717127</v>
       </c>
       <c r="G138">
         <v>-0.1612394747455117</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.40489883400436</v>
+        <v>-3.409117350903572</v>
       </c>
       <c r="G139">
         <v>-0.1695896769623577</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.415271759542821</v>
+        <v>-3.417977662323002</v>
       </c>
       <c r="G141">
         <v>-0.1529400358283621</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.414553297688624</v>
+        <v>-3.414813943502138</v>
       </c>
       <c r="G142">
         <v>-0.153973316048285</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.404992388644786</v>
+        <v>-3.406976671601904</v>
       </c>
       <c r="G143">
         <v>-0.1526301797400127</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.410374812186057</v>
+        <v>-3.411855084294901</v>
       </c>
       <c r="G144">
         <v>-0.1550058153577816</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.398678479692018</v>
+        <v>-3.400021806868243</v>
       </c>
       <c r="G148">
         <v>-0.1589077201628133</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.389380806989431</v>
+        <v>-3.389874231025711</v>
       </c>
       <c r="G151">
         <v>-0.1589989458933896</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.38879284799944</v>
+        <v>-3.389397166557297</v>
       </c>
       <c r="G152">
         <v>-0.1610286925462787</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.385492184245962</v>
+        <v>-3.387439829980041</v>
       </c>
       <c r="G153">
         <v>-0.162345535122794</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.381969731449328</v>
+        <v>-3.383782687122899</v>
       </c>
       <c r="G154">
         <v>-0.156866683126087</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.379162491732126</v>
+        <v>-3.380371128847838</v>
       </c>
       <c r="G155">
         <v>-0.15209530022364</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.372151570225114</v>
+        <v>-3.374152330855584</v>
       </c>
       <c r="G157">
         <v>-0.1568259639420662</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.360975726252699</v>
+        <v>-3.362184363368411</v>
       </c>
       <c r="G161">
         <v>-0.1485555614297089</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.35260442291274</v>
+        <v>-3.355021697144166</v>
       </c>
       <c r="G162">
         <v>-0.1513681385981391</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.342926941844278</v>
+        <v>-3.346032517284748</v>
       </c>
       <c r="G164">
         <v>-0.1501601252713187</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.345358051879459</v>
+        <v>-3.349007758765533</v>
       </c>
       <c r="G165">
         <v>-0.1442810898228697</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.337153721071767</v>
+        <v>-3.33783098042501</v>
       </c>
       <c r="G167">
         <v>-0.1325429515444643</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.3342875786101</v>
+        <v>-3.335741800307899</v>
       </c>
       <c r="G169">
         <v>-0.1389010870129845</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.330876020335047</v>
+        <v>-3.332688976008617</v>
       </c>
       <c r="G170">
         <v>-0.1420484393665096</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.322128551953024</v>
+        <v>-3.322779614714007</v>
       </c>
       <c r="G171">
         <v>-0.1332238355590774</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.32331389516656</v>
+        <v>-3.324657222342785</v>
       </c>
       <c r="G172">
         <v>-0.1313641409659996</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.318693699775797</v>
+        <v>-3.32003702695202</v>
       </c>
       <c r="G173">
         <v>-0.137620975889418</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.310526917432834</v>
+        <v>-3.311202904225956</v>
       </c>
       <c r="G174">
         <v>-0.1330047923792923</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.311870583225675</v>
+        <v>-3.312474901783531</v>
       </c>
       <c r="G175">
         <v>-0.1284482729088061</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.309667662066334</v>
+        <v>-3.310541360745211</v>
       </c>
       <c r="G176">
         <v>-0.1296097668459881</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.291791199061108</v>
+        <v>-3.292342402722575</v>
       </c>
       <c r="G180">
         <v>-0.1251330100575464</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.273598470931393</v>
+        <v>-3.278329732893928</v>
       </c>
       <c r="G183">
         <v>-0.122197619227805</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.274576834238934</v>
+        <v>-3.274629949135323</v>
       </c>
       <c r="G184">
         <v>-0.1108290348330231</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.270602033723708</v>
+        <v>-3.27063786784134</v>
       </c>
       <c r="G185">
         <v>-0.1136791956755886</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.252737609297184</v>
+        <v>-3.252761404836119</v>
       </c>
       <c r="G189">
         <v>-0.1099746261589356</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.239481341682724</v>
+        <v>-3.239974765719005</v>
       </c>
       <c r="G192">
         <v>-0.09506274783480739</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.234861146291958</v>
+        <v>-3.235354570328239</v>
       </c>
       <c r="G193">
         <v>-0.09327531683914392</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.225486065449903</v>
+        <v>-3.225509860988838</v>
       </c>
       <c r="G195">
         <v>-0.08726796678082926</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.211625479277592</v>
+        <v>-3.21222979783545</v>
       </c>
       <c r="G198">
         <v>-0.08380269972239762</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.503699341499401</v>
+        <v>-3.508036210566748</v>
       </c>
       <c r="G221">
         <v>-0.06033190180815273</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.510957941808331</v>
+        <v>-3.526596928079625</v>
       </c>
       <c r="G222">
         <v>-0.09412558219267542</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.509378618454085</v>
+        <v>-3.510228038120994</v>
       </c>
       <c r="G223">
         <v>-0.131825479840264</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.492047849531524</v>
+        <v>-3.508839122118275</v>
       </c>
       <c r="G224">
         <v>-0.1390626030852369</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.46657212360929</v>
+        <v>-3.469258891758404</v>
       </c>
       <c r="G225">
         <v>-0.1421968177458799</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.438010375635717</v>
+        <v>-3.440675475270815</v>
       </c>
       <c r="G226">
         <v>-0.1411053338320243</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.389726503132125</v>
+        <v>-3.390096393869912</v>
       </c>
       <c r="G227">
         <v>-0.1256462364378812</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.335320035446236</v>
+        <v>-3.336303512965743</v>
       </c>
       <c r="G228">
         <v>-0.09826898714515042</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.556560836511743</v>
+        <v>-3.560745795236214</v>
       </c>
       <c r="G232">
         <v>-0.05270425102076359</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.562592818610938</v>
+        <v>-3.567687719158663</v>
       </c>
       <c r="G233">
         <v>-0.0866310891260742</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.557916065281769</v>
+        <v>-3.563796406483932</v>
       </c>
       <c r="G234">
         <v>-0.114074793206457</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.484943166548271</v>
+        <v>-3.485713231848834</v>
       </c>
       <c r="G237">
         <v>-0.1297578554255729</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.442028111589952</v>
+        <v>-3.442444747035496</v>
       </c>
       <c r="G238">
         <v>-0.1185755182573551</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.385846394551016</v>
+        <v>-3.386968304902092</v>
       </c>
       <c r="G239">
         <v>-0.09319506035771308</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.317005268029474</v>
+        <v>-3.317323370165906</v>
       </c>
       <c r="G240">
         <v>-0.0552010915519367</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.59524649402874</v>
+        <v>-3.600961450804894</v>
       </c>
       <c r="G243">
         <v>-0.0483340946940598</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.600987622240948</v>
+        <v>-3.60422420453766</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.596270402137392</v>
+        <v>-3.598206442096588</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.584333305635764</v>
+        <v>-3.585315991713935</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.558135211062238</v>
+        <v>-3.558888662509813</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.524634052896638</v>
+        <v>-3.525163560949915</v>
       </c>
       <c r="G248">
         <v>-0.1264759490507408</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.477539834636872</v>
+        <v>-3.47832705942729</v>
       </c>
       <c r="G249">
         <v>-0.1143043408555013</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.422078235275344</v>
+        <v>-3.422287965236352</v>
       </c>
       <c r="G250">
         <v>-0.08902113476895468</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.353526431384701</v>
+        <v>-3.357238355231502</v>
       </c>
       <c r="G251">
         <v>-0.05118603186279547</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.623809769986726</v>
+        <v>-3.626289750819234</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.628044942811344</v>
+        <v>-3.631175742613001</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.624625518429067</v>
+        <v>-3.62600906526217</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.612768174386246</v>
+        <v>-3.613239617678861</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.586371269318691</v>
+        <v>-3.587924518527914</v>
       </c>
       <c r="G258">
         <v>-0.1312688866138383</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.550052612715232</v>
+        <v>-3.550626598718285</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.50389043624508</v>
+        <v>-3.504679746821697</v>
       </c>
       <c r="G260">
         <v>-0.1086450977795763</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.448038500321196</v>
+        <v>-3.449232562153904</v>
       </c>
       <c r="G261">
         <v>-0.08522695687671566</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.38075873163944</v>
+        <v>-3.384456416805152</v>
       </c>
       <c r="G262">
         <v>-0.04740952749626015</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.645481486369234</v>
+        <v>-3.64772948340139</v>
       </c>
       <c r="G265">
         <v>-0.04576390405708919</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.650028295174822</v>
+        <v>-3.652690241570424</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.647819177755413</v>
+        <v>-3.648862084412166</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.6323052121206</v>
+        <v>-3.633426604024468</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.607812782602145</v>
+        <v>-3.608775430085359</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.571135829127073</v>
+        <v>-3.571171090835062</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.525507110809783</v>
+        <v>-3.52666151665543</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.469350587410634</v>
+        <v>-3.469734688667278</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401344115252713</v>
+        <v>-3.401432869343558</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.665577482000916</v>
+        <v>-3.666361713410413</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.667588731984885</v>
+        <v>-3.668778999379501</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.663116963128972</v>
+        <v>-3.664258012971775</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.649296297752756</v>
+        <v>-3.650444249721424</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.623509173081237</v>
+        <v>-3.624338668798694</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.588178798168011</v>
+        <v>-3.588955046468058</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.542755468538582</v>
+        <v>-3.543070684646939</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.485356347405439</v>
+        <v>-3.485523397117297</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.417868417586599</v>
+        <v>-3.41799626768977</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.680759960231641</v>
+        <v>-3.681233361575496</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.681203310544149</v>
+        <v>-3.681798946967459</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.676772672016486</v>
+        <v>-3.67805890570722</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.661612095359118</v>
+        <v>-3.662827976772839</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.63579304989378</v>
+        <v>-3.637042416755344</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.600648798832203</v>
+        <v>-3.601779264528961</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.556131811191678</v>
+        <v>-3.557480084294167</v>
       </c>
       <c r="G293">
         <v>-0.1033455494849609</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.499001127179557</v>
+        <v>-3.499822676198156</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.431850793763203</v>
+        <v>-3.432105523409418</v>
       </c>
       <c r="G295">
         <v>-0.04435049013109038</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.689921639383018</v>
+        <v>-3.690929013206868</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.693479834959674</v>
+        <v>-3.695053183394251</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.687275315982851</v>
+        <v>-3.688426512889673</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.672880043541119</v>
+        <v>-3.674176015781705</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.647839835105943</v>
+        <v>-3.649472556533567</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.613040732532785</v>
+        <v>-3.615190197444694</v>
       </c>
       <c r="G303">
         <v>-0.1149126052184397</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.566722152756435</v>
+        <v>-3.56822092435552</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.510139922039569</v>
+        <v>-3.510933956270584</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.443214656076901</v>
+        <v>-3.443277185845505</v>
       </c>
       <c r="G306">
         <v>-0.04352850405268022</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.699740270467387</v>
+        <v>-3.700755680212873</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.703714403375888</v>
+        <v>-3.704813505419399</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.697559606953791</v>
+        <v>-3.699055965929022</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.682690520811915</v>
+        <v>-3.684100987900736</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.657037024406682</v>
+        <v>-3.659039965519595</v>
       </c>
       <c r="G313">
         <v>-0.1177341668886722</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.621221409305718</v>
+        <v>-3.623062591656356</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.575541940776832</v>
+        <v>-3.577490601685523</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.5196662096056</v>
+        <v>-3.520889171730816</v>
       </c>
       <c r="G316">
         <v>-0.07655918513452487</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.452547872021951</v>
+        <v>-3.452741432744958</v>
       </c>
       <c r="G317">
         <v>-0.04253678825237683</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.293068003629465</v>
+        <v>-3.296404369475023</v>
       </c>
       <c r="G37">
         <v>-0.197457162955762</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.260401385163255</v>
+        <v>-3.267808839795534</v>
       </c>
       <c r="G44">
         <v>-0.1865837669536827</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.241315985349549</v>
+        <v>-3.242931164040547</v>
       </c>
       <c r="G48">
         <v>-0.2050772858760024</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.407686066943851</v>
+        <v>-3.412262836164115</v>
       </c>
       <c r="G83">
         <v>-0.06085968575075995</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.414316706282484</v>
+        <v>-3.415303554355046</v>
       </c>
       <c r="G86">
         <v>-0.06807455931998119</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.429720087380683</v>
+        <v>-3.430213511416966</v>
       </c>
       <c r="G90">
         <v>-0.08105492876372189</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.456078733678752</v>
+        <v>-3.457061394555017</v>
       </c>
       <c r="G103">
         <v>-0.104439397052384</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.451609291124015</v>
+        <v>-3.454391099770438</v>
       </c>
       <c r="G104">
         <v>-0.1181485801813293</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.445233339023043</v>
+        <v>-3.445305484790802</v>
       </c>
       <c r="G121">
         <v>-0.1368676187736617</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.44730982990424</v>
+        <v>-3.447898140243459</v>
       </c>
       <c r="G123">
         <v>-0.153047007701991</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.444881270006804</v>
+        <v>-3.44555842462076</v>
       </c>
       <c r="G124">
         <v>-0.159089533130373</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.440624596708283</v>
+        <v>-3.441832069280431</v>
       </c>
       <c r="G126">
         <v>-0.1501511171712506</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.428598589532471</v>
+        <v>-3.431548834858879</v>
       </c>
       <c r="G127">
         <v>-0.1454688435115776</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.431328264681331</v>
+        <v>-3.435784964810402</v>
       </c>
       <c r="G128">
         <v>-0.1595132195454134</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.431919433469673</v>
+        <v>-3.432412857505955</v>
       </c>
       <c r="G129">
         <v>-0.1521462840269128</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.431017229109346</v>
+        <v>-3.433435883917444</v>
       </c>
       <c r="G130">
         <v>-0.167662957694064</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.418598205214149</v>
+        <v>-3.419623219768741</v>
       </c>
       <c r="G132">
         <v>-0.1613167718776238</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.414239966806383</v>
+        <v>-3.415534204895587</v>
       </c>
       <c r="G133">
         <v>-0.1533906664125282</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.420139431491372</v>
+        <v>-3.421693121928096</v>
       </c>
       <c r="G135">
         <v>-0.1538622262877398</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.414010118889552</v>
+        <v>-3.414504815485952</v>
       </c>
       <c r="G136">
         <v>-0.1542233805701336</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.413689384535355</v>
+        <v>-3.417021469088136</v>
       </c>
       <c r="G137">
         <v>-0.1579514573124998</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.409117350903572</v>
+        <v>-3.410875549604687</v>
       </c>
       <c r="G139">
         <v>-0.1695896769623577</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.406893037771138</v>
+        <v>-3.408936260096491</v>
       </c>
       <c r="G140">
         <v>-0.160751864485984</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.406717669328913</v>
+        <v>-3.407704517401476</v>
       </c>
       <c r="G145">
         <v>-0.1596966206627006</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.400021806868243</v>
+        <v>-3.401476028566043</v>
       </c>
       <c r="G148">
         <v>-0.1589077201628133</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.395488710460111</v>
+        <v>-3.396475558532674</v>
       </c>
       <c r="G149">
         <v>-0.163152867612971</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.389874231025711</v>
+        <v>-3.393054309414444</v>
       </c>
       <c r="G151">
         <v>-0.1589989458933896</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.367059834184448</v>
+        <v>-3.368403161360672</v>
       </c>
       <c r="G159">
         <v>-0.1534872405214769</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.362184363368411</v>
+        <v>-3.362923371986779</v>
       </c>
       <c r="G161">
         <v>-0.1485555614297089</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.346032517284748</v>
+        <v>-3.346823481056453</v>
       </c>
       <c r="G164">
         <v>-0.1501601252713187</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.33783098042501</v>
+        <v>-3.338435298982867</v>
       </c>
       <c r="G167">
         <v>-0.1325429515444643</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.311202904225956</v>
+        <v>-3.312067868597328</v>
       </c>
       <c r="G174">
         <v>-0.1330047923792923</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.312474901783531</v>
+        <v>-3.313630424002855</v>
       </c>
       <c r="G175">
         <v>-0.1284482729088061</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.288379640786052</v>
+        <v>-3.288983959343908</v>
       </c>
       <c r="G181">
         <v>-0.1215631118316615</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.278329732893928</v>
+        <v>-3.278823156930208</v>
       </c>
       <c r="G183">
         <v>-0.122197619227805</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.262888731127998</v>
+        <v>-3.26351684522479</v>
       </c>
       <c r="G186">
         <v>-0.1104135405502263</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.258427021336674</v>
+        <v>-3.262606114175509</v>
       </c>
       <c r="G187">
         <v>-0.1127491976877506</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.252761404836119</v>
+        <v>-3.253365723393975</v>
       </c>
       <c r="G189">
         <v>-0.1099746261589356</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.19374901627237</v>
+        <v>-3.193772811811305</v>
       </c>
       <c r="G202">
         <v>-0.07008186640196873</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.184015201454548</v>
+        <v>-3.184508625490829</v>
       </c>
       <c r="G204">
         <v>-0.06099812742799782</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.510228038120994</v>
+        <v>-3.510968558980921</v>
       </c>
       <c r="G223">
         <v>-0.131825479840264</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.508839122118275</v>
+        <v>-3.509110171565044</v>
       </c>
       <c r="G224">
         <v>-0.1390626030852369</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.469258891758404</v>
+        <v>-3.469800990651934</v>
       </c>
       <c r="G225">
         <v>-0.1421968177458799</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.560745795236214</v>
+        <v>-3.560777482737471</v>
       </c>
       <c r="G232">
         <v>-0.05270425102076359</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.567687719158663</v>
+        <v>-3.568526173981462</v>
       </c>
       <c r="G233">
         <v>-0.0866310891260742</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.563796406483932</v>
+        <v>-3.565608479586915</v>
       </c>
       <c r="G234">
         <v>-0.114074793206457</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.544081717932556</v>
+        <v>-3.545455690560937</v>
       </c>
       <c r="G235">
         <v>-0.1334690477616318</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.523974416619922</v>
+        <v>-3.524103709549215</v>
       </c>
       <c r="G236">
         <v>-0.1376917695020607</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.386968304902092</v>
+        <v>-3.387097597831384</v>
       </c>
       <c r="G239">
         <v>-0.09319506035771308</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.317323370165906</v>
+        <v>-3.321440559020201</v>
       </c>
       <c r="G240">
         <v>-0.0552010915519367</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.600961450804894</v>
+        <v>-3.601551606048941</v>
       </c>
       <c r="G243">
         <v>-0.0483340946940598</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.60422420453766</v>
+        <v>-3.608489395306997</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.598206442096588</v>
+        <v>-3.598620886110161</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.585315991713935</v>
+        <v>-3.585639026288872</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.558888662509813</v>
+        <v>-3.559242224329872</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.525163560949915</v>
+        <v>-3.526001402005869</v>
       </c>
       <c r="G248">
         <v>-0.1264759490507408</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.47832705942729</v>
+        <v>-3.478499137311218</v>
       </c>
       <c r="G249">
         <v>-0.1143043408555013</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.357238355231502</v>
+        <v>-3.357483270882429</v>
       </c>
       <c r="G251">
         <v>-0.05118603186279547</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.626289750819234</v>
+        <v>-3.62738639644687</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.631175742613001</v>
+        <v>-3.631677193860583</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.62600906526217</v>
+        <v>-3.626280660377973</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.613239617678861</v>
+        <v>-3.613406159899054</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.587924518527914</v>
+        <v>-3.588370579494781</v>
       </c>
       <c r="G258">
         <v>-0.1312688866138383</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.550626598718285</v>
+        <v>-3.550746774571696</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.504679746821697</v>
+        <v>-3.504702035096184</v>
       </c>
       <c r="G260">
         <v>-0.1086450977795763</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.449232562153904</v>
+        <v>-3.449406965457094</v>
       </c>
       <c r="G261">
         <v>-0.08522695687671566</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.64772948340139</v>
+        <v>-3.649916315199622</v>
       </c>
       <c r="G265">
         <v>-0.04576390405708919</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.652690241570424</v>
+        <v>-3.653583510052443</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.648862084412166</v>
+        <v>-3.649102833489123</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.633426604024468</v>
+        <v>-3.633543256072572</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.608775430085359</v>
+        <v>-3.608881215209326</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.571171090835062</v>
+        <v>-3.571241614251039</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.52666151665543</v>
+        <v>-3.527092362396725</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.469734688667278</v>
+        <v>-3.469901120220017</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401432869343558</v>
+        <v>-3.401465750152735</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.666361713410413</v>
+        <v>-3.666412276905243</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.668778999379501</v>
+        <v>-3.669443081996302</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.664258012971775</v>
+        <v>-3.665176403264538</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.650444249721424</v>
+        <v>-3.650625279713852</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.624338668798694</v>
+        <v>-3.624851141956078</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.588955046468058</v>
+        <v>-3.589195451145059</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.543070684646939</v>
+        <v>-3.543272618932732</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.485523397117297</v>
+        <v>-3.485762087059434</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.41799626768977</v>
+        <v>-3.418132607107577</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.681233361575496</v>
+        <v>-3.681252099197128</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.681798946967459</v>
+        <v>-3.682637707859977</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.67805890570722</v>
+        <v>-3.678168778200354</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.662827976772839</v>
+        <v>-3.663104297721269</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.637042416755344</v>
+        <v>-3.637367193271452</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.601779264528961</v>
+        <v>-3.602136054969643</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.557480084294167</v>
+        <v>-3.557530392422001</v>
       </c>
       <c r="G293">
         <v>-0.1033455494849609</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.432105523409418</v>
+        <v>-3.432157312715465</v>
       </c>
       <c r="G295">
         <v>-0.04435049013109038</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.690929013206868</v>
+        <v>-3.691306239006615</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.695053183394251</v>
+        <v>-3.695959344633144</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.688426512889673</v>
+        <v>-3.688612020136051</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.674176015781705</v>
+        <v>-3.674551631371738</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.649472556533567</v>
+        <v>-3.649672866020831</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.615190197444694</v>
+        <v>-3.615258555478319</v>
       </c>
       <c r="G303">
         <v>-0.1149126052184397</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.56822092435552</v>
+        <v>-3.568269662382949</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.510933956270584</v>
+        <v>-3.5110217825436</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.700755680212873</v>
+        <v>-3.7014299341164</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.704813505419399</v>
+        <v>-3.705033260959781</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.699055965929022</v>
+        <v>-3.699738360903918</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.684100987900736</v>
+        <v>-3.684665831056949</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.659039965519595</v>
+        <v>-3.659097610839006</v>
       </c>
       <c r="G313">
         <v>-0.1177341668886722</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.623062591656356</v>
+        <v>-3.623359477943568</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.577490601685523</v>
+        <v>-3.577641197877385</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.520889171730816</v>
+        <v>-3.520946607693002</v>
       </c>
       <c r="G316">
         <v>-0.07655918513452487</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.289618657016026</v>
+        <v>-3.291233835707024</v>
       </c>
       <c r="G39">
         <v>-0.2023445280849203</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.236307950429045</v>
+        <v>-3.237923129120044</v>
       </c>
       <c r="G49">
         <v>-0.1956607675337472</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.409743409480133</v>
+        <v>-3.414813602736676</v>
       </c>
       <c r="G82">
         <v>-0.05460564332459761</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.453205179574316</v>
+        <v>-3.453736770092628</v>
       </c>
       <c r="G118">
         <v>-0.1528553294979123</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.43500735105567</v>
+        <v>-3.435428629324191</v>
       </c>
       <c r="G122">
         <v>-0.1450888001320521</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.447898140243459</v>
+        <v>-3.449056207583024</v>
       </c>
       <c r="G123">
         <v>-0.153047007701991</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.44555842462076</v>
+        <v>-3.445634757584822</v>
       </c>
       <c r="G124">
         <v>-0.159089533130373</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.441832069280431</v>
+        <v>-3.443008689958866</v>
       </c>
       <c r="G126">
         <v>-0.1501511171712506</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.431548834858879</v>
+        <v>-3.431582814144606</v>
       </c>
       <c r="G127">
         <v>-0.1454688435115776</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.435784964810402</v>
+        <v>-3.436427449850289</v>
       </c>
       <c r="G128">
         <v>-0.1595132195454134</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.432412857505955</v>
+        <v>-3.433566737649212</v>
       </c>
       <c r="G129">
         <v>-0.1521462840269128</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.433435883917444</v>
+        <v>-3.433713810509713</v>
       </c>
       <c r="G130">
         <v>-0.167662957694064</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.422444480823496</v>
+        <v>-3.422976071341808</v>
       </c>
       <c r="G131">
         <v>-0.1461944936468109</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.419623219768741</v>
+        <v>-3.42021153010796</v>
       </c>
       <c r="G132">
         <v>-0.1613167718776238</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.415534204895587</v>
+        <v>-3.419033321519062</v>
       </c>
       <c r="G133">
         <v>-0.1533906664125282</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.425486898717127</v>
+        <v>-3.426662246835446</v>
       </c>
       <c r="G138">
         <v>-0.1612394747455117</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.410875549604687</v>
+        <v>-3.411408412683119</v>
       </c>
       <c r="G139">
         <v>-0.1695896769623577</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.408936260096491</v>
+        <v>-3.415498698463082</v>
       </c>
       <c r="G140">
         <v>-0.160751864485984</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.354844027243085</v>
+        <v>-3.355830875315648</v>
       </c>
       <c r="G163">
         <v>-0.1513140332722025</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.338435298982867</v>
+        <v>-3.339174307601234</v>
       </c>
       <c r="G167">
         <v>-0.1325429515444643</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.335741800307899</v>
+        <v>-3.336346118865755</v>
       </c>
       <c r="G169">
         <v>-0.1389010870129845</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.312067868597328</v>
+        <v>-3.312672187155184</v>
       </c>
       <c r="G174">
         <v>-0.1330047923792923</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.278823156930208</v>
+        <v>-3.279743568562365</v>
       </c>
       <c r="G183">
         <v>-0.122197619227805</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.510968558980921</v>
+        <v>-3.51332984457248</v>
       </c>
       <c r="G223">
         <v>-0.131825479840264</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.469800990651934</v>
+        <v>-3.473015041708443</v>
       </c>
       <c r="G225">
         <v>-0.1421968177458799</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.440675475270815</v>
+        <v>-3.441411098159021</v>
       </c>
       <c r="G226">
         <v>-0.1411053338320243</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.336303512965743</v>
+        <v>-3.336440052287702</v>
       </c>
       <c r="G228">
         <v>-0.09826898714515042</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.568526173981462</v>
+        <v>-3.568777829090452</v>
       </c>
       <c r="G233">
         <v>-0.0866310891260742</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.565608479586915</v>
+        <v>-3.566977030786509</v>
       </c>
       <c r="G234">
         <v>-0.114074793206457</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.545455690560937</v>
+        <v>-3.545555527126405</v>
       </c>
       <c r="G235">
         <v>-0.1334690477616318</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.485713231848834</v>
+        <v>-3.485852525621012</v>
       </c>
       <c r="G237">
         <v>-0.1297578554255729</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.387097597831384</v>
+        <v>-3.387312402264585</v>
       </c>
       <c r="G239">
         <v>-0.09319506035771308</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.608489395306997</v>
+        <v>-3.608807016962714</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.598620886110161</v>
+        <v>-3.598856639089576</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.585639026288872</v>
+        <v>-3.585717610615344</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.559242224329872</v>
+        <v>-3.559549841320873</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.526001402005869</v>
+        <v>-3.526290401109084</v>
       </c>
       <c r="G248">
         <v>-0.1264759490507408</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.478499137311218</v>
+        <v>-3.478731583661681</v>
       </c>
       <c r="G249">
         <v>-0.1143043408555013</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.357483270882429</v>
+        <v>-3.357579516633247</v>
       </c>
       <c r="G251">
         <v>-0.05118603186279547</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.631677193860583</v>
+        <v>-3.631728454166825</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.626280660377973</v>
+        <v>-3.626335885682701</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.613406159899054</v>
+        <v>-3.613611201124023</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.588370579494781</v>
+        <v>-3.58848716485423</v>
       </c>
       <c r="G258">
         <v>-0.1312688866138383</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.550746774571696</v>
+        <v>-3.550984752826909</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.449406965457094</v>
+        <v>-3.449538338659837</v>
       </c>
       <c r="G261">
         <v>-0.08522695687671566</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.649916315199622</v>
+        <v>-3.650127885447557</v>
       </c>
       <c r="G265">
         <v>-0.04576390405708919</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.653583510052443</v>
+        <v>-3.653820696345877</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.649102833489123</v>
+        <v>-3.649594180698945</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.633543256072572</v>
+        <v>-3.633903828647572</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.608881215209326</v>
+        <v>-3.609091883172508</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.571241614251039</v>
+        <v>-3.571405077031397</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.527092362396725</v>
+        <v>-3.527179392869032</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.469901120220017</v>
+        <v>-3.469930784882095</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401465750152735</v>
+        <v>-3.401482381525367</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.666412276905243</v>
+        <v>-3.666554809450039</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.669443081996302</v>
+        <v>-3.669555638260482</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.665176403264538</v>
+        <v>-3.665286430885947</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.650625279713852</v>
+        <v>-3.650680639730185</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.624851141956078</v>
+        <v>-3.625083335764823</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.589195451145059</v>
+        <v>-3.589251881289793</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.485762087059434</v>
+        <v>-3.485886497315897</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.418132607107577</v>
+        <v>-3.418156181811124</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.682637707859977</v>
+        <v>-3.682937346532304</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.678168778200354</v>
+        <v>-3.678221879970609</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.637367193271452</v>
+        <v>-3.637420914763652</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.602136054969643</v>
+        <v>-3.602211350939668</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.499822676198156</v>
+        <v>-3.499883024768796</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.691306239006615</v>
+        <v>-3.691644858150931</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.695959344633144</v>
+        <v>-3.696169470590997</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.688612020136051</v>
+        <v>-3.688656239307332</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.674551631371738</v>
+        <v>-3.674603149221527</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.649672866020831</v>
+        <v>-3.649819386793774</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.615258555478319</v>
+        <v>-3.615287095054685</v>
       </c>
       <c r="G303">
         <v>-0.1149126052184397</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.568269662382949</v>
+        <v>-3.568283932171133</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.5110217825436</v>
+        <v>-3.511054435194661</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.7014299341164</v>
+        <v>-3.701607005070962</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.705033260959781</v>
+        <v>-3.705329653668714</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.699738360903918</v>
+        <v>-3.699851632099862</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.684665831056949</v>
+        <v>-3.685097795693815</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.623359477943568</v>
+        <v>-3.623381710382903</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.577641197877385</v>
+        <v>-3.577667774307835</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.412262836164115</v>
+        <v>-3.414551220774244</v>
       </c>
       <c r="G83">
         <v>-0.06085968575075995</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.414782262848089</v>
+        <v>-3.417070647458218</v>
       </c>
       <c r="G84">
         <v>-0.06029022320911182</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.424688134869413</v>
+        <v>-3.429758328125954</v>
       </c>
       <c r="G87">
         <v>-0.07310799793935363</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.433568918072894</v>
+        <v>-3.434811247251206</v>
       </c>
       <c r="G93">
         <v>-0.09408137492202906</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.435654128079851</v>
+        <v>-3.436147552116132</v>
       </c>
       <c r="G94">
         <v>-0.09354118198146644</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.431582814144606</v>
+        <v>-3.431749846215302</v>
       </c>
       <c r="G127">
         <v>-0.1454688435115776</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.433713810509713</v>
+        <v>-3.434905857135005</v>
       </c>
       <c r="G130">
         <v>-0.167662957694064</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.422976071341808</v>
+        <v>-3.424224837788008</v>
       </c>
       <c r="G131">
         <v>-0.1461944936468109</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.419033321519062</v>
+        <v>-3.419547631258618</v>
       </c>
       <c r="G133">
         <v>-0.1533906664125282</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.411408412683119</v>
+        <v>-3.412829345383525</v>
       </c>
       <c r="G139">
         <v>-0.1695896769623577</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.415498698463082</v>
+        <v>-3.41614118350297</v>
       </c>
       <c r="G140">
         <v>-0.160751864485984</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.417977662323002</v>
+        <v>-3.418796531337659</v>
       </c>
       <c r="G141">
         <v>-0.1529400358283621</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.406976671601904</v>
+        <v>-3.407729468891585</v>
       </c>
       <c r="G143">
         <v>-0.1526301797400127</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.393054309414444</v>
+        <v>-3.393904212554385</v>
       </c>
       <c r="G151">
         <v>-0.1589989458933896</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.355021697144166</v>
+        <v>-3.355267281726252</v>
       </c>
       <c r="G162">
         <v>-0.1513681385981391</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.322779614714007</v>
+        <v>-3.322851414719581</v>
       </c>
       <c r="G171">
         <v>-0.1332238355590774</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.30383882955985</v>
+        <v>-3.303973519620361</v>
       </c>
       <c r="G177">
         <v>-0.1192885681987284</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.526596928079625</v>
+        <v>-3.526831663786206</v>
       </c>
       <c r="G222">
         <v>-0.09412558219267542</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.51332984457248</v>
+        <v>-3.514187606791259</v>
       </c>
       <c r="G223">
         <v>-0.131825479840264</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.568777829090452</v>
+        <v>-3.572280964081184</v>
       </c>
       <c r="G233">
         <v>-0.0866310891260742</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.566977030786509</v>
+        <v>-3.567721760926621</v>
       </c>
       <c r="G234">
         <v>-0.114074793206457</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.545555527126405</v>
+        <v>-3.546025016959145</v>
       </c>
       <c r="G235">
         <v>-0.1334690477616318</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.485852525621012</v>
+        <v>-3.486074895859843</v>
       </c>
       <c r="G237">
         <v>-0.1297578554255729</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.601551606048941</v>
+        <v>-3.601778152700324</v>
       </c>
       <c r="G243">
         <v>-0.0483340946940598</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.608807016962714</v>
+        <v>-3.608885601289185</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.598856639089576</v>
+        <v>-3.599392000190039</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.585717610615344</v>
+        <v>-3.586089724544068</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.422287965236352</v>
+        <v>-3.422509533304636</v>
       </c>
       <c r="G250">
         <v>-0.08902113476895468</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.357579516633247</v>
+        <v>-3.35811064288987</v>
       </c>
       <c r="G251">
         <v>-0.05118603186279547</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.62738639644687</v>
+        <v>-3.627437656753112</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.631728454166825</v>
+        <v>-3.632632746699628</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.626335885682701</v>
+        <v>-3.626524528370149</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.613611201124023</v>
+        <v>-3.613712792795531</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.550984752826909</v>
+        <v>-3.551036013133152</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.504702035096184</v>
+        <v>-3.504739024169439</v>
       </c>
       <c r="G260">
         <v>-0.1086450977795763</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.653820696345877</v>
+        <v>-3.653889876154704</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.649594180698945</v>
+        <v>-3.649634897412144</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.633903828647572</v>
+        <v>-3.634227868314969</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.609091883172508</v>
+        <v>-3.609197668296475</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.571405077031397</v>
+        <v>-3.571944704401165</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401482381525367</v>
+        <v>-3.401558448930559</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.666554809450039</v>
+        <v>-3.666630654692284</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.669555638260482</v>
+        <v>-3.66978149930758</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.665286430885947</v>
+        <v>-3.66553999207777</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.650680639730185</v>
+        <v>-3.650731203225015</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.625083335764823</v>
+        <v>-3.625295794758881</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.589251881289793</v>
+        <v>-3.589497521600365</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.543272618932732</v>
+        <v>-3.543570477333114</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.485886497315897</v>
+        <v>-3.485911779063312</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.418156181811124</v>
+        <v>-3.418206745305953</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.681252099197128</v>
+        <v>-3.681284982167538</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.682937346532304</v>
+        <v>-3.682956084153936</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.678221879970609</v>
+        <v>-3.6784500379235</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.663104297721269</v>
+        <v>-3.663283091867008</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.637420914763652</v>
+        <v>-3.637609527965555</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.602211350939668</v>
+        <v>-3.602279475353479</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.557530392422001</v>
+        <v>-3.557567655290779</v>
       </c>
       <c r="G293">
         <v>-0.1033455494849609</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.499883024768796</v>
+        <v>-3.499960005368886</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.432157312715465</v>
+        <v>-3.432171626778249</v>
       </c>
       <c r="G295">
         <v>-0.04435049013109038</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.691644858150931</v>
+        <v>-3.692021736375305</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.696169470590997</v>
+        <v>-3.696270089984338</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.688656239307332</v>
+        <v>-3.688993060081066</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.674603149221527</v>
+        <v>-3.674670806380032</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.649819386793774</v>
+        <v>-3.649890735734688</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.568283932171133</v>
+        <v>-3.568370654672188</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.511054435194661</v>
+        <v>-3.511099042300034</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.443277185845505</v>
+        <v>-3.443291455633687</v>
       </c>
       <c r="G306">
         <v>-0.04352850405268022</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.701607005070962</v>
+        <v>-3.702004097232925</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.705329653668714</v>
+        <v>-3.70549121060332</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.699851632099862</v>
+        <v>-3.699918329417871</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.685097795693815</v>
+        <v>-3.685163977705142</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.659097610839006</v>
+        <v>-3.659276457315103</v>
       </c>
       <c r="G313">
         <v>-0.1177341668886722</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.623381710382903</v>
+        <v>-3.623403942822238</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.452741432744958</v>
+        <v>-3.452752548964626</v>
       </c>
       <c r="G317">
         <v>-0.04253678825237683</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.296404369475023</v>
+        <v>-3.299634726857021</v>
       </c>
       <c r="G37">
         <v>-0.197457162955762</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.291233835707024</v>
+        <v>-3.292849014398024</v>
       </c>
       <c r="G39">
         <v>-0.2023445280849203</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.284610622095529</v>
+        <v>-3.287840979477527</v>
       </c>
       <c r="G40">
         <v>-0.1994947329702168</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.25116955634304</v>
+        <v>-3.252784735034045</v>
       </c>
       <c r="G47">
         <v>-0.2167817565885564</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.242931164040547</v>
+        <v>-3.24616152142255</v>
       </c>
       <c r="G48">
         <v>-0.2050772858760024</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.237923129120044</v>
+        <v>-3.239538307811052</v>
       </c>
       <c r="G49">
         <v>-0.1956607675337472</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-3.398909896745509</v>
+        <v>-3.401198281355641</v>
       </c>
       <c r="G79">
         <v>-0.04598655479405123</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-3.401922747465768</v>
+        <v>-3.406499516686029</v>
       </c>
       <c r="G80">
         <v>-0.04869232493509434</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-3.409512367406288</v>
+        <v>-3.411800752016418</v>
       </c>
       <c r="G81">
         <v>-0.05035203964431822</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-3.414813602736676</v>
+        <v>-3.417101987346808</v>
       </c>
       <c r="G82">
         <v>-0.05460564332459761</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-3.414551220774244</v>
+        <v>-3.422403222677195</v>
       </c>
       <c r="G83">
         <v>-0.06085968575075995</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-3.417070647458218</v>
+        <v>-3.427704458007582</v>
       </c>
       <c r="G84">
         <v>-0.06029022320911182</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-3.419649281501456</v>
+        <v>-3.429730460655281</v>
       </c>
       <c r="G85">
         <v>-0.06619446017690844</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-3.415303554355046</v>
+        <v>-3.431756463302978</v>
       </c>
       <c r="G86">
         <v>-0.06807455931998119</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-3.429758328125954</v>
+        <v>-3.433782465950676</v>
       </c>
       <c r="G87">
         <v>-0.07310799793935363</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-3.425668082085288</v>
+        <v>-3.435808468598374</v>
       </c>
       <c r="G88">
         <v>-0.07646418199496985</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-3.422368410370697</v>
+        <v>-3.437834471246072</v>
       </c>
       <c r="G89">
         <v>-0.08102635484145049</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-3.430213511416966</v>
+        <v>-3.43986047389377</v>
       </c>
       <c r="G90">
         <v>-0.08105492876372189</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-3.432298721423916</v>
+        <v>-3.441886476541468</v>
       </c>
       <c r="G91">
         <v>-0.08636531646390067</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-3.433575818929585</v>
+        <v>-3.443912479189165</v>
       </c>
       <c r="G92">
         <v>-0.09070304400961016</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-3.434811247251206</v>
+        <v>-3.445938481836862</v>
       </c>
       <c r="G93">
         <v>-0.09408137492202906</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-3.436147552116132</v>
+        <v>-3.447964484484555</v>
       </c>
       <c r="G94">
         <v>-0.09354118198146644</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-3.433162568866551</v>
+        <v>-3.449003639059692</v>
       </c>
       <c r="G95">
         <v>-0.09582956681364774</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-3.447260984988408</v>
+        <v>-3.450042793634825</v>
       </c>
       <c r="G96">
         <v>-0.09560532539301203</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-3.437470055267684</v>
+        <v>-3.451081948209965</v>
       </c>
       <c r="G97">
         <v>-0.09440158250270869</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-3.446795428422805</v>
+        <v>-3.452121102785101</v>
       </c>
       <c r="G98">
         <v>-0.1046921660477111</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-3.450616391644355</v>
+        <v>-3.453160257360234</v>
       </c>
       <c r="G99">
         <v>-0.1031819692103086</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-3.445027221826122</v>
+        <v>-3.45419941193537</v>
       </c>
       <c r="G100">
         <v>-0.1042745638374463</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-3.449282401724695</v>
+        <v>-3.455238566510503</v>
       </c>
       <c r="G101">
         <v>-0.1139861638253046</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-3.453299638692723</v>
+        <v>-3.456277721085638</v>
       </c>
       <c r="G102">
         <v>-0.1162858944561518</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-3.457061394555017</v>
+        <v>-3.457316875660771</v>
       </c>
       <c r="G103">
         <v>-0.104439397052384</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-3.454391099770438</v>
+        <v>-3.458356030235899</v>
       </c>
       <c r="G104">
         <v>-0.1181485801813293</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-3.458646279669012</v>
+        <v>-3.459139703705291</v>
       </c>
       <c r="G105">
         <v>-0.1168771659426984</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-3.454838268711263</v>
+        <v>-3.45929662321301</v>
       </c>
       <c r="G108">
         <v>-0.124756245122799</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-3.457717789506138</v>
+        <v>-3.459453542720728</v>
       </c>
       <c r="G111">
         <v>-0.1273750303136651</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-3.457532153078175</v>
+        <v>-3.459505849223301</v>
       </c>
       <c r="G112">
         <v>-0.1286501575813777</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-3.456086649296692</v>
+        <v>-3.459558155725872</v>
       </c>
       <c r="G113">
         <v>-0.1286244178183034</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-3.447797068312849</v>
+        <v>-3.459610462228445</v>
       </c>
       <c r="G114">
         <v>-0.1374666184723412</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-3.454710990192992</v>
+        <v>-3.459662768731017</v>
       </c>
       <c r="G115">
         <v>-0.1365149214646308</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-3.441967241903711</v>
+        <v>-3.458617914911237</v>
       </c>
       <c r="G116">
         <v>-0.1416804331266914</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-3.446048250246904</v>
+        <v>-3.457573061091456</v>
       </c>
       <c r="G117">
         <v>-0.1547879281134823</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-3.453736770092628</v>
+        <v>-3.456528207271676</v>
       </c>
       <c r="G118">
         <v>-0.1528553294979123</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-3.453272503417866</v>
+        <v>-3.454438499632115</v>
       </c>
       <c r="G120">
         <v>-0.1373008188455129</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-3.445305484790802</v>
+        <v>-3.453393645812334</v>
       </c>
       <c r="G121">
         <v>-0.1368676187736617</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-3.435428629324191</v>
+        <v>-3.452348791992552</v>
       </c>
       <c r="G122">
         <v>-0.1450888001320521</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-3.449056207583024</v>
+        <v>-3.45130393817277</v>
       </c>
       <c r="G123">
         <v>-0.153047007701991</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-3.445634757584822</v>
+        <v>-3.450259084352988</v>
       </c>
       <c r="G124">
         <v>-0.159089533130373</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-3.446256670618477</v>
+        <v>-3.449214230533207</v>
       </c>
       <c r="G125">
         <v>-0.1574745907267903</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-3.443008689958866</v>
+        <v>-3.448169376713425</v>
       </c>
       <c r="G126">
         <v>-0.1501511171712506</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-3.431749846215302</v>
+        <v>-3.447124522893644</v>
       </c>
       <c r="G127">
         <v>-0.1454688435115776</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-3.436427449850289</v>
+        <v>-3.446079669073862</v>
       </c>
       <c r="G128">
         <v>-0.1595132195454134</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-3.433566737649212</v>
+        <v>-3.445034815254082</v>
       </c>
       <c r="G129">
         <v>-0.1521462840269128</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-3.434905857135005</v>
+        <v>-3.443989961434299</v>
       </c>
       <c r="G130">
         <v>-0.167662957694064</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-3.424224837788008</v>
+        <v>-3.442945107614518</v>
       </c>
       <c r="G131">
         <v>-0.1461944936468109</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-3.42021153010796</v>
+        <v>-3.441900253794735</v>
       </c>
       <c r="G132">
         <v>-0.1613167718776238</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-3.419547631258618</v>
+        <v>-3.440855399974954</v>
       </c>
       <c r="G133">
         <v>-0.1533906664125282</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-3.428722797113491</v>
+        <v>-3.439810546155172</v>
       </c>
       <c r="G134">
         <v>-0.1594327280206125</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-3.421693121928096</v>
+        <v>-3.43876569233539</v>
       </c>
       <c r="G135">
         <v>-0.1538622262877398</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.414504815485952</v>
+        <v>-3.43609539755081</v>
       </c>
       <c r="G136">
         <v>-0.1542233805701336</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.417021469088136</v>
+        <v>-3.433425102766231</v>
       </c>
       <c r="G137">
         <v>-0.1579514573124998</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.426662246835446</v>
+        <v>-3.43075480798165</v>
       </c>
       <c r="G138">
         <v>-0.1612394747455117</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.412829345383525</v>
+        <v>-3.42794756826445</v>
       </c>
       <c r="G139">
         <v>-0.1695896769623577</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.41614118350297</v>
+        <v>-3.425140328547252</v>
       </c>
       <c r="G140">
         <v>-0.160751864485984</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.418796531337659</v>
+        <v>-3.422333088830054</v>
       </c>
       <c r="G141">
         <v>-0.1529400358283621</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.414813943502138</v>
+        <v>-3.419525849112855</v>
       </c>
       <c r="G142">
         <v>-0.153973316048285</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.407729468891585</v>
+        <v>-3.416718609395655</v>
       </c>
       <c r="G143">
         <v>-0.1526301797400127</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.411855084294901</v>
+        <v>-3.413911369678456</v>
       </c>
       <c r="G144">
         <v>-0.1550058153577816</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.407704517401476</v>
+        <v>-3.411104129961258</v>
       </c>
       <c r="G145">
         <v>-0.1596966206627006</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.403553950508051</v>
+        <v>-3.408296890244059</v>
       </c>
       <c r="G146">
         <v>-0.1588205930116247</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.402090037967075</v>
+        <v>-3.405489650526858</v>
       </c>
       <c r="G147">
         <v>-0.1607937236257417</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.401476028566043</v>
+        <v>-3.402682410809657</v>
       </c>
       <c r="G148">
         <v>-0.1589077201628133</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.396475558532674</v>
+        <v>-3.399875171092455</v>
       </c>
       <c r="G149">
         <v>-0.163152867612971</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.39268147074291</v>
+        <v>-3.397067931375254</v>
       </c>
       <c r="G150">
         <v>-0.1493437962144009</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.393904212554385</v>
+        <v>-3.394260691658056</v>
       </c>
       <c r="G151">
         <v>-0.1589989458933896</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.389397166557297</v>
+        <v>-3.391453451940854</v>
       </c>
       <c r="G152">
         <v>-0.1610286925462787</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.387439829980041</v>
+        <v>-3.388646212223653</v>
       </c>
       <c r="G153">
         <v>-0.162345535122794</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.383782687122899</v>
+        <v>-3.385838972506451</v>
       </c>
       <c r="G154">
         <v>-0.156866683126087</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.380371128847838</v>
+        <v>-3.383031732789249</v>
       </c>
       <c r="G155">
         <v>-0.15209530022364</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.376824880512272</v>
+        <v>-3.380224493072049</v>
       </c>
       <c r="G156">
         <v>-0.1438663910212319</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.374152330855584</v>
+        <v>-3.377417253354848</v>
       </c>
       <c r="G157">
         <v>-0.1568259639420662</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.371949409696247</v>
+        <v>-3.374610013637648</v>
       </c>
       <c r="G158">
         <v>-0.155397452399624</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.368403161360672</v>
+        <v>-3.371802773920442</v>
       </c>
       <c r="G159">
         <v>-0.1534872405214769</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.366334930261836</v>
+        <v>-3.368995534203246</v>
       </c>
       <c r="G160">
         <v>-0.1532387703405753</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.362923371986779</v>
+        <v>-3.366188294486046</v>
       </c>
       <c r="G161">
         <v>-0.1485555614297089</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.355267281726252</v>
+        <v>-3.363381054768843</v>
       </c>
       <c r="G162">
         <v>-0.1513681385981391</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.355830875315648</v>
+        <v>-3.36021733594798</v>
       </c>
       <c r="G163">
         <v>-0.1513140332722025</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.346823481056453</v>
+        <v>-3.355597140557216</v>
       </c>
       <c r="G164">
         <v>-0.1501601252713187</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.349007758765533</v>
+        <v>-3.353394219397868</v>
       </c>
       <c r="G165">
         <v>-0.1442810898228697</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.344387563374761</v>
+        <v>-3.34998266112281</v>
       </c>
       <c r="G166">
         <v>-0.1420694867122272</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.339174307601234</v>
+        <v>-3.346571102847751</v>
       </c>
       <c r="G167">
         <v>-0.1325429515444643</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.337540651285711</v>
+        <v>-3.343159544572694</v>
       </c>
       <c r="G168">
         <v>-0.1446860776652161</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.336346118865755</v>
+        <v>-3.339747986297636</v>
       </c>
       <c r="G169">
         <v>-0.1389010870129845</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.332688976008617</v>
+        <v>-3.336090843440494</v>
       </c>
       <c r="G170">
         <v>-0.1420484393665096</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.322851414719581</v>
+        <v>-3.332433700583351</v>
       </c>
       <c r="G171">
         <v>-0.1332238355590774</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.324657222342785</v>
+        <v>-3.328417823750439</v>
       </c>
       <c r="G172">
         <v>-0.1313641409659996</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.32003702695202</v>
+        <v>-3.323193309801812</v>
       </c>
       <c r="G173">
         <v>-0.137620975889418</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.312672187155184</v>
+        <v>-3.319781751526759</v>
       </c>
       <c r="G174">
         <v>-0.1330047923792923</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.313630424002855</v>
+        <v>-3.316370193251702</v>
       </c>
       <c r="G175">
         <v>-0.1284482729088061</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.310541360745211</v>
+        <v>-3.312354316418785</v>
       </c>
       <c r="G176">
         <v>-0.1296097668459881</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.303973519620361</v>
+        <v>-3.308338439585873</v>
       </c>
       <c r="G177">
         <v>-0.1192885681987284</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.301031589842651</v>
+        <v>-3.303718244195101</v>
       </c>
       <c r="G178">
         <v>-0.126952915402133</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.298224350125456</v>
+        <v>-3.300037305799029</v>
       </c>
       <c r="G179">
         <v>-0.1304565967066359</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.292342402722575</v>
+        <v>-3.294947481910908</v>
       </c>
       <c r="G180">
         <v>-0.1251330100575464</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.288983959343908</v>
+        <v>-3.29079691501749</v>
       </c>
       <c r="G181">
         <v>-0.1215631118316615</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.281527998290529</v>
+        <v>-3.286176719626719</v>
       </c>
       <c r="G182">
         <v>-0.1283755740934273</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.279743568562365</v>
+        <v>-3.281556524235949</v>
       </c>
       <c r="G183">
         <v>-0.122197619227805</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.274629949135323</v>
+        <v>-3.276936328845174</v>
       </c>
       <c r="G184">
         <v>-0.1108290348330231</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.27063786784134</v>
+        <v>-3.272316133454408</v>
       </c>
       <c r="G185">
         <v>-0.1136791956755886</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.26351684522479</v>
+        <v>-3.267695938063635</v>
       </c>
       <c r="G186">
         <v>-0.1104135405502263</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.262606114175509</v>
+        <v>-3.263075742672865</v>
       </c>
       <c r="G187">
         <v>-0.1127491976877506</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.258431751743156</v>
+        <v>-3.258455547282095</v>
       </c>
       <c r="G188">
         <v>-0.1033058737236257</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.253365723393975</v>
+        <v>-3.253835351891324</v>
       </c>
       <c r="G189">
         <v>-0.1099746261589356</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.230264746440123</v>
+        <v>-3.230734374937471</v>
       </c>
       <c r="G194">
         <v>-0.08246584603810658</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.225509860988838</v>
+        <v>-3.226114179546699</v>
       </c>
       <c r="G195">
         <v>-0.08726796678082926</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.21222979783545</v>
+        <v>-3.212253593374387</v>
       </c>
       <c r="G198">
         <v>-0.08380269972239762</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.207609602444681</v>
+        <v>-3.207633397983617</v>
       </c>
       <c r="G199">
         <v>-0.07672112523661745</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.202989407053909</v>
+        <v>-3.203013202592846</v>
       </c>
       <c r="G200">
         <v>-0.07158572598786106</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-3.508036210566748</v>
+        <v>-3.515750126439102</v>
       </c>
       <c r="G221">
         <v>-0.06033190180815273</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-3.526831663786206</v>
+        <v>-3.539525619639435</v>
       </c>
       <c r="G222">
         <v>-0.09412558219267542</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.514187606791259</v>
+        <v>-3.542012639975185</v>
       </c>
       <c r="G223">
         <v>-0.131825479840264</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.509110171565044</v>
+        <v>-3.524153392706106</v>
       </c>
       <c r="G224">
         <v>-0.1390626030852369</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.473015041708443</v>
+        <v>-3.497851654573589</v>
       </c>
       <c r="G225">
         <v>-0.1421968177458799</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.441411098159021</v>
+        <v>-3.457623648140855</v>
       </c>
       <c r="G226">
         <v>-0.1411053338320243</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.390096393869912</v>
+        <v>-3.407113771004005</v>
       </c>
       <c r="G227">
         <v>-0.1256462364378812</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.336440052287702</v>
+        <v>-3.348112672230999</v>
       </c>
       <c r="G228">
         <v>-0.09826898714515042</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.26635370355693</v>
+        <v>-3.270293844127197</v>
       </c>
       <c r="G229">
         <v>-0.05511010270412164</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-3.560777482737471</v>
+        <v>-3.575179211576521</v>
       </c>
       <c r="G232">
         <v>-0.05270425102076359</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-3.572280964081184</v>
+        <v>-3.593895485914709</v>
       </c>
       <c r="G233">
         <v>-0.0866310891260742</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.567721760926621</v>
+        <v>-3.594858212794404</v>
       </c>
       <c r="G234">
         <v>-0.114074793206457</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.546025016959145</v>
+        <v>-3.577864502526598</v>
       </c>
       <c r="G235">
         <v>-0.1334690477616318</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.524103709549215</v>
+        <v>-3.550968447557425</v>
       </c>
       <c r="G236">
         <v>-0.1376917695020607</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.486074895859843</v>
+        <v>-3.509607606625815</v>
       </c>
       <c r="G237">
         <v>-0.1297578554255729</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.442444747035496</v>
+        <v>-3.459126122055669</v>
       </c>
       <c r="G238">
         <v>-0.1185755182573551</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.387312402264585</v>
+        <v>-3.399322414184649</v>
       </c>
       <c r="G239">
         <v>-0.09319506035771308</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.321440559020201</v>
+        <v>-3.324308484073659</v>
       </c>
       <c r="G240">
         <v>-0.0552010915519367</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-3.601778152700324</v>
+        <v>-3.614202910146773</v>
       </c>
       <c r="G243">
         <v>-0.0483340946940598</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.608885601289185</v>
+        <v>-3.630145166673945</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.599392000190039</v>
+        <v>-3.629295968574684</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.586089724544068</v>
+        <v>-3.614364971553345</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.559549841320873</v>
+        <v>-3.586057746168573</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.526290401109084</v>
+        <v>-3.546382188682933</v>
       </c>
       <c r="G248">
         <v>-0.1264759490507408</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.478731583661681</v>
+        <v>-3.496665589271609</v>
       </c>
       <c r="G249">
         <v>-0.1143043408555013</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.422509533304636</v>
+        <v>-3.437213371626675</v>
       </c>
       <c r="G250">
         <v>-0.08902113476895468</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.35811064288987</v>
+        <v>-3.362976837287442</v>
       </c>
       <c r="G251">
         <v>-0.05118603186279547</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.627437656753112</v>
+        <v>-3.643296413342234</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.632632746699628</v>
+        <v>-3.656833360819328</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.626524528370149</v>
+        <v>-3.656840553735847</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.613712792795531</v>
+        <v>-3.639888130604352</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.58848716485423</v>
+        <v>-3.612582358305688</v>
       </c>
       <c r="G258">
         <v>-0.1312688866138383</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.551036013133152</v>
+        <v>-3.572729772931381</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.504739024169439</v>
+        <v>-3.524094599461656</v>
       </c>
       <c r="G260">
         <v>-0.1086450977795763</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.449538338659837</v>
+        <v>-3.461746881160035</v>
       </c>
       <c r="G261">
         <v>-0.08522695687671566</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.384456416805152</v>
+        <v>-3.388033247205852</v>
       </c>
       <c r="G262">
         <v>-0.04740952749626015</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.650127885447557</v>
+        <v>-3.664628863554895</v>
       </c>
       <c r="G265">
         <v>-0.04576390405708919</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.653889876154704</v>
+        <v>-3.676992009191553</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.649634897412144</v>
+        <v>-3.675638241662503</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.634227868314969</v>
+        <v>-3.659314344240546</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.609197668296475</v>
+        <v>-3.632646489854515</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.571944704401165</v>
+        <v>-3.592841812428034</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.527179392869032</v>
+        <v>-3.544302361614006</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.469930784882095</v>
+        <v>-3.483078794497371</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.401558448930559</v>
+        <v>-3.408929723164888</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.666630654692284</v>
+        <v>-3.68148137619262</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.66978149930758</v>
+        <v>-3.69287238560524</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.66553999207777</v>
+        <v>-3.691058228437209</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.650731203225015</v>
+        <v>-3.675085250595352</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.625295794758881</v>
+        <v>-3.648072817466224</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.589497521600365</v>
+        <v>-3.609031263134468</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.543570477333114</v>
+        <v>-3.560237975142371</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.485911779063312</v>
+        <v>-3.499040132768794</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.418206745305953</v>
+        <v>-3.424692145901653</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.681284982167538</v>
+        <v>-3.694966170980309</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.682956084153936</v>
+        <v>-3.705687774272248</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.6784500379235</v>
+        <v>-3.703383453060119</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.663283091867008</v>
+        <v>-3.687220839034653</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.637609527965555</v>
+        <v>-3.660638197326652</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.602279475353479</v>
+        <v>-3.621951314876894</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.557567655290779</v>
+        <v>-3.573037132556654</v>
       </c>
       <c r="G293">
         <v>-0.1033455494849609</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.499960005368886</v>
+        <v>-3.511625919712887</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.432171626778249</v>
+        <v>-3.438324065239344</v>
       </c>
       <c r="G295">
         <v>-0.04435049013109038</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.692021736375305</v>
+        <v>-3.705893441427593</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.696270089984338</v>
+        <v>-3.716277358577679</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.688993060081066</v>
+        <v>-3.713793888506943</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.674670806380032</v>
+        <v>-3.697810613799091</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.649890735734688</v>
+        <v>-3.670709972373305</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.615287095054685</v>
+        <v>-3.632460538024692</v>
       </c>
       <c r="G303">
         <v>-0.1149126052184397</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.568370654672188</v>
+        <v>-3.58332374392291</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.511099042300034</v>
+        <v>-3.522396477832312</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.443291455633687</v>
+        <v>-3.449078122832441</v>
       </c>
       <c r="G306">
         <v>-0.04352850405268022</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.702004097232925</v>
+        <v>-3.715135383972649</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.70549121060332</v>
+        <v>-3.724927232986273</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.699918329417871</v>
+        <v>-3.72246234136231</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.685163977705142</v>
+        <v>-3.706552624146751</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.659276457315103</v>
+        <v>-3.679300640070885</v>
       </c>
       <c r="G313">
         <v>-0.1177341668886722</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.623403942822238</v>
+        <v>-3.64089905989522</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.577667774307835</v>
+        <v>-3.592212594616579</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.520946607693002</v>
+        <v>-3.531335666965413</v>
       </c>
       <c r="G316">
         <v>-0.07655918513452487</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.452752548964626</v>
+        <v>-3.45821615215809</v>
       </c>
       <c r="G317">
         <v>-0.04253678825237683</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.296241870627521</v>
+        <v>-3.29785704931852</v>
       </c>
       <c r="G38">
         <v>-0.206665641341099</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.294947481910908</v>
+        <v>-3.295417110408258</v>
       </c>
       <c r="G180">
         <v>-0.1251330100575464</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-3.542012639975185</v>
+        <v>-3.542065517220242</v>
       </c>
       <c r="G223">
         <v>-0.131825479840264</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.407113771004005</v>
+        <v>-3.407230769165115</v>
       </c>
       <c r="G227">
         <v>-0.1256462364378812</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.550968447557425</v>
+        <v>-3.551533783771034</v>
       </c>
       <c r="G236">
         <v>-0.1376917695020607</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.509607606625815</v>
+        <v>-3.509662993226222</v>
       </c>
       <c r="G237">
         <v>-0.1297578554255729</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.459126122055669</v>
+        <v>-3.459190564893071</v>
       </c>
       <c r="G238">
         <v>-0.1185755182573551</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-3.630145166673945</v>
+        <v>-3.630163802559734</v>
       </c>
       <c r="G244">
         <v>-0.08587370727304133</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.629295968574684</v>
+        <v>-3.629314604460471</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.614364971553345</v>
+        <v>-3.614437477361009</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.586057746168573</v>
+        <v>-3.586082950928119</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.643296413342234</v>
+        <v>-3.643386370924184</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.656833360819328</v>
+        <v>-3.656884621125574</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.656840553735847</v>
+        <v>-3.657034367772768</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.639888130604352</v>
+        <v>-3.640060487717567</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.612582358305688</v>
+        <v>-3.612825955827188</v>
       </c>
       <c r="G258">
         <v>-0.1312688866138383</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.572729772931381</v>
+        <v>-3.572792604464539</v>
       </c>
       <c r="G259">
         <v>-0.1228652450846499</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.664628863554895</v>
+        <v>-3.664646147646487</v>
       </c>
       <c r="G265">
         <v>-0.04576390405708919</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.676992009191553</v>
+        <v>-3.677035633039838</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.675638241662503</v>
+        <v>-3.675736303660023</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.659314344240546</v>
+        <v>-3.659705141303591</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.632646489854515</v>
+        <v>-3.632745466207829</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.592841812428034</v>
+        <v>-3.592922690763593</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.544302361614006</v>
+        <v>-3.544352606592331</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.483078794497371</v>
+        <v>-3.48326871092189</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.408929723164888</v>
+        <v>-3.408972909760907</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.68148137619262</v>
+        <v>-3.681558120044749</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.69287238560524</v>
+        <v>-3.692967316467953</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.691058228437209</v>
+        <v>-3.691133615522788</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.675085250595352</v>
+        <v>-3.675229127330566</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.648072817466224</v>
+        <v>-3.648444438843739</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.609031263134468</v>
+        <v>-3.609258272550278</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.560237975142371</v>
+        <v>-3.560499165113009</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.499040132768794</v>
+        <v>-3.499176021775101</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.694966170980309</v>
+        <v>-3.695014162782579</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.705687774272248</v>
+        <v>-3.705775091879607</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.703383453060119</v>
+        <v>-3.703721576812468</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.687220839034653</v>
+        <v>-3.687523343984576</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.660638197326652</v>
+        <v>-3.660871605517098</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.621951314876894</v>
+        <v>-3.622164684686329</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.573037132556654</v>
+        <v>-3.573328016261254</v>
       </c>
       <c r="G293">
         <v>-0.1033455494849609</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.511625919712887</v>
+        <v>-3.511691058381831</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.705893441427593</v>
+        <v>-3.705969528602433</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.716277358577679</v>
+        <v>-3.716451980045823</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.713793888506943</v>
+        <v>-3.714085195983077</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.697810613799091</v>
+        <v>-3.698164016265165</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.670709972373305</v>
+        <v>-3.671019622002173</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.632460538024692</v>
+        <v>-3.632696995070703</v>
       </c>
       <c r="G303">
         <v>-0.1149126052184397</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.58332374392291</v>
+        <v>-3.583615529789987</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.522396477832312</v>
+        <v>-3.522552034987363</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.449078122832441</v>
+        <v>-3.449090291732949</v>
       </c>
       <c r="G306">
         <v>-0.04352850405268022</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.715135383972649</v>
+        <v>-3.715250851017629</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.724927232986273</v>
+        <v>-3.725118668397473</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.72246234136231</v>
+        <v>-3.722736160385598</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.706552624146751</v>
+        <v>-3.706867293155013</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.679300640070885</v>
+        <v>-3.679640558076425</v>
       </c>
       <c r="G313">
         <v>-0.1177341668886722</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.64089905989522</v>
+        <v>-3.641267225508771</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.592212594616579</v>
+        <v>-3.592590388496668</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.531335666965413</v>
+        <v>-3.531466802424689</v>
       </c>
       <c r="G316">
         <v>-0.07655918513452487</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.45821615215809</v>
+        <v>-3.458250783748585</v>
       </c>
       <c r="G317">
         <v>-0.04253678825237683</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AuCu_data.xlsx
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.319781751526759</v>
+        <v>-3.320386070084616</v>
       </c>
       <c r="G174">
         <v>-0.1330047923792923</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.303718244195101</v>
+        <v>-3.304187872692447</v>
       </c>
       <c r="G178">
         <v>-0.126952915402133</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.407230769165115</v>
+        <v>-3.407287244500078</v>
       </c>
       <c r="G227">
         <v>-0.1256462364378812</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.577864502526598</v>
+        <v>-3.577972328348326</v>
       </c>
       <c r="G235">
         <v>-0.1334690477616318</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.551533783771034</v>
+        <v>-3.551738397341879</v>
       </c>
       <c r="G236">
         <v>-0.1376917695020607</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.629314604460471</v>
+        <v>-3.629410400564947</v>
       </c>
       <c r="G245">
         <v>-0.108946927923236</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.614437477361009</v>
+        <v>-3.614624057898085</v>
       </c>
       <c r="G246">
         <v>-0.127524045146219</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.586082950928119</v>
+        <v>-3.586238627337222</v>
       </c>
       <c r="G247">
         <v>-0.1313531631994094</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.546382188682933</v>
+        <v>-3.546436058604809</v>
       </c>
       <c r="G248">
         <v>-0.1264759490507408</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-3.643386370924184</v>
+        <v>-3.643488891536667</v>
       </c>
       <c r="G254">
         <v>-0.04699454268914272</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-3.656884621125574</v>
+        <v>-3.65693324564172</v>
       </c>
       <c r="G255">
         <v>-0.08307200574352702</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.657034367772768</v>
+        <v>-3.657283157879823</v>
       </c>
       <c r="G256">
         <v>-0.1071590060349803</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.640060487717567</v>
+        <v>-3.640275194822667</v>
       </c>
       <c r="G257">
         <v>-0.1241710393116908</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.612825955827188</v>
+        <v>-3.612933370379132</v>
       </c>
       <c r="G258">
         <v>-0.1312688866138383</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.524094599461656</v>
+        <v>-3.524157578116064</v>
       </c>
       <c r="G260">
         <v>-0.1086450977795763</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.461746881160035</v>
+        <v>-3.461821354539233</v>
       </c>
       <c r="G261">
         <v>-0.08522695687671566</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-3.664646147646487</v>
+        <v>-3.66467276730868</v>
       </c>
       <c r="G265">
         <v>-0.04576390405708919</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.677035633039838</v>
+        <v>-3.677124413977712</v>
       </c>
       <c r="G266">
         <v>-0.08016248935950943</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.675736303660023</v>
+        <v>-3.675796012775053</v>
       </c>
       <c r="G267">
         <v>-0.1067049576446251</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.659705141303591</v>
+        <v>-3.659974748032325</v>
       </c>
       <c r="G268">
         <v>-0.1202370360878686</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.632745466207829</v>
+        <v>-3.632906102972368</v>
       </c>
       <c r="G269">
         <v>-0.125579607973983</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.592922690763593</v>
+        <v>-3.593016567598334</v>
       </c>
       <c r="G270">
         <v>-0.1216678696177951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.544352606592331</v>
+        <v>-3.544489666993239</v>
       </c>
       <c r="G271">
         <v>-0.1043603147673902</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.48326871092189</v>
+        <v>-3.48337995105107</v>
       </c>
       <c r="G272">
         <v>-0.08177201592867889</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.408972909760907</v>
+        <v>-3.408999846920381</v>
       </c>
       <c r="G273">
         <v>-0.04613249368495104</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-3.681558120044749</v>
+        <v>-3.681627769160048</v>
       </c>
       <c r="G276">
         <v>-0.04481495852940975</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.692967316467953</v>
+        <v>-3.693030071531556</v>
       </c>
       <c r="G277">
         <v>-0.07925061961655189</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.691133615522788</v>
+        <v>-3.691316966863306</v>
       </c>
       <c r="G278">
         <v>-0.1031182217545381</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.675229127330566</v>
+        <v>-3.675490974748727</v>
       </c>
       <c r="G279">
         <v>-0.1182598268918529</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.648444438843739</v>
+        <v>-3.648701864713944</v>
       </c>
       <c r="G280">
         <v>-0.1214431470272408</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.609258272550278</v>
+        <v>-3.609439460224187</v>
       </c>
       <c r="G281">
         <v>-0.1178158041773978</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.560499165113009</v>
+        <v>-3.560657403966439</v>
       </c>
       <c r="G282">
         <v>-0.1036294712685202</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.499176021775101</v>
+        <v>-3.499285954253794</v>
       </c>
       <c r="G283">
         <v>-0.07913966229598124</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.424692145901653</v>
+        <v>-3.424704070172657</v>
       </c>
       <c r="G284">
         <v>-0.0447516119665694</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-3.695014162782579</v>
+        <v>-3.695094888817039</v>
       </c>
       <c r="G287">
         <v>-0.0434760596139081</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.705775091879607</v>
+        <v>-3.70593358244551</v>
       </c>
       <c r="G288">
         <v>-0.0777261647075651</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.703721576812468</v>
+        <v>-3.704011156824279</v>
       </c>
       <c r="G289">
         <v>-0.1002985801579523</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.687523343984576</v>
+        <v>-3.687855611853854</v>
       </c>
       <c r="G290">
         <v>-0.1157478636608396</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.660871605517098</v>
+        <v>-3.661174311175869</v>
       </c>
       <c r="G291">
         <v>-0.1199735045480448</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.622164684686329</v>
+        <v>-3.622386143175247</v>
       </c>
       <c r="G292">
         <v>-0.1157370912788425</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.573328016261254</v>
+        <v>-3.573614219434213</v>
       </c>
       <c r="G293">
         <v>-0.1033455494849609</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.511691058381831</v>
+        <v>-3.511900602823177</v>
       </c>
       <c r="G294">
         <v>-0.07788689201148424</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-3.705969528602433</v>
+        <v>-3.706114142022602</v>
       </c>
       <c r="G298">
         <v>-0.0431304392744507</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.716451980045823</v>
+        <v>-3.716633763463862</v>
       </c>
       <c r="G299">
         <v>-0.0764775264159967</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.714085195983077</v>
+        <v>-3.714413401111292</v>
       </c>
       <c r="G300">
         <v>-0.09974929063513116</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.698164016265165</v>
+        <v>-3.698529827294164</v>
       </c>
       <c r="G301">
         <v>-0.114257954253385</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.671019622002173</v>
+        <v>-3.671349687855899</v>
       </c>
       <c r="G302">
         <v>-0.1188135233147785</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.632696995070703</v>
+        <v>-3.632982637152653</v>
       </c>
       <c r="G303">
         <v>-0.1149126052184397</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.583615529789987</v>
+        <v>-3.583987242567858</v>
       </c>
       <c r="G304">
         <v>-0.1004603446823797</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.522552034987363</v>
+        <v>-3.522755577572684</v>
       </c>
       <c r="G305">
         <v>-0.07726630922334143</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-3.715250851017629</v>
+        <v>-3.715376379336635</v>
       </c>
       <c r="G309">
         <v>-0.04291859976329659</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.725118668397473</v>
+        <v>-3.725360807706488</v>
       </c>
       <c r="G310">
         <v>-0.07511177066221997</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.722736160385598</v>
+        <v>-3.723235313664512</v>
       </c>
       <c r="G311">
         <v>-0.09819051641275145</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.706867293155013</v>
+        <v>-3.707198586786887</v>
       </c>
       <c r="G312">
         <v>-0.1135891149922839</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.679640558076425</v>
+        <v>-3.680201047887943</v>
       </c>
       <c r="G313">
         <v>-0.1177341668886722</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.641267225508771</v>
+        <v>-3.641720207764833</v>
       </c>
       <c r="G314">
         <v>-0.1126445237249882</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.592590388496668</v>
+        <v>-3.593000616135805</v>
       </c>
       <c r="G315">
         <v>-0.0991630052825474</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.531466802424689</v>
+        <v>-3.531877586233736</v>
       </c>
       <c r="G316">
         <v>-0.07655918513452487</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.458250783748585</v>
+        <v>-3.458268653599518</v>
       </c>
       <c r="G317">
         <v>-0.04253678825237683</v>
